--- a/IdensolApp/Assets/Resources/ExcelFiles/MultiLanguage.xlsx
+++ b/IdensolApp/Assets/Resources/ExcelFiles/MultiLanguage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Elliot\Idensol\IdensolApp\IdensolApp\Assets\Resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73A6C40-C948-4E78-8B60-0B4AB43CD6A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A634130-7FA5-4F6D-A21F-00AF0083C0CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="592">
   <si>
     <t>id</t>
   </si>
@@ -961,27 +961,1777 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>leftlist_Digital Workflow</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>leftlist_How to Operate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>leftlist_Troubleshooting</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>leftlist_About Idensol</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Confirm</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>NextPage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃：加工完成/停止</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>綠：加工狀態</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄：加工完成/停止</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿：加工状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yellow: Processing complete/stopped</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Green: Processing </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>燈號說明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯号说明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Light Indication</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作面板說明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作面板说明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Operating Indication</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>橡膠墊鑽孔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>橡胶垫钻孔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rubber Drilling</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀具庫位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀具库位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tool Magazine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>筒夾保養</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>筒夹保养</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chuck Maintenance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>換料盤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>换料盘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Replacement Clamp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紅：異警狀態</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红：异警状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Red: Abnormal alarm </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二區：建議放置氧化鋯專用刀具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三區：建議放置玻璃陶瓷專用刀具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四區：建議放置premill專用刀具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二区：建议放置氧化锆专用刀具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三区：建议放置玻璃陶瓷专用刀具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四区：建议放置premill专用刀具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zone 2: Burs for zirconia materials.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zone 3: Burs for glass-ceramic materials.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zone 4: Burs for premill materials.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一區：建議放置蠟、樹脂材料專用刀具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一区：建议放置蜡、树脂材料专用刀具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zone 1: Burs for wax and resin materials.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>導入加工檔案</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入加工档案</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>How to Importing Files</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reset</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>歸零</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>归零</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>匯入檔案</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇入档案</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Import File</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>開啟自動循環後，請先刪除上批檔案</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启自动循环后，请先删除上批档案</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Before starting the auto-loop, delete the previous file.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入加工档案
+我要使用
+网络传输
+U盘传输
+1个档案
+多个档案
+了解</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自動清潔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动清洁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Automatic Cleaning</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>執行自動灑水清潔10分鐘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行自动洒水清洁10分钟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 minutes to clean processing chamber.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀具長度歸零</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀具长度归零</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tool length resetting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一頁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>進入刀具管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入刀具管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tool Management</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>將所有刀長紀錄歸零</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将所有刀长纪录归零</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Length return to zero.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成程序</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finish</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>換刀具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>换刀具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bur Change</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拿穩筒夾上的刀具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拿稳筒夹上的刀具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold the bur steady.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>筒夾鬆刀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>筒夹松刀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Release bur</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀具放入筒夾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀具放入筒夹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Put the bur in chuck.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>筒夾夾刀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>筒夹夹刀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clamp the bur.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>※鑽孔前請先校正精度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>※钻孔前请先校正精度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>※</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Please be sure to have the original engineer calibrate the machine before drilling the rubber.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用2.0mm的六角板手卸下壓板，取出受損的橡膠塊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用2.0mm的六角板手卸下压板，取出受损的橡胶块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use a 2.0 hex wrench, remove the rubber.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>換上新橡膠墊後，再把壓板鎖回原位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>换上新橡胶垫后，再把压板锁回原位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use a 2.0mm hex wrench to lock the new rubber back to its original position.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更換專用校正刀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换专用校正刀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use a correction bur.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Put in the correction bur and press this button.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按夾刀鍵，試試鬆夾刀是否正常</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按夹刀键，试试松夹刀是否正常</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test to see if the releasing and clamping bur is working properly.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>點擊重置鍵與歸零鍵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击重置键与归零键</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Click the RESET and HOME button.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>點擊鑽孔加工，選擇確定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击钻孔加工，选择确定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Click the DRILLING button, click [OK].</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先將主軸上的刀具卸下，※注意:在卸刀狀態下，請勿點下夾刀鍵，恐傷主軸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先将主轴上的刀具卸下，※注意:在卸刀状态下，请勿点下夹刀键，恐伤主轴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用六角套筒將筒夾順時針方向卸下</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用六角套筒将筒夹顺时针方向卸下</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use a hex scoket to remove the chuck clockwise.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5mmL型六角板手將筒夾內的螺絲取下</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5mmL型六角板手将筒夹内的螺丝取下</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Next, use a 1.5mm hex wrench to remove the screw from the chuck.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒精清潔筒夾與螺絲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒精清洁筒夹与螺丝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use alcohol to clean chuck and screw.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>六角套筒將筒夾逆時針方向裝回主軸上，轉到底後再退三圈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>六角套筒将筒夹逆时针方向装回主轴上，转到底后再退三圈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Use 1.5mm hexagonal wrench put the chuck back on the spindle counterclockwise, turn the chuck 
+ to the bottom and back off three times.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5mmL型六角板手將內螺絲鎖入筒夾內(力道適當即可)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5mmL型六角板手将内螺丝锁入筒夹内(力道适当即可)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Use 1.5mm hexagonal wrench to put the screw in the chuck and lock it. (Just the right amount of  force.)
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按鬆夾刀鍵，試試鬆夾刀是否正常
+※太鬆→鬆開內螺絲，將筒夾進半圈，再鎖回內螺絲
+※太緊→鬆開內螺絲，將筒夾退半圈，再鎖回內螺絲(力道適當即可)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按松夹刀键，试试松夹刀是否正常
+※太松→松开内螺丝，将筒夹进半圈，再锁回内螺丝
+※太紧→松开内螺丝，将筒夹退半圈，再锁回内螺丝(力道适当即可)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>圓形料盤夾具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆形料盘夹具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clamp for Disk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5mm六角板手鬆開螺絲，取下壓板與使用過的料盤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5mm六角板手松开螺丝，取下压板与使用过的料盘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5mm hex wrench loosen the screw, remove the clamping plate and used material.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 換上新料盤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 换上新料盘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Replace with a new disk.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5mm六角板手把將壓板鎖回原位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5mm六角板手把将压板锁回原位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5mm hex wrench to lock the clamping plate back into place.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玻璃陶瓷專用夾具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玻璃陶瓷专用夹具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clamp for Glass Ceramic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>將瓷塊插入其專用夾具的防旋轉裝置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将瓷块插入其专用夹具的防旋转装置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Insert the block into the anti-rotation device of its clamp.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鎖緊夾具兩側的4mm螺絲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁紧夹具两侧的4mm螺丝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tighten the block with 4mm screws on both sides.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>premill專用夾具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>premill专用夹具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clamp for Ti Bar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>premill底部的平面朝上，插入其專用夾具的插槽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>premill底部的平面朝上，插入其专用夹具的插槽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The flat side of the premill faces upwards and insert in its clamp.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鎖緊夾具兩側的4mm螺絲和插槽底部的5mm螺絲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁紧夹具两侧的4mm螺丝和插槽底部的5mm螺丝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tighten the premill with 4 mm screws and 5 mm screws .</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>檔案讀取錯誤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>档案读取错误</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Failed to load NC file</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>讀取NC檔案失敗
+1.重新排版再次輸出NC檔案
+2.檔案名稱以英文或數字命名，切勿以中文命名
+3.將NC檔案傳輸至齒雕機
+4.按下RESET重置鍵與HOME歸零鍵，接續動作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取NC档案失败
+1.重新排版再次输出NC档案
+2.文件名以英文或数字命名，切勿以中文命名
+3.将NC文件传输至齿雕机
+4.按下RESET重置键与HOME归零键，接续动作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Failed to load NC file
+1. Typesetting and output NC files again.
+2. File names should be in English or numeric characters.
+3. Transfer NC files to the machine.
+4. Press the RESET and HOME button to continue the action.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error201:第1路徑系統無此G指令
+[程式名稱]:行號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error201:第1路径系统无此G指令
+[程序名称]:行号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Error201:No such G command in the 1st path system [Program Name]: Line No.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">GCode無內容
+請於紀錄錯誤行號後通知東昕售服
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">GCode无内容
+请于纪录错误行号后通知东昕售服
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GCode has no content.
+Please notify us after recording the wrong line number.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通訊式I/O通訊異常</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通讯式I/O通讯异常</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Communication I/O communication abnormalities</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>請通知東昕售服</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请通知东昕售服</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please inform us.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z軸需優先回原點</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z轴需优先回原点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z-axis should be returned to the home position first.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Z軸沒有在原點上，其他軸向觸發回原點
+按下RESET重置鍵與HOME歸零鍵
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Z轴没有在原点上，其他轴向触发回原点
+按下RESET重置键与HOME归零键
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Z-axis is not at the origin.
+Press RESET and HOME button to continue the action.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> X(Y、Z、A、B)軸超過軟體極限正(負)向極限值
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> X(Y、Z、A、B)轴超过软件极限正(负)向极限值
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X (Y, Z, A, B) axis exceeds the software limit positive (negative) direction limit value.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>排版軟體計算錯誤，導致NC檔超出各軸極限
+1.請紀錄畫面顯示的GCode錯誤行數
+2.將加工檔案與GCode錯誤行數一同傳送至東昕售服</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>排版软件计算错误，导致NC档超出各轴极限
+1.请纪录画面显示的GCode错误行数
+2.将加工档案与GCode错误行数一同传送至东昕售服</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">X(Y、Z、A、B)軸絕對編碼器數據丟失1(錯誤代碼)
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">X(Y、Z、A、B)轴绝对编码器数据丢失1(错误代码)
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X (Y, Z, A, B) axis absolute encoder data loss 1 (error code).</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>請於紀錄錯誤代碼後通知東昕售服</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请于纪录错误代码后通知东昕售服</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please inform us after recording the error code.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> X(Y、Z、A、B)軸 找不到任何支援的EtherCAT裝置(系統警報)
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> X(Y、Z、A、B)轴 找不到任何支持的EtherCAT装置(系统警报)
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X (Y, Z, A, B) axis EtherCAT device isn't found (system alarm).</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">量刀刀長異常,誤差____mm
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">量刀刀长异常,误差____mm
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Abnormal bur length, error _____mm.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超過量刀誤差範圍設定值
+刀具斷裂
+1.確認當前刀號與主軸刀號是否一致
+2.將斷裂/磨耗的刀具取下
+3.更換新刀具，請確認刀具規格
+4.刀具長度歸零
+5.按下RESET重置鍵與HOME歸零鍵，接續動作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超过量刀误差范围设定值
+刀具断裂
+1.确认当前刀号与主轴刀号是否一致
+2.将断裂/磨耗的刀具取下
+3.更换新刀具，请确认刀具规格
+4.刀具长度归零
+5.按下RESET重置键与HOME归零键，接续动作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Over the tolerance range of the measuring bur.
+Bur breakage.
+1.Make sure the current bur number is the same as the spindle bur number.
+2.Remove the broken/worn bur.
+3.For new bur, please check the bur specifications.
+4.Length return to zero.
+5. Press the RESET and HOME button to continue the action.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>量刀刀長異常,主軸刀具異常</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>量刀刀长异常,主轴刀具异常</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Abnormal bur length, spindle bur abnormality.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主軸沒有刀具
+1.確認當前刀號與主軸刀號是否一致
+2.重新放上刀具，請確認刀具規格
+3.刀具長度歸零
+4.按下RESET重置鍵與HOME歸零鍵，接續動作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主轴没有刀具
+1.确认当前刀号与主轴刀号是否一致
+2.重新放上刀具，请确认刀具规格
+3.刀具长度归零
+4.按下RESET重置键与HOME归零键，接续动作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spindles without bur.
+1.Make sure the current bur number is the same as the spindle bur number.
+2.Put the bur on and check the bur specifications.
+3.Length return to zero.
+4. Press the RESET and HOME button to continue the action.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀號呼叫錯誤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀号呼叫错误</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wrong bur number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">執行M6T碼超過12
+將加工檔案傳送至東昕售服
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">执行M6T码超过12
+将加工档案传送至东昕售服
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-code over 12
+Send the file to us.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">第1~12號刀具的壽命已到達
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">第1~12号刀具的寿命已到达
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bur No.1~12 have reached their life expectancy.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀具使用時間已達預設值
+1.確認當前刀號與主軸刀號是否一致
+2.將磨耗的刀具取下
+3.更換新刀具，請確認刀具規格
+4.刀具長度歸零
+5.按下RESET重置鍵與HOME歸零鍵，接續動作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀具使用时间已达默认值
+1.确认当前刀号与主轴刀号是否一致
+2.将磨耗的刀具取下
+3.更换新刀具，请确认刀具规格
+4.刀具长度归零
+5.按下RESET重置键与HOME归零键，接续动作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bur use time has reached the preset value.
+1.Make sure the current bur number is the same as the spindle bur number.
+2.Remove the worn bur.
+3.For new bur, please check the bur specifications.
+4.Length return to zero.
+5. Press the RESET and HOME button to continue the action.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">第1~12號刀具磨耗已超過設定值
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">第1~12号刀具磨耗已超过设定值
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bur wear for No.1~12 has exceeded the set value.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超過量刀誤差範圍設定值
+1.確認當前刀號與主軸刀號是否一致
+2.將磨耗的刀具取下
+3.更換新刀具，請確認刀具規格
+4.刀具長度歸零
+5.按下RESET重置鍵與HOME歸零鍵，接續動作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超过量刀误差范围设定值
+1.确认当前刀号与主轴刀号是否一致
+2.将磨耗的刀具取下
+3.更换新刀具，请确认刀具规格
+4.刀具长度归零
+5.按下RESET重置键与HOME归零键，接续动作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exceeding the tolerance of the measuring bur.
+1.Make sure the current bur number is the same as the spindle bur number.
+2.Remove the worn bur.
+3.For new bur, please check the bur specifications.
+4.Length return to zero.
+5. Press the RESET and HOME button to continue the action.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>空壓過低</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>空压过低</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Low air pressure</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>空壓機未開啟電源
+1.打開空壓機電源
+2.待壓力升高到6 kg/cm³ ( 6 bar 或90 psi 或0.6 MPa)以上
+3.按下RESET重置鍵與HOME歸零鍵，接續動作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>空压机未开启电源
+1.打开空压机电源
+2.待压力升高到6 kg/cm³ ( 6 bar 或90 psi 或0.6 MPa)以上
+3.按下RESET重置键与HOME归零键，接续动作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compressed air not turned on.
+1.Turn on the power of the air compressor.
+2.Wait until the pressure is raised above 6 kg/cm³ (6 bar or 90 psi or 0.6 MPa).
+3. Press the RESET and HOME button to continue the action.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">空壓機或儲氣桶輸出氣壓的閥門未開啟
+1.打開閥門
+2.按下RESET重置鍵與HOME歸零鍵，接續動作
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">空压机或储气桶输出气压的阀门未开启
+1.打开阀门
+2.按下RESET重置键与HOME归零键，接续动作
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Output valve isn't open.
+1.Open the valve.
+2.Press the RESET and HOME button to continue the action.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>齒雕機後方接頭未連接高壓風管
+1.將高壓風管接上齒雕機後方的風壓接頭，打開氣壓源
+2.按下RESET重置鍵與HOME歸零鍵，接續動作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>齿雕机后方接头未连接高压风管
+1.将高压风管接上齿雕机后方的风压接头，打开气压源
+2.按下RESET重置键与HOME归零键，接续动作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hose isn't connected properly.
+1.Make sure hose is connected.
+2.Press the RESET and HOME button to continue the action.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>總公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Headquarters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>東昕精密科技股份有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>东昕精密科技股份有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Toshin Precision Technology Co., Ltd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>台中市南屯區五權西路二段1266巷23弄31-13號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>台中市南屯区五权西路二段1266巷23弄31-13号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No. 31-13, Lane 23, Lane 1266, Section 2, Wuquan West Road, Nanxun District, Taichung City, Taiwan (R.O.C.)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>南科分公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Branch office</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高雄市路竹區路科路五段98號5樓B室</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高雄市路竹区路科路五段98号5楼B室</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rm. B, 5F., No. 98, Luke 5th Rd., Luzhu Dist., Kaohsiung City, Taiwan (R.O.C.)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>連絡電話</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>连络电话</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contact us</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>電話</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>傳真</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>传真</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fax</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>網頁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>网页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Websites</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>數位切銷系統不再是最昂貴的設備</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字切销系统不再是最昂贵的设备</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>牙科專用雕刻機是我們的專業，使用簡易、兼容性強是我們一貫的堅持。在追求技術與服務品質的同時，以創新思維將多年的電腦數值控制工具機經驗，導入牙科齒雕機作為研發生產的基礎，並持續升級設備功能與研發新品。以嚴謹的德國工藝、德國品質標準製作每一項產品，從概念設計到產品生產一條龍服務，帶給客戶最真誠的合作關係。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>牙科专用雕刻机是我们的专业，使用简易、兼容性强是我们一贯的坚持。在追求技术与服务质量的同时，以创新思维将多年的计算机数值控制工具机经验，导入牙科齿雕机作为研发生产的基础，并持续升级设备功能与研发新品。以严谨的德国工艺、德国质量标准制作每一项产品，从概念设计到产品生产一条龙服务，带给客户最真诚的合作关系。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dental milling machine is our specialty, and we always insist on easy to use and high compatibility. In the pursuit of technology and service quality, we have imported our years of experience in computer numerical control machine into dental milling machines as the basis of research and development, and continue to upgrade the function of the equipment and develop new products. Every product is made with strict German craftsmanship and German quality standards, and we provide one-stop service from conceptual design to production, bringing our customers the most sincere cooperation.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>專業服務，滿足您的需求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业服务，满足您的需求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sustainable services to meet your needs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我們把完備的軟、硬體專業技術支援，以及在地化服務視為營運核心。身為牙科數位化解決方案的提供者，我們的目標是讓全球牙科業界的專業人士享有最佳數位解決方案的服務，提供最好的品質、服務與合理的價格。除了有完整的教育訓練、高效率的維修服務與保固之外，於2020年推出的Idensol物聯網(IoT)功能，將優化齒雕機的維護管理效能，為使用者提供更便捷、即時的產品服務。
+-線上型錄
+-AR教學
+-線上客服
+-Idensol物聯網</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们把完备的软、硬件专业技术支持，以及在地化服务视为营运核心。身为牙科数字化解决方案的提供者，我们的目标是让全球牙科业界的专业人士享有最佳数字解决方案的服务，提供最好的质量、服务与合理的价格。除了有完整的教育训练、高效率的维修服务与保固之外，于2020年推出的Idensol物联网(IoT)功能，将优化齿雕机的维护管理效能，为使用者提供更便捷、实时的产品服务。
+-在线型录
+-AR教学
+-在线客服
+-Idensol物联网</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">We have always regarded complete software and hardware professional technical support and efficient after-sales service as the core of our operations. As a provider of dental digital solutions, our goal is to enable professionals in the global dental industry to enjoy the best digital solution services, providing the best quality, best service and reasonable prices.In addition to complete education and training, high-efficiency maintenance services and warranty, the Idensol Internet of Things (IoT) function launched in 2020 will optimize the maintenance management performance of tooth carving machines and provide users with more convenient and immediate products service.
+ - Online catalog
+ - AR teaching
+ - Online service
+ - IoT service
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Press the bur changer button to see if the bur is working properly.
+※</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">Too loose </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> Loosen screw, clamp the chuck in half turn, then lock screw.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>※</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">Too tight </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> Loosen screw, back off the chuck a half turn, then lock back screw.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     按鬆夾刀鍵，將主軸刀具卸下</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     按松夹刀键，将主轴刀具卸下</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>放入校正刀，    按夹刀键夹刀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>放入校正刀，    按夾刀鍵夾刀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     Press this button to remove the spindle tool.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CAM software calculation error, resulting in NC file exceeding the limit of each axis.
+1. Please record the number of GCode error lines displayed on the screen.
+2. Send the processing file with the GCode error line to us.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>First, remove the bur from the spindle.
+※</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Note: Don't click this button while the bur is unloaded, as it may damage the spindle.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>五軸數位牙科齒雕機</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>五轴数位牙科齿雕机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Idensol Dental milling machine 5XP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>logo_Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>login</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>請輸入密碼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_Password</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>leftlist_DigitalWorkflow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>leftlist_HowtoOperate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>leftlist_AboutIdensol</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>digitalWorkflow_Step1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>digitalWorkflow_Step2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>digitalWorkflow_Step3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>digitalWorkflow_Step4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>digitalWorkflow_Step5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>digitalWorkflow_Designsteps</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>digitalWorkflow_Layoutsteps</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>digitalWorkflow_Operationsteps</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入密码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>影片教學</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>影片教学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Video Tutorial </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Video_Tutorial</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAD-Prosthetic Design</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAD假牙設計</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAD假牙设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step2_Tutorial</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step2_Copping</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step2_Single Crown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step2_Inlay/Onlay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step2_Venner</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step2_Premill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copping_Create</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copping_Define</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copping_Optimize</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copping_Edit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copping_Set</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copping_Design</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Single Crown_Create</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Single Crown_Define</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Single Crown_Optimize</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Single Crown_Edit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Single Crown_Set</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Single Crown_Design</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inlay/Onlay_Create</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inlay/Onlay_Define</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inlay/Onlay_Optimize</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inlay/Onlay_Edit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inlay/Onlay_Set</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inlay/Onlay_Design</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Venner_Design</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Venner_Create</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Venner_Define</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Venner_Optimize</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Venner_Edit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Venner_Set</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Premill_Define</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Premill_Set</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Premill_Detect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Premill_Generate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Premill_Abutment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Premill_Forming</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Premill_Complete</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step3_Zirconia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step3_Glass Cermaic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step3_Premill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zirconia_Define</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zirconia_Import</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zirconia_Choose</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zirconia_Adjust</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zirconia_Move</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Glass Cermaic_Define</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Glass Cermaic_Import</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Glass Cermaic_Choose</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Glass Cermaic_Adjust</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Glass Cermaic_Move</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Glass Cermaic_ChooseMaterials</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zirconia_ChooseMaterials</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Premill_Import</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Premill_Click</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Premill_Build</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -999,6 +2749,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1015,12 +2766,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="微軟正黑體"/>
       <family val="2"/>
@@ -1031,6 +2776,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1050,21 +2802,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00B30BCF-22AB-4D39-B7AA-480F8954B552}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1077,6 +2841,403 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>51955</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3177062</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>1722294</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="圖片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03CD0888-EDE2-4319-9C78-E9B7641036BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="19677" t="14294" r="19788" b="42748"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2128405" y="19269075"/>
+          <a:ext cx="3125107" cy="1655619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4352925</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>1641271</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="圖片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A68C9174-6A14-4642-916C-4A81D0CEF969}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect l="43817" t="37005" r="19116" b="39215"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7239000" y="1504949"/>
+          <a:ext cx="4257675" cy="1536497"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>371476</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>342901</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="圖片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A2E9C04-460B-47E9-B220-288509B33BAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2143126" y="24669751"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="圖片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA0E32C4-366C-4711-A0AE-A8ADBA835F9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14287500" y="24669750"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1228725</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="圖片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41306110-ED54-4D5E-9C9D-3CAF05FDB0CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2790825" y="1771650"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3667125</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3971925</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="圖片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4113B7E3-ACF8-4BD6-A1E6-ED0D573006F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17897475" y="25031700"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>352426</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="圖片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D7D6C87-F106-42BF-A89B-8F4410A54E25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8677276" y="24679276"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1228725</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="圖片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73365F42-E85F-4BAC-8AFE-7A9B9EB7B29E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="1771650"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1277,1539 +3438,2390 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D172"/>
+  <dimension ref="A1:D184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.25" customWidth="1"/>
-    <col min="2" max="2" width="70.375" customWidth="1"/>
+    <col min="1" max="1" width="38.5" customWidth="1"/>
+    <col min="2" max="2" width="85.625" customWidth="1"/>
     <col min="3" max="3" width="73.875" customWidth="1"/>
-    <col min="4" max="4" width="74.875" customWidth="1"/>
+    <col min="4" max="4" width="109.5" customWidth="1"/>
     <col min="5" max="27" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B16" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="C90" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="D90" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="3"/>
+      <c r="B93" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="3"/>
+      <c r="B94" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="3"/>
+      <c r="B95" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="3"/>
+      <c r="B96" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="3"/>
+      <c r="B97" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="3"/>
+      <c r="B98" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="3"/>
+      <c r="B99" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="3"/>
+      <c r="B100" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="3"/>
+      <c r="B101" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="3"/>
+      <c r="B102" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="3"/>
+      <c r="B103" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="3"/>
+      <c r="B104" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="3"/>
+      <c r="B105" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="3"/>
+      <c r="B106" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C106" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D106" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="2" t="s">
+    <row r="107" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="3"/>
+      <c r="B107" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="3"/>
+      <c r="B108" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="3"/>
+      <c r="B109" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="3"/>
+      <c r="B110" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="3"/>
+      <c r="B111" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="3"/>
+      <c r="B112" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D112" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-      <c r="B45" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-      <c r="B47" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-      <c r="B50" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="B63" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="B65" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="B66" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="4"/>
-      <c r="B68" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
-      <c r="B69" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="4"/>
-      <c r="B70" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="4"/>
-      <c r="B71" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="4"/>
-      <c r="B72" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="4"/>
-      <c r="B73" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="4"/>
-      <c r="B74" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="4"/>
-      <c r="B75" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="4"/>
-      <c r="B76" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="4"/>
-      <c r="B77" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="4"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="2"/>
-    </row>
-    <row r="79" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="4"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="2"/>
-    </row>
-    <row r="80" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="4"/>
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="2"/>
-    </row>
-    <row r="81" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="4"/>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="2"/>
-    </row>
-    <row r="82" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="4"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="2"/>
-    </row>
-    <row r="83" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="2"/>
-    </row>
-    <row r="84" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="4"/>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="2"/>
-    </row>
-    <row r="85" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="4"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-    </row>
-    <row r="86" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="4"/>
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-    </row>
-    <row r="87" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="4"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-    </row>
-    <row r="88" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="4"/>
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-    </row>
-    <row r="89" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="4"/>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-    </row>
-    <row r="90" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="4"/>
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-    </row>
-    <row r="91" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="4"/>
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-    </row>
-    <row r="92" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="4"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
-    </row>
-    <row r="93" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="4"/>
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
-    </row>
-    <row r="94" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="4"/>
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
-    </row>
-    <row r="95" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="4"/>
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
-    </row>
-    <row r="96" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="4"/>
-      <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
-    </row>
-    <row r="97" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="4"/>
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
-    </row>
-    <row r="98" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="4"/>
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
-    </row>
-    <row r="99" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="4"/>
-      <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
-    </row>
-    <row r="100" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="4"/>
-      <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
-    </row>
-    <row r="101" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="4"/>
-      <c r="B101" s="4"/>
-      <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
-    </row>
-    <row r="102" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="4"/>
-      <c r="B102" s="4"/>
-      <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
-    </row>
-    <row r="103" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="4"/>
-      <c r="B103" s="4"/>
-      <c r="C103" s="4"/>
-      <c r="D103" s="4"/>
-    </row>
-    <row r="104" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="4"/>
-      <c r="B104" s="4"/>
-      <c r="C104" s="4"/>
-      <c r="D104" s="4"/>
-    </row>
-    <row r="105" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="4"/>
-      <c r="B105" s="4"/>
-      <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
-    </row>
-    <row r="106" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="4"/>
-      <c r="B106" s="4"/>
-      <c r="C106" s="4"/>
-      <c r="D106" s="4"/>
-    </row>
-    <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="4"/>
-      <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
-    </row>
-    <row r="108" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="4"/>
-      <c r="B108" s="4"/>
-      <c r="C108" s="4"/>
-      <c r="D108" s="4"/>
-    </row>
-    <row r="109" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="4"/>
-      <c r="B109" s="4"/>
-      <c r="C109" s="4"/>
-      <c r="D109" s="4"/>
-    </row>
-    <row r="110" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="4"/>
-      <c r="B110" s="4"/>
-      <c r="C110" s="4"/>
-      <c r="D110" s="4"/>
-    </row>
-    <row r="111" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="4"/>
-      <c r="B111" s="4"/>
-      <c r="C111" s="4"/>
-      <c r="D111" s="4"/>
-    </row>
-    <row r="112" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="4"/>
-      <c r="B112" s="4"/>
-      <c r="C112" s="4"/>
-      <c r="D112" s="4"/>
-    </row>
-    <row r="113" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="4"/>
-      <c r="B113" s="4"/>
-      <c r="C113" s="4"/>
-      <c r="D113" s="4"/>
-    </row>
-    <row r="114" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="4"/>
-      <c r="B114" s="4"/>
-      <c r="C114" s="4"/>
-      <c r="D114" s="4"/>
-    </row>
-    <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="4"/>
-      <c r="B115" s="4"/>
-      <c r="C115" s="4"/>
-      <c r="D115" s="4"/>
-    </row>
-    <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="4"/>
-      <c r="B116" s="4"/>
-      <c r="C116" s="4"/>
-      <c r="D116" s="4"/>
-    </row>
-    <row r="117" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="4"/>
-      <c r="B117" s="4"/>
-      <c r="C117" s="4"/>
-      <c r="D117" s="4"/>
-    </row>
-    <row r="118" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="4"/>
-      <c r="B118" s="4"/>
-      <c r="C118" s="4"/>
-      <c r="D118" s="4"/>
-    </row>
-    <row r="119" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="4"/>
-      <c r="B119" s="4"/>
-      <c r="C119" s="4"/>
-      <c r="D119" s="4"/>
-    </row>
-    <row r="120" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="3"/>
+      <c r="B113" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="3"/>
+      <c r="B114" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="3"/>
+      <c r="B115" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="3"/>
+      <c r="B116" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="3"/>
+      <c r="B117" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="3"/>
+      <c r="B118" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="3"/>
+      <c r="B119" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4"/>
-      <c r="B120" s="4"/>
-      <c r="C120" s="4"/>
-      <c r="D120" s="4"/>
-    </row>
-    <row r="121" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4"/>
-      <c r="B121" s="4"/>
-      <c r="C121" s="4"/>
-      <c r="D121" s="4"/>
-    </row>
-    <row r="122" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="4"/>
-      <c r="B122" s="4"/>
-      <c r="C122" s="4"/>
-      <c r="D122" s="4"/>
-    </row>
-    <row r="123" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="4"/>
-      <c r="B123" s="4"/>
-      <c r="C123" s="4"/>
-      <c r="D123" s="4"/>
-    </row>
-    <row r="124" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="4"/>
-      <c r="B124" s="4"/>
-      <c r="C124" s="4"/>
-      <c r="D124" s="4"/>
-    </row>
-    <row r="125" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="4"/>
-      <c r="B125" s="4"/>
-      <c r="C125" s="4"/>
-      <c r="D125" s="4"/>
-    </row>
-    <row r="126" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="4"/>
-      <c r="B126" s="4"/>
-      <c r="C126" s="4"/>
-      <c r="D126" s="4"/>
-    </row>
-    <row r="127" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="4"/>
-      <c r="B127" s="4"/>
-      <c r="C127" s="4"/>
-      <c r="D127" s="4"/>
-    </row>
-    <row r="128" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="4"/>
-      <c r="B128" s="4"/>
-      <c r="C128" s="4"/>
-      <c r="D128" s="4"/>
-    </row>
-    <row r="129" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="4"/>
-      <c r="B129" s="4"/>
-      <c r="C129" s="4"/>
-      <c r="D129" s="4"/>
-    </row>
-    <row r="130" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="4"/>
-      <c r="B130" s="4"/>
-      <c r="C130" s="4"/>
-      <c r="D130" s="4"/>
-    </row>
-    <row r="131" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="4"/>
-      <c r="B131" s="4"/>
-      <c r="C131" s="4"/>
-      <c r="D131" s="4"/>
-    </row>
-    <row r="132" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="4"/>
-      <c r="B132" s="4"/>
-      <c r="C132" s="4"/>
-      <c r="D132" s="4"/>
-    </row>
-    <row r="133" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="4"/>
-      <c r="B133" s="4"/>
-      <c r="C133" s="4"/>
-      <c r="D133" s="4"/>
-    </row>
-    <row r="134" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="4"/>
-      <c r="B134" s="4"/>
-      <c r="C134" s="4"/>
-      <c r="D134" s="4"/>
-    </row>
-    <row r="135" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="4"/>
-      <c r="B135" s="4"/>
-      <c r="C135" s="4"/>
-      <c r="D135" s="4"/>
-    </row>
-    <row r="136" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="4"/>
-      <c r="B136" s="4"/>
-      <c r="C136" s="4"/>
-      <c r="D136" s="4"/>
-    </row>
-    <row r="137" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="4"/>
-      <c r="B137" s="4"/>
-      <c r="C137" s="4"/>
-      <c r="D137" s="4"/>
-    </row>
-    <row r="138" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="4"/>
-      <c r="B138" s="4"/>
-      <c r="C138" s="4"/>
-      <c r="D138" s="4"/>
-    </row>
-    <row r="139" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="4"/>
-      <c r="B139" s="4"/>
-      <c r="C139" s="4"/>
-      <c r="D139" s="4"/>
-    </row>
-    <row r="140" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="4"/>
-      <c r="B140" s="4"/>
-      <c r="C140" s="4"/>
-      <c r="D140" s="4"/>
-    </row>
-    <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="4"/>
-      <c r="B141" s="4"/>
-      <c r="C141" s="4"/>
-      <c r="D141" s="4"/>
-    </row>
-    <row r="142" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="4"/>
-      <c r="B142" s="4"/>
-      <c r="C142" s="4"/>
-      <c r="D142" s="4"/>
-    </row>
-    <row r="143" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="4"/>
-      <c r="B143" s="4"/>
-      <c r="C143" s="4"/>
-      <c r="D143" s="4"/>
-    </row>
-    <row r="144" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="4"/>
-      <c r="B144" s="4"/>
-      <c r="C144" s="4"/>
-      <c r="D144" s="4"/>
-    </row>
-    <row r="145" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="4"/>
-      <c r="B145" s="4"/>
-      <c r="C145" s="4"/>
-      <c r="D145" s="4"/>
-    </row>
-    <row r="146" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="4"/>
-      <c r="B146" s="4"/>
-      <c r="C146" s="4"/>
-      <c r="D146" s="4"/>
-    </row>
-    <row r="147" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="4"/>
-      <c r="B147" s="4"/>
-      <c r="C147" s="4"/>
-      <c r="D147" s="4"/>
-    </row>
-    <row r="148" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="4"/>
-      <c r="B148" s="4"/>
-      <c r="C148" s="4"/>
-      <c r="D148" s="4"/>
-    </row>
-    <row r="149" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="4"/>
-      <c r="B149" s="4"/>
-      <c r="C149" s="4"/>
-      <c r="D149" s="4"/>
-    </row>
-    <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="4"/>
-      <c r="B150" s="4"/>
-      <c r="C150" s="4"/>
-      <c r="D150" s="4"/>
-    </row>
-    <row r="151" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="4"/>
-      <c r="B151" s="4"/>
-      <c r="C151" s="4"/>
-      <c r="D151" s="4"/>
-    </row>
-    <row r="152" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="4"/>
-      <c r="B152" s="4"/>
-      <c r="C152" s="4"/>
-      <c r="D152" s="4"/>
-    </row>
-    <row r="153" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="4"/>
-      <c r="B153" s="4"/>
-      <c r="C153" s="4"/>
-      <c r="D153" s="4"/>
-    </row>
-    <row r="154" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="4"/>
-      <c r="B154" s="4"/>
-      <c r="C154" s="4"/>
-      <c r="D154" s="4"/>
-    </row>
-    <row r="155" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="4"/>
-      <c r="B155" s="4"/>
-      <c r="C155" s="4"/>
-      <c r="D155" s="4"/>
-    </row>
-    <row r="156" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="4"/>
-      <c r="B156" s="4"/>
-      <c r="C156" s="4"/>
-      <c r="D156" s="4"/>
-    </row>
-    <row r="157" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="4"/>
-      <c r="B157" s="4"/>
-      <c r="C157" s="4"/>
-      <c r="D157" s="4"/>
-    </row>
-    <row r="158" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="4"/>
-      <c r="B158" s="4"/>
-      <c r="C158" s="4"/>
-      <c r="D158" s="4"/>
-    </row>
-    <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="4"/>
-      <c r="B159" s="4"/>
-      <c r="C159" s="4"/>
-      <c r="D159" s="4"/>
-    </row>
-    <row r="160" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="4"/>
-      <c r="B160" s="4"/>
-      <c r="C160" s="4"/>
-      <c r="D160" s="4"/>
-    </row>
-    <row r="161" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="4"/>
-      <c r="B161" s="4"/>
-      <c r="C161" s="4"/>
-      <c r="D161" s="4"/>
-    </row>
-    <row r="162" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="4"/>
-      <c r="B162" s="4"/>
-      <c r="C162" s="4"/>
-      <c r="D162" s="4"/>
-    </row>
-    <row r="163" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="4"/>
-      <c r="B163" s="4"/>
-      <c r="C163" s="4"/>
-      <c r="D163" s="4"/>
-    </row>
-    <row r="164" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="4"/>
-      <c r="B164" s="4"/>
-      <c r="C164" s="4"/>
-      <c r="D164" s="4"/>
-    </row>
-    <row r="165" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="4"/>
-      <c r="B165" s="4"/>
-      <c r="C165" s="4"/>
-      <c r="D165" s="4"/>
-    </row>
-    <row r="166" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="4"/>
-      <c r="B166" s="4"/>
-      <c r="C166" s="4"/>
-      <c r="D166" s="4"/>
-    </row>
-    <row r="167" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="4"/>
-      <c r="B167" s="4"/>
-      <c r="C167" s="5"/>
-      <c r="D167" s="5"/>
-    </row>
-    <row r="168" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="4"/>
-      <c r="B168" s="4"/>
-      <c r="C168" s="4"/>
-      <c r="D168" s="4"/>
-    </row>
-    <row r="169" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="4"/>
-      <c r="B169" s="4"/>
-      <c r="C169" s="4"/>
-      <c r="D169" s="4"/>
-    </row>
-    <row r="170" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="4"/>
-      <c r="B170" s="4"/>
-      <c r="C170" s="4"/>
-      <c r="D170" s="4"/>
-    </row>
-    <row r="171" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="4"/>
-      <c r="B171" s="4"/>
-      <c r="C171" s="4"/>
-      <c r="D171" s="4"/>
-    </row>
-    <row r="172" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="4"/>
-      <c r="B172" s="4"/>
-      <c r="C172" s="4"/>
-      <c r="D172" s="4"/>
+      <c r="B121" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="3"/>
+      <c r="B122" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="3"/>
+      <c r="B123" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="3"/>
+      <c r="B124" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="3"/>
+      <c r="B125" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="3"/>
+      <c r="B126" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="3"/>
+      <c r="B127" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="3"/>
+      <c r="B128" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="3"/>
+      <c r="B129" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="3"/>
+      <c r="B130" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="3"/>
+      <c r="B131" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="3"/>
+      <c r="B132" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="3"/>
+      <c r="B133" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="3"/>
+      <c r="B134" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="3"/>
+      <c r="B135" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="3"/>
+      <c r="B136" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="3"/>
+      <c r="B137" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="3"/>
+      <c r="B138" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="3"/>
+      <c r="B139" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="3"/>
+      <c r="B140" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="3"/>
+      <c r="B141" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="3"/>
+      <c r="B142" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="3"/>
+      <c r="B143" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="3"/>
+      <c r="B144" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="3"/>
+      <c r="B145" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D145" s="7" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="3"/>
+      <c r="B146" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="3"/>
+      <c r="B147" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="3"/>
+      <c r="B148" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="3"/>
+      <c r="B149" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="3"/>
+      <c r="B150" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="3"/>
+      <c r="B151" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="3"/>
+      <c r="B152" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="3"/>
+      <c r="B153" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="D153" s="7" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="3"/>
+      <c r="B154" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="3"/>
+      <c r="B155" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="3"/>
+      <c r="B156" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="3"/>
+      <c r="B157" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="3"/>
+      <c r="B158" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="122.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="3"/>
+      <c r="B159" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="D159" s="7" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="3"/>
+      <c r="B160" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="3"/>
+      <c r="B161" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="D161" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="3"/>
+      <c r="B162" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="3"/>
+      <c r="B163" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="D163" s="7" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="3"/>
+      <c r="B164" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="3"/>
+      <c r="B165" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="D165" s="7" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="3"/>
+      <c r="B166" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="3"/>
+      <c r="B167" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="D167" s="7" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="3"/>
+      <c r="B168" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="3"/>
+      <c r="B169" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="D169" s="7" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="3"/>
+      <c r="B170" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C170" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="D170" s="7" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="3"/>
+      <c r="B171" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="D171" s="7" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="3"/>
+      <c r="B172" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="3"/>
+      <c r="B173" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="3"/>
+      <c r="B174" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="3"/>
+      <c r="B175" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="3"/>
+      <c r="B176" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="3"/>
+      <c r="B177" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="3"/>
+      <c r="B178" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="3"/>
+      <c r="B179" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="3"/>
+      <c r="B180" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="3"/>
+      <c r="B181" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="D181" s="3"/>
+    </row>
+    <row r="182" spans="1:4" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="3"/>
+      <c r="B182" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="D182" s="7" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="3"/>
+      <c r="B183" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="184.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="3"/>
+      <c r="B184" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="C184" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="D184" s="7" t="s">
+        <v>499</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/IdensolApp/Assets/Resources/ExcelFiles/MultiLanguage.xlsx
+++ b/IdensolApp/Assets/Resources/ExcelFiles/MultiLanguage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Elliot\Idensol\IdensolApp\IdensolApp\Assets\Resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A634130-7FA5-4F6D-A21F-00AF0083C0CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1942EE-1985-4288-92C0-88AA6F060D3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="716">
   <si>
     <t>id</t>
   </si>
@@ -501,10 +501,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Step5 Sintering and Crystallization</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>看設計步驟</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1185,16 +1181,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>导入加工档案
-我要使用
-网络传输
-U盘传输
-1个档案
-多个档案
-了解</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>自動清潔</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1335,27 +1321,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>※</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Please be sure to have the original engineer calibrate the machine before drilling the rubber.</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>使用2.0mm的六角板手卸下壓板，取出受損的橡膠塊</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1429,14 +1394,6 @@
   </si>
   <si>
     <t>Click the DRILLING button, click [OK].</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>先將主軸上的刀具卸下，※注意:在卸刀狀態下，請勿點下夾刀鍵，恐傷主軸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>先将主轴上的刀具卸下，※注意:在卸刀状态下，请勿点下夹刀键，恐伤主轴</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1503,18 +1460,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>按鬆夾刀鍵，試試鬆夾刀是否正常
-※太鬆→鬆開內螺絲，將筒夾進半圈，再鎖回內螺絲
-※太緊→鬆開內螺絲，將筒夾退半圈，再鎖回內螺絲(力道適當即可)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>按松夹刀键，试试松夹刀是否正常
-※太松→松开内螺丝，将筒夹进半圈，再锁回内螺丝
-※太紧→松开内螺丝，将筒夹退半圈，再锁回内螺丝(力道适当即可)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>圓形料盤夾具</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1539,14 +1484,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 換上新料盤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 换上新料盘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Replace with a new disk.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1599,23 +1536,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>premill專用夾具</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>premill专用夹具</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Clamp for Ti Bar</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>premill底部的平面朝上，插入其專用夾具的插槽</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>premill底部的平面朝上，插入其专用夹具的插槽</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1866,16 +1787,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Over the tolerance range of the measuring bur.
-Bur breakage.
-1.Make sure the current bur number is the same as the spindle bur number.
-2.Remove the broken/worn bur.
-3.For new bur, please check the bur specifications.
-4.Length return to zero.
-5. Press the RESET and HOME button to continue the action.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>量刀刀長異常,主軸刀具異常</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1901,14 +1812,6 @@
 2.重新放上刀具，请确认刀具规格
 3.刀具长度归零
 4.按下RESET重置键与HOME归零键，接续动作</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spindles without bur.
-1.Make sure the current bur number is the same as the spindle bur number.
-2.Put the bur on and check the bur specifications.
-3.Length return to zero.
-4. Press the RESET and HOME button to continue the action.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1983,15 +1886,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Bur use time has reached the preset value.
-1.Make sure the current bur number is the same as the spindle bur number.
-2.Remove the worn bur.
-3.For new bur, please check the bur specifications.
-4.Length return to zero.
-5. Press the RESET and HOME button to continue the action.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">第1~12號刀具磨耗已超過設定值
 </t>
@@ -2031,15 +1925,6 @@
 3.更换新刀具，请确认刀具规格
 4.刀具长度归零
 5.按下RESET重置键与HOME归零键，接续动作</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Exceeding the tolerance of the measuring bur.
-1.Make sure the current bur number is the same as the spindle bur number.
-2.Remove the worn bur.
-3.For new bur, please check the bur specifications.
-4.Length return to zero.
-5. Press the RESET and HOME button to continue the action.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2287,45 +2172,922 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">     按鬆夾刀鍵，將主軸刀具卸下</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     按松夹刀键，将主轴刀具卸下</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>放入校正刀，    按夹刀键夹刀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>放入校正刀，    按夾刀鍵夾刀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     Press this button to remove the spindle tool.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CAM software calculation error, resulting in NC file exceeding the limit of each axis.
+1. Please record the number of GCode error lines displayed on the screen.
+2. Send the processing file with the GCode error line to us.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>五軸數位牙科齒雕機</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>五轴数位牙科齿雕机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Idensol Dental milling machine 5XP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>logo_Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>login</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>請輸入密碼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_Password</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>leftlist_DigitalWorkflow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>leftlist_HowtoOperate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>leftlist_AboutIdensol</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>digitalWorkflow_Step1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>digitalWorkflow_Step2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>digitalWorkflow_Step3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>digitalWorkflow_Step4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>digitalWorkflow_Step5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>digitalWorkflow_Designsteps</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>digitalWorkflow_Layoutsteps</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>digitalWorkflow_Operationsteps</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入密码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>影片教學</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>影片教学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Video Tutorial </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Video_Tutorial</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAD-Prosthetic Design</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAD假牙設計</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAD假牙设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step2_Tutorial</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step2_Copping</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step2_Single Crown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step2_Inlay/Onlay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step2_Venner</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step2_Premill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copping_Create</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copping_Define</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copping_Optimize</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copping_Edit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copping_Set</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copping_Design</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Single Crown_Create</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Single Crown_Define</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Single Crown_Optimize</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Single Crown_Edit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Single Crown_Set</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Single Crown_Design</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inlay/Onlay_Create</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inlay/Onlay_Define</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inlay/Onlay_Optimize</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inlay/Onlay_Edit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inlay/Onlay_Set</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inlay/Onlay_Design</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Venner_Design</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Venner_Create</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Venner_Define</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Venner_Optimize</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Venner_Edit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Venner_Set</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Premill_Define</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Premill_Set</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Premill_Detect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Premill_Generate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Premill_Abutment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Premill_Forming</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Premill_Complete</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step3_Zirconia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step3_Premill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zirconia_Define</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zirconia_Import</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zirconia_Choose</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zirconia_Adjust</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zirconia_Move</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zirconia_ChooseMaterials</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Premill_Import</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Premill_Click</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Premill_Build</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step5 Sintering and
+Crystallization</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step3_GlassCermaic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GlassCermaic_Define</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GlassCermaic_Import</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GlassCermaic_ChooseMaterials</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GlassCermaic_Adjust</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GlassCermaic_Move</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GlassCermaic_Choose</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IdensolOperate_Light</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IdensolOperate_Operate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IdensolOperate_Rubber</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IdensolOperate_Tool</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IdensolOperate_Maintenance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IdensolOperate_Clamp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先將主軸上的刀具卸下</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>※注意:在卸刀狀態下，請勿點下夾刀鍵，恐傷主軸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先将主轴上的刀具卸下</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>※注意:在卸刀状态下，请勿点下夹刀键，恐伤主轴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">First, remove the bur from the spindle.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>※Note: Don't click this button while the bur is unloaded, as it may damage the spindle.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maintenance_RemoveTheBar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maintenance_Note</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>※太鬆→鬆開內螺絲，將筒夾進半圈，再鎖回內螺絲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>※太緊→鬆開內螺絲，將筒夾退半圈，再鎖回內螺絲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(力道適當即可)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>※太松→松开内螺丝，将筒夹进半圈，再锁回内螺丝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(力道适当即可)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>※Too loose → Loosen screw, clamp the chuck in half turn, then lock screw.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>※Too tight → Loosen screw, back off the chuck a half turn, then lock back screw.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Press the bur changer button to see if the bur is working properly.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按松夹刀键，试试松夹刀是否正常</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按鬆夾刀鍵，試試鬆夾刀是否正常</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>※太紧→松开内螺丝，将筒夹退半圈，再锁回内螺丝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Just the right amount of  force.)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maintenance_RightForce</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maintenance_TooTight</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maintenance_ToLoose</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maintenance_PressBurChanger</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maintenance_AlcoholClean</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maintenance_HexScoketRemove</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maintenance_HexWrenchRemove</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maintenance_HexagonalWrenchBack</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maintenance_HexagonalWrenchScrew</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IdensolOperate_Finsih</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clamp_Disk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clamp_GlassCeramic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要換</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要换</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>I want to change</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clamp_Change</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Disk_HexWrench</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clamp_LockBack</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Disk_Replace</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>換上新料盤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>换上新料盘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GlassCeramic_Insert</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GlassCeramic_Tighten</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clamp_Premill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Premill_Insert</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Premill_Tighten</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>換料盤_圓形料盤夾具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>换料盘_圆形料盘夹具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Replacement Clamp_Clamp for Disk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>換料盤_玻璃陶瓷專用夾具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>换料盘_玻璃陶瓷专用夹具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Replacement Clamp_Clamp for Glass Ceramic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>換料盤_Premill專用夾具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Premill專用夾具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Premill专用夹具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Premill底部的平面朝上，插入其专用夹具的插槽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Premill底部的平面朝上，插入其專用夾具的插槽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>换料盘_Premill专用夹具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Replacement Clamp_Clamp for Ti Bar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clamp_ClampForDisk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clamp_ClampForGlass</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clamp_ClampForPremill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bur use time has reached the preset value.
+1.Make sure the current bur number is the same as the spindle bur number.
+2.Remove the worn bur.
+3.For new bur, please check the bur specifications.
+4.Length return to zero.
+5.Press the RESET and HOME button to continue the action.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exceeding the tolerance of the measuring bur.
+1.Make sure the current bur number is the same as the spindle bur number.
+2.Remove the worn bur.
+3.For new bur, please check the bur specifications.
+4.Length return to zero.
+5.Press the RESET and HOME button to continue the action.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spindles without bur.
+1.Make sure the current bur number is the same as the spindle bur number.
+2.Put the bur on and check the bur specifications.
+3.Length return to zero.
+4.Press the RESET and HOME button to continue the action.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Over the tolerance range of the measuring bur.
+Bur breakage.
+1.Make sure the current bur number is the same as the spindle bur number.
+2.Remove the broken/worn bur.
+3.For new bur, please check the bur specifications.
+4.Length return to zero.
+5.Press the RESET and HOME button to continue the action.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Light_Red</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Light_Yellow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Light_Green</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作面板說明_導入加工檔案</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作面板说明_导入加工档案</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Operating Indication_How to Importing Files</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作面板說明_自動清潔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作面板说明_自动清洁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Operating Indication_Automatic Cleaning</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作面板說明_將所有刀長紀錄歸零</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作面板说明_将所有刀长纪录归零</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Operating Indication_Length return to zero.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作面板說明_換刀具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作面板说明_换刀具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Operating Indication_Bur Change</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Operate_OperateImport</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Operate_OperateClean</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Operate_OperateZero</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Operate_OperateChange</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OperateImport_Import</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OperateClean_Clean</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OperateZero_Zero</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OperateChange_Change</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>選項</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Options</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Import_Options</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Import_Reset</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Import_Home</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Import_ImportFile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加工</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Processing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Import_Processing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Operate_OK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要使用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>I want to use</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Import_Use</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>網路傳輸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1個檔案</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多個檔案</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络传输</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>U盘传输</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1个档案</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入加工档案
+我要使用
+了解</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多个档案</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Internet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>One</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>One more</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Import_Internet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Import_USB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB傳輸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Import_One</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Import_OneMore</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zero_Next</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Change_HoldSteady</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Change_Release</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Change_PutInChuck</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Change_Clamp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>Press the bur changer button to see if the bur is working properly.
-※</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Too loose </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>→</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> Loosen screw, clamp the chuck in half turn, then lock screw.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
       <t>※</t>
     </r>
     <r>
@@ -2334,404 +3096,48 @@
         <color theme="1"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Too tight </t>
+      <t>Please be sure to have the original engineer calibrate the machine before drilling the rubber.</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>→</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> Loosen screw, back off the chuck a half turn, then lock back screw.</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">     按鬆夾刀鍵，將主軸刀具卸下</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">     按松夹刀键，将主轴刀具卸下</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>放入校正刀，    按夹刀键夹刀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>放入校正刀，    按夾刀鍵夾刀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">     Press this button to remove the spindle tool.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CAM software calculation error, resulting in NC file exceeding the limit of each axis.
-1. Please record the number of GCode error lines displayed on the screen.
-2. Send the processing file with the GCode error line to us.
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>First, remove the bur from the spindle.
-※</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Note: Don't click this button while the bur is unloaded, as it may damage the spindle.</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>五軸數位牙科齒雕機</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>五轴数位牙科齿雕机</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Idensol Dental milling machine 5XP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>logo_Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>login</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>登入</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Login</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>請輸入密碼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Password</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>login_Password</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>leftlist_DigitalWorkflow</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>leftlist_HowtoOperate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>leftlist_AboutIdensol</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>digitalWorkflow_Step1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>digitalWorkflow_Step2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>digitalWorkflow_Step3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>digitalWorkflow_Step4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>digitalWorkflow_Step5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>digitalWorkflow_Designsteps</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>digitalWorkflow_Layoutsteps</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>digitalWorkflow_Operationsteps</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>请输入密码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>影片教學</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>影片教学</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Video Tutorial </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Video_Tutorial</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAD-Prosthetic Design</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAD假牙設計</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAD假牙设计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step2_Tutorial</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step2_Copping</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step2_Single Crown</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step2_Inlay/Onlay</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step2_Venner</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step2_Premill</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Copping_Create</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Copping_Define</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Copping_Optimize</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Copping_Edit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Copping_Set</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Copping_Design</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Single Crown_Create</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Single Crown_Define</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Single Crown_Optimize</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Single Crown_Edit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Single Crown_Set</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Single Crown_Design</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inlay/Onlay_Create</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inlay/Onlay_Define</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inlay/Onlay_Optimize</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inlay/Onlay_Edit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inlay/Onlay_Set</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inlay/Onlay_Design</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Venner_Design</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Venner_Create</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Venner_Define</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Venner_Optimize</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Venner_Edit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Venner_Set</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Premill_Define</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Premill_Set</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Premill_Detect</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Premill_Generate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Premill_Abutment</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Premill_Forming</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Premill_Complete</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step3_Zirconia</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step3_Glass Cermaic</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step3_Premill</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zirconia_Define</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zirconia_Import</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zirconia_Choose</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zirconia_Adjust</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zirconia_Move</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Glass Cermaic_Define</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Glass Cermaic_Import</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Glass Cermaic_Choose</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Glass Cermaic_Adjust</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Glass Cermaic_Move</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Glass Cermaic_ChooseMaterials</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zirconia_ChooseMaterials</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Premill_Import</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Premill_Click</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Premill_Build</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rubber_Calibrate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rubber_HexWrench</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rubber_LockBack</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rubber_CorrectionBur</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rubber_Remove</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rubber_PressButton</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rubber_Test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rubber_ClickReset</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rubber_ClickOK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tool_Management</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2806,7 +3212,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2824,6 +3230,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2849,13 +3258,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>51955</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3177062</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>1722294</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2898,13 +3307,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>4352925</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>1641271</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2941,13 +3350,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>66676</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>371476</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>342901</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2991,13 +3400,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>342900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3041,13 +3450,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>923925</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1228725</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>333375</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3091,13 +3500,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3667125</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3971925</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>323850</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3141,13 +3550,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>381001</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>352426</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3191,13 +3600,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>923925</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1228725</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>333375</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3438,10 +3847,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D184"/>
+  <dimension ref="A1:D202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82"/>
+    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3477,49 +3886,49 @@
     </row>
     <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>511</v>
+        <v>492</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>508</v>
+        <v>489</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>509</v>
+        <v>490</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>510</v>
+        <v>491</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>512</v>
+        <v>493</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>513</v>
+        <v>494</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>513</v>
+        <v>494</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>514</v>
+        <v>495</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>517</v>
+        <v>498</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>515</v>
+        <v>496</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>529</v>
+        <v>510</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>516</v>
+        <v>497</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>62</v>
@@ -3533,7 +3942,7 @@
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>65</v>
@@ -3547,7 +3956,7 @@
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>519</v>
+        <v>500</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>68</v>
@@ -3561,7 +3970,7 @@
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>70</v>
@@ -3575,7 +3984,7 @@
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>520</v>
+        <v>501</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>73</v>
@@ -3589,7 +3998,7 @@
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>76</v>
@@ -3603,7 +4012,7 @@
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>79</v>
@@ -3617,7 +4026,7 @@
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>82</v>
@@ -3631,7 +4040,7 @@
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>85</v>
@@ -3645,7 +4054,7 @@
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>88</v>
@@ -3659,7 +4068,7 @@
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>91</v>
@@ -3673,7 +4082,7 @@
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>521</v>
+        <v>502</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>94</v>
@@ -3687,7 +4096,7 @@
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>522</v>
+        <v>503</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>97</v>
@@ -3701,7 +4110,7 @@
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>523</v>
+        <v>504</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>100</v>
@@ -3715,7 +4124,7 @@
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>524</v>
+        <v>505</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>102</v>
@@ -3727,9 +4136,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>525</v>
+        <v>506</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>105</v>
@@ -3737,2084 +4146,2438 @@
       <c r="C21" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>107</v>
+      <c r="D21" s="7" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>526</v>
+        <v>507</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="D23" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>528</v>
+        <v>509</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>537</v>
+        <v>518</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>535</v>
+        <v>516</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>536</v>
+        <v>517</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>534</v>
+        <v>515</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>533</v>
+        <v>514</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>531</v>
+        <v>512</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>532</v>
+        <v>513</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>538</v>
+        <v>519</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>539</v>
+        <v>520</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>540</v>
+        <v>521</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>541</v>
+        <v>522</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>542</v>
+        <v>523</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>544</v>
+        <v>525</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>547</v>
+        <v>528</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>548</v>
+        <v>529</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>549</v>
+        <v>530</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>550</v>
+        <v>531</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="D39" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>551</v>
+        <v>532</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>552</v>
+        <v>533</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>553</v>
+        <v>534</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>554</v>
+        <v>535</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="D43" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>555</v>
+        <v>536</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="D44" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>556</v>
+        <v>537</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>557</v>
+        <v>538</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="D46" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>559</v>
+        <v>540</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="D48" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>560</v>
+        <v>541</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="D49" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>562</v>
+        <v>543</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="D50" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>563</v>
+        <v>544</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="D51" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="D52" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>565</v>
+        <v>546</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="D53" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>566</v>
+        <v>547</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="D54" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>561</v>
+        <v>542</v>
       </c>
       <c r="B55" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="D55" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>567</v>
+        <v>548</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="D56" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>568</v>
+        <v>549</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="D57" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>569</v>
+        <v>550</v>
       </c>
       <c r="B58" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="D58" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>570</v>
+        <v>551</v>
       </c>
       <c r="B59" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="D59" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>567</v>
+        <v>548</v>
       </c>
       <c r="B60" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>571</v>
+        <v>552</v>
       </c>
       <c r="B61" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="D61" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>572</v>
+        <v>553</v>
       </c>
       <c r="B62" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="D62" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>573</v>
+        <v>554</v>
       </c>
       <c r="B63" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>574</v>
+        <v>555</v>
       </c>
       <c r="B64" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="D64" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="B65" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D65" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>576</v>
+        <v>556</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="B67" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C67" s="3" t="s">
-        <v>191</v>
-      </c>
       <c r="D67" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="B68" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="D68" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>588</v>
+        <v>562</v>
       </c>
       <c r="B69" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="D69" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>580</v>
+        <v>560</v>
       </c>
       <c r="B70" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="D70" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>581</v>
+        <v>561</v>
       </c>
       <c r="B71" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="D71" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>579</v>
+        <v>559</v>
       </c>
       <c r="B72" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="D72" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
       <c r="B73" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C73" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="D73" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
       <c r="B74" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="D74" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>587</v>
+        <v>570</v>
       </c>
       <c r="B75" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="D75" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="B76" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="D76" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>586</v>
+        <v>572</v>
       </c>
       <c r="B77" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="D77" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="B78" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="D78" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>567</v>
+        <v>548</v>
       </c>
       <c r="B79" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C79" s="3" t="s">
-        <v>210</v>
-      </c>
       <c r="D79" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>589</v>
+        <v>563</v>
       </c>
       <c r="B80" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="D80" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>591</v>
+        <v>565</v>
       </c>
       <c r="B81" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="D81" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>590</v>
+        <v>564</v>
       </c>
       <c r="B82" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="D82" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="D82" s="3" t="s">
-        <v>216</v>
-      </c>
     </row>
     <row r="83" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="3"/>
+      <c r="A83" s="3" t="s">
+        <v>574</v>
+      </c>
       <c r="B83" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="D83" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D83" s="3" t="s">
+    </row>
+    <row r="84" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="B84" s="3" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3" t="s">
+      <c r="C84" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="D84" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="D84" s="3" t="s">
+    </row>
+    <row r="85" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="B85" s="3" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3" t="s">
+      <c r="C85" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="D85" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="D85" s="3" t="s">
+    </row>
+    <row r="86" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="B86" s="3" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3" t="s">
+      <c r="C86" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="D86" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="D86" s="3" t="s">
+    </row>
+    <row r="87" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="B87" s="3" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3" t="s">
+      <c r="C87" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="D87" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D87" s="3" t="s">
+    </row>
+    <row r="88" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="B88" s="3" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3" t="s">
+      <c r="C88" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="D88" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="D88" s="3" t="s">
+    </row>
+    <row r="89" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3" t="s">
+      <c r="C89" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="D89" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="3"/>
+    </row>
+    <row r="90" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="3" t="s">
+        <v>647</v>
+      </c>
       <c r="B90" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="B91" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C91" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="D91" s="3" t="s">
         <v>229</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3"/>
       <c r="B92" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C92" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="D92" s="3" t="s">
         <v>263</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3"/>
       <c r="B93" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
       <c r="B94" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
       <c r="B95" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="B96" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="C95" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3" t="s">
-        <v>255</v>
-      </c>
       <c r="C96" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="3"/>
+      <c r="A97" s="3" t="s">
+        <v>661</v>
+      </c>
       <c r="B97" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C101" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="D101" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="D97" s="3" t="s">
+    </row>
+    <row r="102" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="B103" s="3" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3" t="s">
+      <c r="C103" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D103" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C98" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="D98" s="3" t="s">
+    </row>
+    <row r="104" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="B104" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3" t="s">
+      <c r="C104" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="D104" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="B105" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="D99" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3" t="s">
+      <c r="C105" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="D105" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="3"/>
-      <c r="B102" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="3"/>
-      <c r="B103" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="3"/>
-      <c r="B105" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="3"/>
+    </row>
+    <row r="106" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
+        <v>678</v>
+      </c>
       <c r="B106" s="3" t="s">
-        <v>288</v>
+        <v>676</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>89</v>
+        <v>676</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="3"/>
       <c r="B107" s="3" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
-      <c r="B108" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="3"/>
+      <c r="B108" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="3" t="s">
+        <v>682</v>
+      </c>
       <c r="B109" s="3" t="s">
-        <v>295</v>
+        <v>680</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>295</v>
+        <v>680</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="3"/>
+        <v>681</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="3" t="s">
+        <v>695</v>
+      </c>
       <c r="B110" s="3" t="s">
-        <v>297</v>
+        <v>683</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>298</v>
+        <v>686</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="3"/>
+        <v>691</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="3" t="s">
+        <v>696</v>
+      </c>
       <c r="B111" s="3" t="s">
-        <v>300</v>
+        <v>697</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>301</v>
+        <v>687</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="3"/>
+        <v>692</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="3" t="s">
+        <v>698</v>
+      </c>
       <c r="B112" s="3" t="s">
-        <v>255</v>
+        <v>684</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>255</v>
+        <v>688</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="3"/>
+        <v>693</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="3" t="s">
+        <v>699</v>
+      </c>
       <c r="B113" s="3" t="s">
-        <v>303</v>
+        <v>685</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>304</v>
+        <v>690</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="3"/>
+        <v>694</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="3" t="s">
+        <v>666</v>
+      </c>
       <c r="B114" s="3" t="s">
-        <v>306</v>
+        <v>277</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>307</v>
+        <v>278</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3"/>
       <c r="B115" s="3" t="s">
-        <v>309</v>
+        <v>280</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>310</v>
+        <v>281</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="3"/>
       <c r="B116" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="B127" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C127" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="D116" s="3" t="s">
+      <c r="D127" s="3" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="3"/>
-      <c r="B117" s="3" t="s">
+    <row r="128" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="B128" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="C128" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="D117" s="3" t="s">
+      <c r="D128" s="3" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="3"/>
-      <c r="B118" s="3" t="s">
+    <row r="129" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="B129" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C129" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="D118" s="3" t="s">
+      <c r="D129" s="3" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="3"/>
-      <c r="B119" s="3" t="s">
+    <row r="130" spans="1:4" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="D131" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="C119" s="3" t="s">
+    </row>
+    <row r="132" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="B132" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="D119" s="3" t="s">
+      <c r="C132" s="3" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="4"/>
-      <c r="B120" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>502</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="4"/>
-      <c r="B121" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>503</v>
-      </c>
-      <c r="D121" s="4" t="s">
+      <c r="D132" s="3" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="3"/>
-      <c r="B122" s="3" t="s">
+    <row r="133" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="B133" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C133" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="D122" s="3" t="s">
+      <c r="D133" s="3" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="3"/>
-      <c r="B123" s="3" t="s">
+    <row r="134" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="B134" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="C134" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="D123" s="3" t="s">
+      <c r="D134" s="3" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="3"/>
-      <c r="B124" s="3" t="s">
+    <row r="135" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="D135" s="7" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="D136" s="7" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="B137" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="C137" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="D124" s="3" t="s">
+      <c r="D137" s="3" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="3"/>
-      <c r="B125" s="3" t="s">
+    <row r="138" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="B138" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C138" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="D125" s="7" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="3"/>
-      <c r="B126" s="3" t="s">
+      <c r="D138" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="C126" s="3" t="s">
+    </row>
+    <row r="139" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="B139" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="D126" s="3" t="s">
+      <c r="C139" s="3" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="3"/>
-      <c r="B127" s="3" t="s">
+      <c r="D139" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="C127" s="3" t="s">
+    </row>
+    <row r="140" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="B140" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="D127" s="3" t="s">
+      <c r="C140" s="3" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="3"/>
-      <c r="B128" s="3" t="s">
+      <c r="D140" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="C128" s="3" t="s">
+    </row>
+    <row r="141" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="B141" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="D128" s="3" t="s">
+      <c r="C141" s="3" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="3"/>
-      <c r="B129" s="3" t="s">
+      <c r="D141" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="C129" s="3" t="s">
+    </row>
+    <row r="142" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="D142" s="7" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="D143" s="7" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="D144" s="7" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="D145" s="7" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="D146" s="7" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="B150" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="D129" s="7" t="s">
+      <c r="C150" s="3" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="3"/>
-      <c r="B130" s="3" t="s">
+      <c r="D150" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="C130" s="3" t="s">
+    </row>
+    <row r="151" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="B151" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="D130" s="3" t="s">
+      <c r="C151" s="3" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="3"/>
-      <c r="B131" s="7" t="s">
+      <c r="D151" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="C131" s="7" t="s">
+    </row>
+    <row r="152" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="D152" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="D131" s="7" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="3"/>
-      <c r="B132" s="3" t="s">
+    </row>
+    <row r="153" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="B153" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="C153" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="D132" s="3" t="s">
+      <c r="D153" s="3" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="3"/>
-      <c r="B133" s="3" t="s">
+    <row r="154" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="B154" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="C154" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="D133" s="3" t="s">
+      <c r="D154" s="3" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="3"/>
-      <c r="B134" s="3" t="s">
+    <row r="155" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="B155" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="C134" s="3" t="s">
+      <c r="C155" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="D134" s="3" t="s">
+      <c r="D155" s="3" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="3"/>
-      <c r="B135" s="3" t="s">
+    <row r="156" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="B156" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="C135" s="3" t="s">
+      <c r="C156" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="D135" s="3" t="s">
+      <c r="D156" s="3" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="3"/>
-      <c r="B136" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="D136" s="3" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="3"/>
-      <c r="B137" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="3"/>
-      <c r="B138" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="3"/>
-      <c r="B139" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="3"/>
-      <c r="B140" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="3"/>
-      <c r="B141" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="3"/>
-      <c r="B142" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="3"/>
-      <c r="B143" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="3"/>
-      <c r="B144" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="3"/>
-      <c r="B145" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="C145" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D145" s="7" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="3"/>
-      <c r="B146" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="3"/>
-      <c r="B147" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="D147" s="3" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="3"/>
-      <c r="B148" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="D148" s="3" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="3"/>
-      <c r="B149" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="D149" s="3" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="3"/>
-      <c r="B150" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="3"/>
-      <c r="B151" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="3"/>
-      <c r="B152" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="D152" s="3" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="3"/>
-      <c r="B153" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="C153" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="D153" s="7" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="3"/>
-      <c r="B154" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="C154" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="D154" s="3" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="3"/>
-      <c r="B155" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="C155" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="D155" s="3" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="3"/>
-      <c r="B156" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="C156" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="D156" s="3" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="3"/>
       <c r="B157" s="3" t="s">
-        <v>398</v>
+        <v>353</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>399</v>
+        <v>354</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="3"/>
+        <v>355</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="3" t="s">
+        <v>623</v>
+      </c>
       <c r="B158" s="3" t="s">
-        <v>421</v>
+        <v>633</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>422</v>
+        <v>634</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" ht="122.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="3"/>
-      <c r="B159" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="C159" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="D159" s="7" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="3"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="3" t="s">
+        <v>625</v>
+      </c>
       <c r="B160" s="3" t="s">
-        <v>427</v>
+        <v>367</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>428</v>
+        <v>368</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="3"/>
-      <c r="B161" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="C161" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="D161" s="7" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B161" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="3"/>
       <c r="B162" s="3" t="s">
-        <v>433</v>
+        <v>370</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>434</v>
+        <v>371</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="3"/>
-      <c r="B163" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>437</v>
+      <c r="B163" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>374</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="3"/>
       <c r="B164" s="3" t="s">
-        <v>439</v>
+        <v>376</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>440</v>
+        <v>377</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="3"/>
-      <c r="B165" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="C165" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="D165" s="7" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B165" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="3"/>
       <c r="B166" s="3" t="s">
-        <v>445</v>
+        <v>382</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>446</v>
+        <v>383</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="3"/>
-      <c r="B167" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="C167" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="D167" s="7" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B167" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="3"/>
       <c r="B168" s="3" t="s">
-        <v>451</v>
+        <v>388</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>452</v>
+        <v>389</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="3"/>
-      <c r="B169" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="C169" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="D169" s="7" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B169" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="3"/>
-      <c r="B170" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="C170" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="D170" s="7" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B170" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="3"/>
       <c r="B171" s="7" t="s">
-        <v>460</v>
+        <v>397</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>461</v>
+        <v>398</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="3"/>
-      <c r="B172" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>464</v>
+      <c r="B172" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>400</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>465</v>
+        <v>401</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="3"/>
       <c r="B173" s="3" t="s">
-        <v>466</v>
+        <v>402</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>467</v>
+        <v>403</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="3"/>
       <c r="B174" s="3" t="s">
-        <v>469</v>
+        <v>405</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>470</v>
+        <v>406</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="3"/>
       <c r="B175" s="3" t="s">
-        <v>472</v>
+        <v>385</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>472</v>
+        <v>386</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="3"/>
       <c r="B176" s="3" t="s">
-        <v>474</v>
+        <v>408</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>475</v>
+        <v>409</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="122.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="3"/>
-      <c r="B177" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="D177" s="3" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B177" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="D177" s="7" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="3"/>
       <c r="B178" s="3" t="s">
-        <v>480</v>
+        <v>413</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>481</v>
+        <v>414</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="3"/>
-      <c r="B179" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="C179" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="D179" s="3" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B179" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="C179" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D179" s="7" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="3"/>
       <c r="B180" s="3" t="s">
-        <v>486</v>
+        <v>418</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>487</v>
+        <v>419</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="3"/>
       <c r="B181" s="3" t="s">
-        <v>489</v>
+        <v>421</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="D181" s="3"/>
-    </row>
-    <row r="182" spans="1:4" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="D181" s="7" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="3"/>
-      <c r="B182" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="C182" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="D182" s="7" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B182" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="3"/>
-      <c r="B183" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="C183" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="D183" s="3" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" ht="184.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B183" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="D183" s="7" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="3"/>
-      <c r="B184" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="C184" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="D184" s="7" t="s">
-        <v>499</v>
+      <c r="B184" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="3"/>
+      <c r="B185" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="D185" s="7" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="3"/>
+      <c r="B186" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="3"/>
+      <c r="B187" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="C187" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="D187" s="7" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="3"/>
+      <c r="B188" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="D188" s="7" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="3"/>
+      <c r="B189" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="C189" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="D189" s="7" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="3"/>
+      <c r="B190" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="3"/>
+      <c r="B191" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="3"/>
+      <c r="B192" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="3"/>
+      <c r="B193" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="3"/>
+      <c r="B194" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="3"/>
+      <c r="B195" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="3"/>
+      <c r="B196" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="3"/>
+      <c r="B197" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="3"/>
+      <c r="B198" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="3"/>
+      <c r="B199" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="D199" s="3"/>
+    </row>
+    <row r="200" spans="1:4" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="3"/>
+      <c r="B200" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="C200" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="D200" s="7" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="3"/>
+      <c r="B201" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="207.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="3"/>
+      <c r="B202" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="D202" s="7" t="s">
+        <v>482</v>
       </c>
     </row>
   </sheetData>

--- a/IdensolApp/Assets/Resources/ExcelFiles/MultiLanguage.xlsx
+++ b/IdensolApp/Assets/Resources/ExcelFiles/MultiLanguage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Elliot\Idensol\IdensolApp\IdensolApp\Assets\Resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1942EE-1985-4288-92C0-88AA6F060D3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427759C4-809D-4673-8F0A-D713D4C49A6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,17 @@
     <sheet name="muitiLang" sheetId="1" r:id="rId1"/>
     <sheet name="trainFeed" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7misnM0AErddeftIyv5/AZ7yUnQmKQ=="/>
     </ext>
@@ -26,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="745">
   <si>
     <t>id</t>
   </si>
@@ -2007,22 +2016,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>Headquarters</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>東昕精密科技股份有限公司</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2144,31 +2137,6 @@
   </si>
   <si>
     <t>Sustainable services to meet your needs</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>我們把完備的軟、硬體專業技術支援，以及在地化服務視為營運核心。身為牙科數位化解決方案的提供者，我們的目標是讓全球牙科業界的專業人士享有最佳數位解決方案的服務，提供最好的品質、服務與合理的價格。除了有完整的教育訓練、高效率的維修服務與保固之外，於2020年推出的Idensol物聯網(IoT)功能，將優化齒雕機的維護管理效能，為使用者提供更便捷、即時的產品服務。
--線上型錄
--AR教學
--線上客服
--Idensol物聯網</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们把完备的软、硬件专业技术支持，以及在地化服务视为营运核心。身为牙科数字化解决方案的提供者，我们的目标是让全球牙科业界的专业人士享有最佳数字解决方案的服务，提供最好的质量、服务与合理的价格。除了有完整的教育训练、高效率的维修服务与保固之外，于2020年推出的Idensol物联网(IoT)功能，将优化齿雕机的维护管理效能，为使用者提供更便捷、实时的产品服务。
--在线型录
--AR教学
--在线客服
--Idensol物联网</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">We have always regarded complete software and hardware professional technical support and efficient after-sales service as the core of our operations. As a provider of dental digital solutions, our goal is to enable professionals in the global dental industry to enjoy the best digital solution services, providing the best quality, best service and reasonable prices.In addition to complete education and training, high-efficiency maintenance services and warranty, the Idensol Internet of Things (IoT) function launched in 2020 will optimize the maintenance management performance of tooth carving machines and provide users with more convenient and immediate products service.
- - Online catalog
- - AR teaching
- - Online service
- - IoT service
-</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3140,12 +3108,300 @@
     <t>Tool_Management</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>Headquarters</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>About_Headquarters</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>About_CompanyName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>About_CompanyAdress</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>About_Branch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>About_BranchAdress</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>About_Contact</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>About_Telephone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>About_Fax</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>About_Websites</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>About_Service</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>About_ServiceContent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>About_Idensol</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>About_IdensolContent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Troubleshooting_FAQ1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Troubleshooting_FAQ2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Troubleshooting_FAQ3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Troubleshooting_FAQ4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Troubleshooting_FAQ5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Troubleshooting_FAQ6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Troubleshooting_FAQ7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Troubleshooting_FAQ8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Troubleshooting_FAQ9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Troubleshooting_FAQ10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Troubleshooting_FAQ11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Troubleshooting_FAQ12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Troubleshooting_FAQ13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">我們把完備的軟、硬體專業技術支援，以及在地化服務視為營運核心。身為牙科數位化解決方案的提供者，我們的目標是讓全球牙科業界的專業人士享有最佳數位解決方案的服務，提供最好的品質、服務與合理的價格。除了有完整的教育訓練、高效率的維修服務與保固之外，於2020年推出的Idensol物聯網(IoT)功能，將優化齒雕機的維護管理效能，為使用者提供更便捷、即時的產品服務。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>線上型錄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">              -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">線上客服
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-AR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>教學</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                -Idensol</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>物聯網</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">我们把完备的软、硬件专业技术支持，以及在地化服务视为营运核心。身为牙科数字化解决方案的提供者，我们的目标是让全球牙科业界的专业人士享有最佳数字解决方案的服务，提供最好的质量、服务与合理的价格。除了有完整的教育训练、高效率的维修服务与保固之外，于2020年推出的Idensol物联网(IoT)功能，将优化齿雕机的维护管理效能，为使用者提供更便捷、实时的产品服务。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>在线型录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">             -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>在线客服</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+-AR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>教学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">               -Idensol</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>物联网</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">We have always regarded complete software and hardware professional technical support and efficient after-sales service as the core of our operations. As a provider of dental digital solutions, our goal is to enable professionals in the global dental industry to enjoy the best digital solution services, providing the best quality, best service and reasonable prices.In addition to complete education and training, high-efficiency maintenance services and warranty, the Idensol Internet of Things (IoT) function launched in 2020 will optimize the maintenance management performance of tooth carving machines and provide users with more convenient and immediate products service.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - Online catalog              - Online service
+ - AR teaching                 - IoT service</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3190,6 +3446,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3212,7 +3488,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -3233,6 +3509,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3847,10 +4129,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D202"/>
+  <dimension ref="A1:D203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B103" sqref="B103"/>
+    <sheetView tabSelected="1" topLeftCell="A200" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B202" sqref="B202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3886,44 +4168,44 @@
     </row>
     <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3942,7 +4224,7 @@
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>65</v>
@@ -3956,7 +4238,7 @@
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>68</v>
@@ -3984,7 +4266,7 @@
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>73</v>
@@ -4082,7 +4364,7 @@
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>94</v>
@@ -4096,7 +4378,7 @@
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>97</v>
@@ -4110,7 +4392,7 @@
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>100</v>
@@ -4124,7 +4406,7 @@
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>102</v>
@@ -4138,7 +4420,7 @@
     </row>
     <row r="21" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>105</v>
@@ -4147,12 +4429,12 @@
         <v>106</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>107</v>
@@ -4166,7 +4448,7 @@
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>110</v>
@@ -4180,7 +4462,7 @@
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>112</v>
@@ -4194,35 +4476,35 @@
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>113</v>
@@ -4236,7 +4518,7 @@
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>116</v>
@@ -4250,7 +4532,7 @@
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>119</v>
@@ -4264,7 +4546,7 @@
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>122</v>
@@ -4278,7 +4560,7 @@
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>125</v>
@@ -4292,7 +4574,7 @@
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>126</v>
@@ -4306,7 +4588,7 @@
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>129</v>
@@ -4320,7 +4602,7 @@
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>132</v>
@@ -4334,7 +4616,7 @@
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>135</v>
@@ -4348,7 +4630,7 @@
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>138</v>
@@ -4362,7 +4644,7 @@
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>141</v>
@@ -4376,7 +4658,7 @@
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>144</v>
@@ -4390,7 +4672,7 @@
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>129</v>
@@ -4404,7 +4686,7 @@
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>132</v>
@@ -4418,7 +4700,7 @@
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>135</v>
@@ -4432,7 +4714,7 @@
     </row>
     <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>138</v>
@@ -4446,7 +4728,7 @@
     </row>
     <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>147</v>
@@ -4460,7 +4742,7 @@
     </row>
     <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>150</v>
@@ -4474,7 +4756,7 @@
     </row>
     <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>129</v>
@@ -4488,7 +4770,7 @@
     </row>
     <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>132</v>
@@ -4502,7 +4784,7 @@
     </row>
     <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>135</v>
@@ -4516,7 +4798,7 @@
     </row>
     <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>138</v>
@@ -4530,7 +4812,7 @@
     </row>
     <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>153</v>
@@ -4544,7 +4826,7 @@
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>156</v>
@@ -4558,7 +4840,7 @@
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>129</v>
@@ -4572,7 +4854,7 @@
     </row>
     <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>132</v>
@@ -4586,7 +4868,7 @@
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>135</v>
@@ -4600,7 +4882,7 @@
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>138</v>
@@ -4614,7 +4896,7 @@
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>159</v>
@@ -4628,7 +4910,7 @@
     </row>
     <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>162</v>
@@ -4642,7 +4924,7 @@
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>165</v>
@@ -4656,7 +4938,7 @@
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>168</v>
@@ -4670,7 +4952,7 @@
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>171</v>
@@ -4684,7 +4966,7 @@
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>174</v>
@@ -4698,7 +4980,7 @@
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>176</v>
@@ -4712,7 +4994,7 @@
     </row>
     <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>179</v>
@@ -4726,7 +5008,7 @@
     </row>
     <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>182</v>
@@ -4740,7 +5022,7 @@
     </row>
     <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>184</v>
@@ -4754,7 +5036,7 @@
     </row>
     <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>187</v>
@@ -4768,7 +5050,7 @@
     </row>
     <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>125</v>
@@ -4782,7 +5064,7 @@
     </row>
     <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>189</v>
@@ -4796,7 +5078,7 @@
     </row>
     <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>191</v>
@@ -4810,7 +5092,7 @@
     </row>
     <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>194</v>
@@ -4824,7 +5106,7 @@
     </row>
     <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>197</v>
@@ -4838,7 +5120,7 @@
     </row>
     <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>200</v>
@@ -4852,7 +5134,7 @@
     </row>
     <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>203</v>
@@ -4866,7 +5148,7 @@
     </row>
     <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>206</v>
@@ -4880,7 +5162,7 @@
     </row>
     <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>191</v>
@@ -4894,7 +5176,7 @@
     </row>
     <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>194</v>
@@ -4908,7 +5190,7 @@
     </row>
     <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>197</v>
@@ -4922,7 +5204,7 @@
     </row>
     <row r="77" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>200</v>
@@ -4936,7 +5218,7 @@
     </row>
     <row r="78" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>203</v>
@@ -4950,7 +5232,7 @@
     </row>
     <row r="79" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>208</v>
@@ -4964,7 +5246,7 @@
     </row>
     <row r="80" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>191</v>
@@ -4978,7 +5260,7 @@
     </row>
     <row r="81" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>210</v>
@@ -4992,7 +5274,7 @@
     </row>
     <row r="82" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>213</v>
@@ -5006,7 +5288,7 @@
     </row>
     <row r="83" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>230</v>
@@ -5020,7 +5302,7 @@
     </row>
     <row r="84" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>233</v>
@@ -5034,7 +5316,7 @@
     </row>
     <row r="85" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>236</v>
@@ -5048,7 +5330,7 @@
     </row>
     <row r="86" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>239</v>
@@ -5062,7 +5344,7 @@
     </row>
     <row r="87" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>242</v>
@@ -5076,7 +5358,7 @@
     </row>
     <row r="88" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>245</v>
@@ -5090,7 +5372,7 @@
     </row>
     <row r="89" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>248</v>
@@ -5104,7 +5386,7 @@
     </row>
     <row r="90" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>224</v>
@@ -5118,7 +5400,7 @@
     </row>
     <row r="91" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>225</v>
@@ -5180,7 +5462,7 @@
     </row>
     <row r="96" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>254</v>
@@ -5194,63 +5476,63 @@
     </row>
     <row r="97" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>264</v>
@@ -5264,21 +5546,21 @@
     </row>
     <row r="102" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>267</v>
@@ -5292,7 +5574,7 @@
     </row>
     <row r="104" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>269</v>
@@ -5306,7 +5588,7 @@
     </row>
     <row r="105" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>271</v>
@@ -5320,16 +5602,16 @@
     </row>
     <row r="106" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5350,7 +5632,7 @@
         <v>254</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>93</v>
@@ -5358,77 +5640,77 @@
     </row>
     <row r="109" spans="1:4" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="110" spans="1:4" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="111" spans="1:4" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="112" spans="1:4" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="B112" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="C112" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="C112" s="3" t="s">
-        <v>688</v>
-      </c>
       <c r="D112" s="3" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
     </row>
     <row r="113" spans="1:4" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="C113" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="D113" s="3" t="s">
         <v>690</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>277</v>
@@ -5466,7 +5748,7 @@
     </row>
     <row r="117" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>286</v>
@@ -5480,7 +5762,7 @@
     </row>
     <row r="118" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>287</v>
@@ -5494,7 +5776,7 @@
     </row>
     <row r="119" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>290</v>
@@ -5508,7 +5790,7 @@
     </row>
     <row r="120" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>293</v>
@@ -5522,7 +5804,7 @@
     </row>
     <row r="121" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>295</v>
@@ -5536,7 +5818,7 @@
     </row>
     <row r="122" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>298</v>
@@ -5550,7 +5832,7 @@
     </row>
     <row r="123" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>301</v>
@@ -5564,7 +5846,7 @@
     </row>
     <row r="124" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>304</v>
@@ -5578,7 +5860,7 @@
     </row>
     <row r="125" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>307</v>
@@ -5592,7 +5874,7 @@
     </row>
     <row r="126" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>310</v>
@@ -5601,12 +5883,12 @@
         <v>311</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>312</v>
@@ -5620,7 +5902,7 @@
     </row>
     <row r="128" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>315</v>
@@ -5634,7 +5916,7 @@
     </row>
     <row r="129" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>318</v>
@@ -5648,27 +5930,27 @@
     </row>
     <row r="130" spans="1:4" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="B130" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="D130" s="4" t="s">
         <v>483</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="D130" s="4" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="131" spans="1:4" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D131" s="4" t="s">
         <v>321</v>
@@ -5676,7 +5958,7 @@
     </row>
     <row r="132" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>322</v>
@@ -5690,7 +5972,7 @@
     </row>
     <row r="133" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>325</v>
@@ -5704,7 +5986,7 @@
     </row>
     <row r="134" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>328</v>
@@ -5718,35 +6000,35 @@
     </row>
     <row r="135" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B135" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="D135" s="7" t="s">
         <v>580</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="D135" s="7" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B136" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="D136" s="7" t="s">
         <v>581</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="D136" s="7" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>331</v>
@@ -5760,7 +6042,7 @@
     </row>
     <row r="138" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>334</v>
@@ -5774,7 +6056,7 @@
     </row>
     <row r="139" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>337</v>
@@ -5788,7 +6070,7 @@
     </row>
     <row r="140" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>340</v>
@@ -5802,7 +6084,7 @@
     </row>
     <row r="141" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>343</v>
@@ -5816,119 +6098,119 @@
     </row>
     <row r="142" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>346</v>
@@ -5942,7 +6224,7 @@
     </row>
     <row r="151" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>349</v>
@@ -5956,13 +6238,13 @@
     </row>
     <row r="152" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="D152" s="3" t="s">
         <v>352</v>
@@ -5970,7 +6252,7 @@
     </row>
     <row r="153" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>353</v>
@@ -5984,7 +6266,7 @@
     </row>
     <row r="154" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>356</v>
@@ -5998,7 +6280,7 @@
     </row>
     <row r="155" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>359</v>
@@ -6012,7 +6294,7 @@
     </row>
     <row r="156" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>362</v>
@@ -6038,13 +6320,13 @@
     </row>
     <row r="158" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="D158" s="3" t="s">
         <v>365</v>
@@ -6052,13 +6334,13 @@
     </row>
     <row r="159" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="D159" s="3" t="s">
         <v>366</v>
@@ -6066,7 +6348,7 @@
     </row>
     <row r="160" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>367</v>
@@ -6091,7 +6373,9 @@
       </c>
     </row>
     <row r="162" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="3"/>
+      <c r="A162" s="3" t="s">
+        <v>726</v>
+      </c>
       <c r="B162" s="3" t="s">
         <v>370</v>
       </c>
@@ -6115,7 +6399,9 @@
       </c>
     </row>
     <row r="164" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="3"/>
+      <c r="A164" s="3" t="s">
+        <v>727</v>
+      </c>
       <c r="B164" s="3" t="s">
         <v>376</v>
       </c>
@@ -6139,7 +6425,9 @@
       </c>
     </row>
     <row r="166" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="3"/>
+      <c r="A166" s="3" t="s">
+        <v>728</v>
+      </c>
       <c r="B166" s="3" t="s">
         <v>382</v>
       </c>
@@ -6163,7 +6451,9 @@
       </c>
     </row>
     <row r="168" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="3"/>
+      <c r="A168" s="3" t="s">
+        <v>729</v>
+      </c>
       <c r="B168" s="3" t="s">
         <v>388</v>
       </c>
@@ -6187,7 +6477,9 @@
       </c>
     </row>
     <row r="170" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="3"/>
+      <c r="A170" s="3" t="s">
+        <v>730</v>
+      </c>
       <c r="B170" s="3" t="s">
         <v>394</v>
       </c>
@@ -6207,11 +6499,13 @@
         <v>398</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="3"/>
+      <c r="A172" s="3" t="s">
+        <v>731</v>
+      </c>
       <c r="B172" s="7" t="s">
         <v>399</v>
       </c>
@@ -6235,7 +6529,9 @@
       </c>
     </row>
     <row r="174" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="3"/>
+      <c r="A174" s="3" t="s">
+        <v>732</v>
+      </c>
       <c r="B174" s="3" t="s">
         <v>405</v>
       </c>
@@ -6259,7 +6555,9 @@
       </c>
     </row>
     <row r="176" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="3"/>
+      <c r="A176" s="3" t="s">
+        <v>733</v>
+      </c>
       <c r="B176" s="3" t="s">
         <v>408</v>
       </c>
@@ -6279,11 +6577,13 @@
         <v>412</v>
       </c>
       <c r="D177" s="7" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="3"/>
+      <c r="A178" s="3" t="s">
+        <v>734</v>
+      </c>
       <c r="B178" s="3" t="s">
         <v>413</v>
       </c>
@@ -6303,11 +6603,13 @@
         <v>417</v>
       </c>
       <c r="D179" s="7" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="3"/>
+      <c r="A180" s="3" t="s">
+        <v>735</v>
+      </c>
       <c r="B180" s="3" t="s">
         <v>418</v>
       </c>
@@ -6331,7 +6633,9 @@
       </c>
     </row>
     <row r="182" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="3"/>
+      <c r="A182" s="3" t="s">
+        <v>736</v>
+      </c>
       <c r="B182" s="3" t="s">
         <v>424</v>
       </c>
@@ -6351,11 +6655,13 @@
         <v>428</v>
       </c>
       <c r="D183" s="7" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="3"/>
+      <c r="A184" s="3" t="s">
+        <v>737</v>
+      </c>
       <c r="B184" s="3" t="s">
         <v>429</v>
       </c>
@@ -6375,11 +6681,13 @@
         <v>433</v>
       </c>
       <c r="D185" s="7" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="3"/>
+      <c r="A186" s="3" t="s">
+        <v>738</v>
+      </c>
       <c r="B186" s="3" t="s">
         <v>434</v>
       </c>
@@ -6427,7 +6735,9 @@
       </c>
     </row>
     <row r="190" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="3"/>
+      <c r="A190" s="3" t="s">
+        <v>713</v>
+      </c>
       <c r="B190" s="3" t="s">
         <v>446</v>
       </c>
@@ -6435,149 +6745,184 @@
         <v>447</v>
       </c>
       <c r="D190" s="3" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="B191" s="3" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="3"/>
-      <c r="B191" s="3" t="s">
+      <c r="C191" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="C191" s="3" t="s">
+      <c r="D191" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="D191" s="3" t="s">
+    </row>
+    <row r="192" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="B192" s="3" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="3"/>
-      <c r="B192" s="3" t="s">
+      <c r="C192" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="C192" s="3" t="s">
+      <c r="D192" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="D192" s="3" t="s">
+    </row>
+    <row r="193" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="B193" s="3" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="3"/>
-      <c r="B193" s="3" t="s">
+      <c r="C193" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="D193" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="C193" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="D193" s="3" t="s">
+    </row>
+    <row r="194" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="B194" s="3" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="3"/>
-      <c r="B194" s="3" t="s">
+      <c r="C194" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="C194" s="3" t="s">
+      <c r="D194" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="D194" s="3" t="s">
+    </row>
+    <row r="195" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="B195" s="3" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="3"/>
-      <c r="B195" s="3" t="s">
+      <c r="C195" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="C195" s="3" t="s">
+      <c r="D195" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="D195" s="3" t="s">
+    </row>
+    <row r="196" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="B196" s="3" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="3"/>
-      <c r="B196" s="3" t="s">
+      <c r="C196" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="C196" s="3" t="s">
+      <c r="D196" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="D196" s="3" t="s">
+    </row>
+    <row r="197" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="B197" s="3" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="3"/>
-      <c r="B197" s="3" t="s">
+      <c r="C197" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="C197" s="3" t="s">
+      <c r="D197" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="D197" s="3" t="s">
+    </row>
+    <row r="198" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="B198" s="3" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="3"/>
-      <c r="B198" s="3" t="s">
+      <c r="C198" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="C198" s="3" t="s">
+      <c r="D198" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="D198" s="3" t="s">
+    </row>
+    <row r="199" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="B199" s="3" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="3"/>
-      <c r="B199" s="3" t="s">
+      <c r="C199" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="C199" s="3" t="s">
+      <c r="D199" s="3"/>
+    </row>
+    <row r="200" spans="1:4" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="B200" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="D199" s="3"/>
-    </row>
-    <row r="200" spans="1:4" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="3"/>
-      <c r="B200" s="7" t="s">
+      <c r="C200" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="C200" s="7" t="s">
+      <c r="D200" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="D200" s="7" t="s">
+    </row>
+    <row r="201" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="B201" s="3" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="3"/>
-      <c r="B201" s="3" t="s">
+      <c r="C201" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="C201" s="3" t="s">
+      <c r="D201" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D201" s="3" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" ht="207.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="3"/>
+    </row>
+    <row r="202" spans="1:4" ht="131.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="3" t="s">
+        <v>723</v>
+      </c>
       <c r="B202" s="7" t="s">
-        <v>480</v>
+        <v>739</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>481</v>
+        <v>741</v>
       </c>
       <c r="D202" s="7" t="s">
-        <v>482</v>
+        <v>743</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" s="8" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B203" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="C203" s="10" t="s">
+        <v>742</v>
+      </c>
+      <c r="D203" s="9" t="s">
+        <v>744</v>
       </c>
     </row>
   </sheetData>

--- a/IdensolApp/Assets/Resources/ExcelFiles/MultiLanguage.xlsx
+++ b/IdensolApp/Assets/Resources/ExcelFiles/MultiLanguage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Elliot\Idensol\IdensolApp\IdensolApp\Assets\Resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427759C4-809D-4673-8F0A-D713D4C49A6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F907CD-8F0A-4919-988F-9C8AF3740BC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="753">
   <si>
     <t>id</t>
   </si>
@@ -1411,10 +1411,6 @@
   </si>
   <si>
     <t>使用六角套筒将筒夹顺时针方向卸下</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Use a hex scoket to remove the chuck clockwise.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3394,6 +3390,42 @@
   <si>
     <t xml:space="preserve">  - Online catalog              - Online service
  - AR teaching                 - IoT service</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>note nefore milling_3Text</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>檢查當前刀號位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查刀具状况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check bur number and position.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>note nefore milling</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>開機注意事項</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开机注意事项</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note Before Milling</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use a hex socket to remove the chuck clockwise.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3488,7 +3520,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -3516,6 +3548,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -3540,14 +3573,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>51955</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>3177062</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>1722294</xdr:rowOff>
+      <xdr:colOff>3196112</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>1718484</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3589,13 +3622,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4352925</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:colOff>4347210</xdr:colOff>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>1641271</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3632,13 +3665,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>66676</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>371476</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:colOff>377191</xdr:colOff>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>342901</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3682,13 +3715,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:colOff>377190</xdr:colOff>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>342900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3732,14 +3765,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>923925</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1228725</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>333375</xdr:rowOff>
+      <xdr:colOff>1223010</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>339090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3782,14 +3815,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3667125</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3971925</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>323850</xdr:rowOff>
+      <xdr:colOff>3966210</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>339090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3832,14 +3865,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>381001</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>352426</xdr:rowOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>346711</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3882,14 +3915,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>923925</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1228725</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>333375</xdr:rowOff>
+      <xdr:colOff>1223010</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>339090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4129,10 +4162,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D203"/>
+  <dimension ref="A1:D205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A200" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B202" sqref="B202"/>
+    <sheetView tabSelected="1" topLeftCell="C126" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D139" sqref="D139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4168,44 +4201,44 @@
     </row>
     <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>486</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>490</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>492</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4224,7 +4257,7 @@
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>65</v>
@@ -4238,7 +4271,7 @@
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>68</v>
@@ -4266,7 +4299,7 @@
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>73</v>
@@ -4278,197 +4311,197 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>77</v>
+        <v>748</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>749</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>750</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>78</v>
+        <v>751</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>217</v>
+        <v>744</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>79</v>
+        <v>745</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>80</v>
+        <v>746</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>81</v>
+        <v>747</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>90</v>
+        <v>218</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>498</v>
+        <v>223</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>499</v>
+        <v>222</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>562</v>
+        <v>100</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>109</v>
@@ -4476,646 +4509,646 @@
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>512</v>
+        <v>110</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>513</v>
+        <v>111</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>511</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>507</v>
+        <v>112</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>508</v>
+        <v>112</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>509</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>113</v>
+        <v>511</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>114</v>
+        <v>512</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>115</v>
+        <v>510</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>116</v>
+        <v>506</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>117</v>
+        <v>507</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>118</v>
+        <v>508</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>125</v>
+        <v>185</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>125</v>
+        <v>186</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>191</v>
+        <v>125</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>192</v>
+        <v>125</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>193</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>196</v>
+        <v>164</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5123,13 +5156,13 @@
         <v>557</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5137,921 +5170,921 @@
         <v>555</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>164</v>
+        <v>202</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>196</v>
+        <v>164</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>544</v>
+        <v>567</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>164</v>
+        <v>202</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>561</v>
+        <v>543</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>212</v>
+        <v>164</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B88" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="B90" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C90" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="D90" s="3" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="3" t="s">
+    <row r="91" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="B89" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="3" t="s">
+      <c r="B92" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="B90" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="B91" s="3" t="s">
+      <c r="B93" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C93" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D93" s="3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
       <c r="B94" s="3" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
       <c r="B95" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="3"/>
+      <c r="B96" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="3"/>
+      <c r="B97" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C97" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="D97" s="3" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="B96" s="3" t="s">
+    <row r="98" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="B98" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C98" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="D98" s="3" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>645</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>264</v>
+        <v>650</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>265</v>
+        <v>651</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>266</v>
+        <v>652</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>269</v>
+        <v>664</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>270</v>
+        <v>665</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>64</v>
+        <v>666</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="B106" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="D108" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="C106" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="3"/>
-      <c r="B107" s="3" t="s">
+    </row>
+    <row r="109" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="3"/>
+      <c r="B109" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C109" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="D107" s="3" t="s">
+      <c r="D109" s="3" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="3"/>
-      <c r="B108" s="2" t="s">
+    <row r="110" spans="1:4" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="3"/>
+      <c r="B110" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C108" s="7" t="s">
-        <v>685</v>
-      </c>
-      <c r="D108" s="2" t="s">
+      <c r="C110" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>679</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="111" spans="1:4" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>692</v>
+        <v>677</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>693</v>
+        <v>675</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
     </row>
     <row r="112" spans="1:4" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="113" spans="1:4" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="3"/>
+      <c r="B117" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="3"/>
+      <c r="B118" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="B113" s="3" t="s">
-        <v>681</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="3" t="s">
-        <v>662</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="3"/>
-      <c r="B115" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="3"/>
-      <c r="B116" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="B117" s="3" t="s">
+      <c r="B119" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="C119" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D117" s="3" t="s">
+      <c r="D119" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="3" t="s">
-        <v>711</v>
-      </c>
-      <c r="B118" s="3" t="s">
+    <row r="120" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="B120" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C120" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="D118" s="3" t="s">
+      <c r="D120" s="3" t="s">
         <v>289</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B121" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="B123" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C123" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="D121" s="3" t="s">
+      <c r="D123" s="3" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="B122" s="3" t="s">
+    <row r="124" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="B124" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C124" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="D122" s="3" t="s">
+      <c r="D124" s="3" t="s">
         <v>300</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="3" t="s">
-        <v>698</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="3" t="s">
-        <v>699</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="B125" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="B127" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C127" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="D125" s="3" t="s">
+      <c r="D127" s="3" t="s">
         <v>309</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="3" t="s">
-        <v>702</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="3" t="s">
-        <v>703</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="B128" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="3" t="s">
+      <c r="B131" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="4" t="s">
         <v>705</v>
       </c>
-      <c r="B129" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="4" t="s">
+      <c r="B132" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="4" t="s">
         <v>706</v>
       </c>
-      <c r="B130" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="C130" s="4" t="s">
+      <c r="B133" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="C133" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="D130" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="4" t="s">
+      <c r="D133" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="B131" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="D131" s="4" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="3" t="s">
+      <c r="B134" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="B132" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="3" t="s">
-        <v>709</v>
-      </c>
-      <c r="B133" s="3" t="s">
+      <c r="B135" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="C135" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="D133" s="3" t="s">
+      <c r="D135" s="3" t="s">
         <v>327</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="3" t="s">
-        <v>710</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="D135" s="7" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>583</v>
+        <v>709</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>577</v>
+        <v>328</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="D136" s="7" t="s">
-        <v>581</v>
+        <v>329</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
-        <v>601</v>
+        <v>581</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>331</v>
+        <v>575</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <v>577</v>
+      </c>
+      <c r="D137" s="7" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>334</v>
+        <v>576</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>336</v>
+        <v>578</v>
+      </c>
+      <c r="D138" s="7" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6059,870 +6092,898 @@
         <v>600</v>
       </c>
       <c r="B139" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C141" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="C139" s="3" t="s">
+      <c r="D141" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="D139" s="3" t="s">
+    </row>
+    <row r="142" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="B142" s="3" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="3" t="s">
+      <c r="C142" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D142" s="7" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="B140" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D140" s="7" t="s">
+      <c r="B143" s="3" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="B141" s="3" t="s">
+      <c r="C143" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="C141" s="3" t="s">
+      <c r="D143" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="D141" s="7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="B142" s="7" t="s">
-        <v>593</v>
-      </c>
-      <c r="C142" s="7" t="s">
+    </row>
+    <row r="144" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="B144" s="7" t="s">
         <v>592</v>
       </c>
-      <c r="D142" s="7" t="s">
+      <c r="C144" s="7" t="s">
         <v>591</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="B143" s="7" t="s">
-        <v>584</v>
-      </c>
-      <c r="C143" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="D143" s="7" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="B144" s="7" t="s">
-        <v>585</v>
-      </c>
-      <c r="C144" s="7" t="s">
-        <v>594</v>
       </c>
       <c r="D144" s="7" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="D145" s="7" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="B145" s="7" t="s">
-        <v>586</v>
-      </c>
-      <c r="C145" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="D145" s="7" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="3" t="s">
-        <v>611</v>
-      </c>
       <c r="B146" s="7" t="s">
-        <v>608</v>
+        <v>584</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>610</v>
+        <v>589</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>622</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="D147" s="3" t="s">
-        <v>624</v>
+        <v>595</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="D147" s="7" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="D148" s="3" t="s">
-        <v>627</v>
+        <v>610</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="D148" s="7" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B149" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="3"/>
+      <c r="B159" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="B160" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="C149" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="D149" s="3" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="3" t="s">
-        <v>606</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="3" t="s">
-        <v>614</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="D152" s="3" t="s">
+      <c r="C160" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="3"/>
+      <c r="B163" s="3" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="B153" s="3" t="s">
+      <c r="C163" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="C153" s="3" t="s">
+      <c r="D163" s="3" t="s">
         <v>354</v>
-      </c>
-      <c r="D153" s="3" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="B154" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="D154" s="3" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="C155" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="D155" s="3" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="3" t="s">
-        <v>618</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="C156" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="D156" s="3" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="3"/>
-      <c r="B157" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="D157" s="3" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="3" t="s">
-        <v>619</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>629</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="D158" s="3" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="D159" s="3" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="B160" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="D160" s="3" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="3"/>
-      <c r="B161" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="D161" s="3" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="3" t="s">
-        <v>726</v>
-      </c>
-      <c r="B162" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="C162" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="D162" s="3" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="3"/>
-      <c r="B163" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="C163" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="D163" s="7" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B164" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="3"/>
+      <c r="B165" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="D165" s="7" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="C166" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="C164" s="3" t="s">
+      <c r="D166" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="D164" s="3" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="3"/>
-      <c r="B165" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="C165" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="D165" s="3" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="3" t="s">
-        <v>728</v>
-      </c>
-      <c r="B166" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="C166" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="D166" s="3" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="167" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="3"/>
       <c r="B167" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="C167" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="D167" s="3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>378</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="D167" s="7" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="3"/>
       <c r="B169" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="3"/>
+      <c r="B171" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="C171" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="C169" s="3" t="s">
+      <c r="D171" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="D169" s="3" t="s">
+    </row>
+    <row r="172" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="B172" s="3" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="3" t="s">
+      <c r="C172" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="3"/>
+      <c r="B173" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="D173" s="7" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="B170" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="C170" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="D170" s="3" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="3"/>
-      <c r="B171" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="C171" s="7" t="s">
+      <c r="B174" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="D171" s="7" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="3" t="s">
-        <v>731</v>
-      </c>
-      <c r="B172" s="7" t="s">
+      <c r="C174" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="C172" s="7" t="s">
+      <c r="D174" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="D172" s="3" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="3"/>
-      <c r="B173" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="C173" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="D173" s="3" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="3" t="s">
-        <v>732</v>
-      </c>
-      <c r="B174" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="C174" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="D174" s="3" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="175" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="3"/>
       <c r="B175" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="3"/>
+      <c r="B177" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C177" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="C175" s="3" t="s">
+      <c r="D177" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="D175" s="3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="3" t="s">
-        <v>733</v>
-      </c>
-      <c r="B176" s="3" t="s">
+    </row>
+    <row r="178" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C178" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="C176" s="3" t="s">
+      <c r="D178" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="D176" s="3" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" ht="122.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="3"/>
-      <c r="B177" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="C177" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="D177" s="7" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="3" t="s">
-        <v>734</v>
-      </c>
-      <c r="B178" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="C178" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="D178" s="3" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="179" spans="1:4" ht="122.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="3"/>
       <c r="B179" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="D179" s="7" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="3"/>
+      <c r="B181" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="C181" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="D181" s="7" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="3"/>
+      <c r="B183" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="D183" s="7" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="B180" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="C180" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="D180" s="3" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="3"/>
-      <c r="B181" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="C181" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="D181" s="7" t="s">
+      <c r="B184" s="3" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="3" t="s">
-        <v>736</v>
-      </c>
-      <c r="B182" s="3" t="s">
+      <c r="C184" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="C182" s="3" t="s">
+      <c r="D184" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="D182" s="3" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="3"/>
-      <c r="B183" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="C183" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="D183" s="7" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="3" t="s">
-        <v>737</v>
-      </c>
-      <c r="B184" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="C184" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="D184" s="3" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="185" spans="1:4" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="3"/>
       <c r="B185" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="D185" s="7" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="3"/>
       <c r="B187" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="D187" s="7" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="3"/>
-      <c r="B188" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="C188" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="D188" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="3"/>
       <c r="B189" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="C189" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="D189" s="7" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="3"/>
+      <c r="B190" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="D190" s="7" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="3"/>
+      <c r="B191" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="C191" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="C189" s="7" t="s">
+      <c r="D191" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="D189" s="7" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="B190" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="C190" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="D190" s="3" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="3" t="s">
-        <v>714</v>
-      </c>
-      <c r="B191" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="C191" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="D191" s="3" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="B192" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="C192" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="D192" s="3" t="s">
+      <c r="B195" s="3" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="3" t="s">
+      <c r="C195" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="B193" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="C193" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="D193" s="3" t="s">
+      <c r="B196" s="3" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="3" t="s">
+      <c r="C196" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="B194" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="C194" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="D194" s="3" t="s">
+      <c r="B197" s="3" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="3" t="s">
+      <c r="C197" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="B195" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="C195" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="D195" s="3" t="s">
+      <c r="B198" s="3" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="3" t="s">
+      <c r="C198" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="B196" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="C196" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="D196" s="3" t="s">
+      <c r="B199" s="3" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="3" t="s">
+      <c r="C199" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="3" t="s">
         <v>720</v>
       </c>
-      <c r="B197" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="C197" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="D197" s="3" t="s">
+      <c r="B200" s="3" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="3" t="s">
+      <c r="C200" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="D201" s="3"/>
+    </row>
+    <row r="202" spans="1:4" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="B202" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="D202" s="7" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A203" s="3" t="s">
         <v>721</v>
       </c>
-      <c r="B198" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="C198" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="D198" s="3" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="B199" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="C199" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="D199" s="3"/>
-    </row>
-    <row r="200" spans="1:4" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="3" t="s">
-        <v>725</v>
-      </c>
-      <c r="B200" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="C200" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="D200" s="7" t="s">
+      <c r="B203" s="3" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="3" t="s">
+      <c r="C203" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="131.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="B201" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="C201" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="D201" s="3" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" ht="131.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="3" t="s">
-        <v>723</v>
-      </c>
-      <c r="B202" s="7" t="s">
+      <c r="B204" s="7" t="s">
+        <v>738</v>
+      </c>
+      <c r="C204" s="7" t="s">
+        <v>740</v>
+      </c>
+      <c r="D204" s="7" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" s="8" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B205" s="9" t="s">
         <v>739</v>
       </c>
-      <c r="C202" s="7" t="s">
+      <c r="C205" s="10" t="s">
         <v>741</v>
       </c>
-      <c r="D202" s="7" t="s">
+      <c r="D205" s="9" t="s">
         <v>743</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" s="8" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B203" s="9" t="s">
-        <v>740</v>
-      </c>
-      <c r="C203" s="10" t="s">
-        <v>742</v>
-      </c>
-      <c r="D203" s="9" t="s">
-        <v>744</v>
       </c>
     </row>
   </sheetData>

--- a/IdensolApp/Assets/Resources/ExcelFiles/MultiLanguage.xlsx
+++ b/IdensolApp/Assets/Resources/ExcelFiles/MultiLanguage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Elliot\Idensol\IdensolApp\IdensolApp\Assets\Resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F907CD-8F0A-4919-988F-9C8AF3740BC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A789621E-C174-4801-BD55-A202DC18A829}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="800">
   <si>
     <t>id</t>
   </si>
@@ -2284,10 +2284,6 @@
   </si>
   <si>
     <t>Step2_Copping</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step2_Single Crown</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3426,6 +3422,190 @@
   </si>
   <si>
     <t>Use a hex socket to remove the chuck clockwise.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAM假牙排版</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAM-Prosthetic Planning</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step3_Tutorial</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAD假牙設計-內冠設計</t>
+  </si>
+  <si>
+    <t>CAD假牙設計-單冠設計</t>
+  </si>
+  <si>
+    <t>CAD假牙設計-嵌體設計</t>
+  </si>
+  <si>
+    <t>CAD假牙設計-貼片設計</t>
+  </si>
+  <si>
+    <t>CAD假牙設計-Premill設計</t>
+  </si>
+  <si>
+    <t>CAD假牙设计-基底冠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAD假牙设计-解剖冠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAD假牙设计-嵌体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAD假牙设计-贴面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAD假牙设计-Premill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAD-Prosthetic Design-Copping</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAD-Prosthetic Design-Single Crown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAD-Prosthetic Design-Inlay/Onlay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAD-Prosthetic Design-Venner</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAD-Prosthetic Design-Premill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAD_Copping</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAD_SingleCrown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step2_SingleCrown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAD_Inlay/Onlay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAD_Venner</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAD_Premill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用軟體：3shape</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用软体：3shape</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用軟體：exocad</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用软体：exocad</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Software：3shape</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Software：exocad</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Software_3shape</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Software_exocad</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用軟體：Millbox</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用软体：Millbox</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Software：Millbox</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Software_Millbox</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAM假牙排版-氧化鋯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAM假牙排版-玻璃陶瓷</t>
+  </si>
+  <si>
+    <t>CAM假牙排版-玻璃陶瓷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAM假牙排版-Premill</t>
+  </si>
+  <si>
+    <t>CAM假牙排版-Premill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAM_Zirconia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAM_GlassCermaic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAM_Premill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAM假牙排版-氧化锆</t>
+  </si>
+  <si>
+    <t>CAM-Prosthetic Planning-Premill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAM-Prosthetic Planning-Glass Cermaic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAM-Prosthetic Planning-Zirconia</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3573,13 +3753,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>51955</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3196112</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>1718484</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3622,13 +3802,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>4347210</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>1641271</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3665,13 +3845,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>66676</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>377191</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>342901</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3715,13 +3895,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>377190</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>342900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3765,13 +3945,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>923925</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1223010</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>339090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3815,13 +3995,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3667125</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3966210</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>339090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3865,13 +4045,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>381001</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>346711</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3915,13 +4095,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>923925</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1223010</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>339090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4162,10 +4342,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D205"/>
+  <dimension ref="A1:D217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C126" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D139" sqref="D139"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4313,30 +4493,30 @@
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>748</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="C11" s="11" t="s">
         <v>749</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="D11" s="3" t="s">
         <v>750</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>746</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4490,7 +4670,7 @@
         <v>106</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4551,755 +4731,755 @@
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>509</v>
+        <v>754</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>506</v>
+        <v>752</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>507</v>
+        <v>752</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>508</v>
+        <v>753</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>514</v>
+        <v>770</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>113</v>
+        <v>755</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>114</v>
+        <v>760</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>115</v>
+        <v>765</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>515</v>
+        <v>771</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>116</v>
+        <v>756</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>117</v>
+        <v>761</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>118</v>
+        <v>766</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>516</v>
+        <v>773</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>119</v>
+        <v>757</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>120</v>
+        <v>762</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>121</v>
+        <v>767</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>517</v>
+        <v>774</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>122</v>
+        <v>758</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>123</v>
+        <v>763</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>124</v>
+        <v>768</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>518</v>
+        <v>775</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>125</v>
+        <v>759</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>125</v>
+        <v>764</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>125</v>
+        <v>769</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>519</v>
+        <v>782</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>126</v>
+        <v>776</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>127</v>
+        <v>777</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>128</v>
+        <v>780</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>520</v>
+        <v>783</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>129</v>
+        <v>778</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>130</v>
+        <v>779</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>131</v>
+        <v>781</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>132</v>
+        <v>506</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>133</v>
+        <v>507</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>134</v>
+        <v>508</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>523</v>
+        <v>772</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>171</v>
+        <v>129</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>172</v>
+        <v>130</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>173</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>174</v>
+        <v>132</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>175</v>
+        <v>134</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>177</v>
+        <v>136</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>178</v>
+        <v>137</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>179</v>
+        <v>138</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>180</v>
+        <v>139</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>181</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>562</v>
+        <v>543</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>125</v>
+        <v>168</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>125</v>
+        <v>170</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>191</v>
+        <v>125</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>192</v>
+        <v>125</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>193</v>
+        <v>125</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>565</v>
+        <v>793</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>194</v>
+        <v>788</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>195</v>
+        <v>796</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>196</v>
+        <v>799</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>566</v>
+        <v>794</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>197</v>
+        <v>790</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>198</v>
+        <v>789</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>199</v>
+        <v>798</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>567</v>
+        <v>795</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>200</v>
+        <v>792</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>201</v>
+        <v>791</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>202</v>
+        <v>797</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>568</v>
+        <v>787</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>203</v>
+        <v>784</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>204</v>
+        <v>785</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>205</v>
+        <v>786</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>164</v>
@@ -5307,7 +5487,7 @@
     </row>
     <row r="82" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>191</v>
@@ -5321,1669 +5501,1837 @@
     </row>
     <row r="83" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>570</v>
+        <v>553</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>238</v>
+        <v>164</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>239</v>
+        <v>191</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>240</v>
+        <v>192</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>241</v>
+        <v>193</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>242</v>
+        <v>194</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>243</v>
+        <v>195</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>244</v>
+        <v>196</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>245</v>
+        <v>197</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>641</v>
+        <v>566</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>248</v>
+        <v>200</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>249</v>
+        <v>201</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>642</v>
+        <v>567</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>643</v>
+        <v>542</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="3"/>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="s">
+        <v>557</v>
+      </c>
       <c r="B94" s="3" t="s">
-        <v>261</v>
+        <v>191</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>262</v>
+        <v>192</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>263</v>
+        <v>193</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="3"/>
+      <c r="A95" s="3" t="s">
+        <v>559</v>
+      </c>
       <c r="B95" s="3" t="s">
-        <v>251</v>
+        <v>210</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>258</v>
+        <v>212</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="3"/>
+      <c r="A96" s="3" t="s">
+        <v>558</v>
+      </c>
       <c r="B96" s="3" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>256</v>
+        <v>214</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>259</v>
+        <v>215</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="3"/>
+      <c r="A97" s="3" t="s">
+        <v>568</v>
+      </c>
       <c r="B97" s="3" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>674</v>
+        <v>569</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>93</v>
+        <v>235</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>656</v>
+        <v>570</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>644</v>
+        <v>236</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>645</v>
+        <v>237</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>646</v>
+        <v>238</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>657</v>
+        <v>571</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>647</v>
+        <v>239</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>648</v>
+        <v>240</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>649</v>
+        <v>241</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>658</v>
+        <v>572</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>650</v>
+        <v>242</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>651</v>
+        <v>243</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>652</v>
+        <v>244</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>659</v>
+        <v>573</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>653</v>
+        <v>245</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>654</v>
+        <v>246</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>660</v>
+        <v>640</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>667</v>
+        <v>641</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>664</v>
+        <v>224</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>665</v>
+        <v>226</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>668</v>
+        <v>642</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>267</v>
+        <v>225</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>267</v>
+        <v>227</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="3" t="s">
-        <v>669</v>
-      </c>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="3"/>
       <c r="B106" s="3" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>64</v>
+        <v>263</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="3" t="s">
-        <v>670</v>
-      </c>
+      <c r="A107" s="3"/>
       <c r="B107" s="3" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="3" t="s">
-        <v>673</v>
-      </c>
+      <c r="A108" s="3"/>
       <c r="B108" s="3" t="s">
-        <v>671</v>
+        <v>252</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>671</v>
+        <v>256</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>672</v>
+        <v>259</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="3"/>
       <c r="B109" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="3"/>
+      <c r="B121" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C121" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="D109" s="3" t="s">
+      <c r="D121" s="3" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="3"/>
-      <c r="B110" s="2" t="s">
+    <row r="122" spans="1:4" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="3"/>
+      <c r="B122" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C110" s="7" t="s">
+      <c r="C122" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="C127" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="D110" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>681</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>679</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="D114" s="3" t="s">
+      <c r="D127" s="3" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="115" spans="1:4" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="3" t="s">
+    <row r="128" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="3"/>
+      <c r="B129" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="3"/>
+      <c r="B130" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="B115" s="3" t="s">
-        <v>680</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>685</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="3" t="s">
+      <c r="B131" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="B116" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="3"/>
-      <c r="B117" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="3"/>
-      <c r="B118" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="3" t="s">
-        <v>695</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="3" t="s">
-        <v>710</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="3" t="s">
-        <v>662</v>
-      </c>
-      <c r="B121" s="3" t="s">
+      <c r="B133" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C133" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="D121" s="3" t="s">
+      <c r="D133" s="3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="B122" s="3" t="s">
+    <row r="134" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="B134" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C134" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="D122" s="3" t="s">
+      <c r="D134" s="3" t="s">
         <v>294</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="3" t="s">
-        <v>698</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="3" t="s">
-        <v>699</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="3" t="s">
-        <v>701</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="3" t="s">
-        <v>702</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="3" t="s">
-        <v>703</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="3" t="s">
-        <v>704</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="4" t="s">
-        <v>705</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="D132" s="4" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="4" t="s">
-        <v>706</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="D133" s="4" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>708</v>
+        <v>662</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>326</v>
+        <v>296</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>327</v>
+        <v>297</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>709</v>
+        <v>695</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>328</v>
+        <v>298</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>329</v>
+        <v>299</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
-        <v>581</v>
+        <v>696</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>575</v>
+        <v>301</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="D137" s="7" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>582</v>
+        <v>697</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>576</v>
+        <v>304</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="D138" s="7" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>600</v>
+        <v>698</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
-        <v>601</v>
+        <v>700</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>333</v>
+        <v>310</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>599</v>
+        <v>701</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
-        <v>602</v>
+        <v>702</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="D142" s="7" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
-        <v>603</v>
+        <v>703</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="D143" s="7" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="B144" s="7" t="s">
-        <v>592</v>
-      </c>
-      <c r="C144" s="7" t="s">
-        <v>591</v>
-      </c>
-      <c r="D144" s="7" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="B145" s="7" t="s">
-        <v>583</v>
-      </c>
-      <c r="C145" s="7" t="s">
-        <v>586</v>
-      </c>
-      <c r="D145" s="7" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
-        <v>596</v>
-      </c>
-      <c r="B146" s="7" t="s">
-        <v>584</v>
-      </c>
-      <c r="C146" s="7" t="s">
-        <v>593</v>
-      </c>
-      <c r="D146" s="7" t="s">
-        <v>589</v>
+        <v>706</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
-        <v>595</v>
-      </c>
-      <c r="B147" s="7" t="s">
-        <v>585</v>
-      </c>
-      <c r="C147" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="D147" s="7" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>707</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
-        <v>610</v>
-      </c>
-      <c r="B148" s="7" t="s">
-        <v>607</v>
-      </c>
-      <c r="C148" s="7" t="s">
-        <v>608</v>
-      </c>
-      <c r="D148" s="7" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>708</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
-        <v>634</v>
+        <v>580</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>621</v>
+        <v>574</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>622</v>
-      </c>
-      <c r="D149" s="3" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>576</v>
+      </c>
+      <c r="D149" s="7" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
-        <v>635</v>
+        <v>581</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>624</v>
+        <v>575</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>577</v>
+      </c>
+      <c r="D150" s="7" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
-        <v>636</v>
+        <v>599</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>627</v>
+        <v>331</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>632</v>
+        <v>332</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>614</v>
+        <v>339</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="D154" s="3" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>340</v>
+      </c>
+      <c r="D154" s="7" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="D155" s="3" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>343</v>
+      </c>
+      <c r="D155" s="7" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="D156" s="7" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="D157" s="7" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="D158" s="7" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="D159" s="7" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="B160" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="B156" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="C156" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="D156" s="3" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="D157" s="3" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="D158" s="3" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="3"/>
-      <c r="B159" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="D159" s="3" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="3" t="s">
-        <v>618</v>
-      </c>
-      <c r="B160" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>629</v>
-      </c>
-      <c r="D160" s="3" t="s">
-        <v>364</v>
+      <c r="C160" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="D160" s="7" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
-        <v>619</v>
+        <v>633</v>
       </c>
       <c r="B161" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="C163" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="C161" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="D161" s="3" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="B162" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="C162" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="D162" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="3"/>
-      <c r="B163" s="3" t="s">
+      <c r="D163" s="3" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="B167" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="C163" s="3" t="s">
+      <c r="C167" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="D163" s="3" t="s">
+      <c r="D167" s="3" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="3" t="s">
-        <v>725</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="C164" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="D164" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="3"/>
-      <c r="B165" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="C165" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="D165" s="7" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="3" t="s">
-        <v>726</v>
-      </c>
-      <c r="B166" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="C166" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="D166" s="3" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="3"/>
-      <c r="B167" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="C167" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="D167" s="7" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
-        <v>727</v>
+        <v>605</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>381</v>
+        <v>355</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>382</v>
+        <v>356</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>383</v>
+        <v>357</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="3"/>
+      <c r="A169" s="3" t="s">
+        <v>615</v>
+      </c>
       <c r="B169" s="3" t="s">
-        <v>384</v>
+        <v>358</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>385</v>
+        <v>359</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
-        <v>728</v>
+        <v>616</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>388</v>
+        <v>362</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="3"/>
       <c r="B171" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="C171" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="D171" s="7" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>352</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
-        <v>729</v>
+        <v>617</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>393</v>
+        <v>627</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>394</v>
+        <v>628</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="3"/>
-      <c r="B173" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="C173" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="D173" s="7" t="s">
-        <v>483</v>
+        <v>364</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
-        <v>730</v>
-      </c>
-      <c r="B174" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="C174" s="7" t="s">
-        <v>399</v>
+        <v>619</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>367</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>400</v>
+        <v>368</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="3"/>
       <c r="B175" s="3" t="s">
-        <v>401</v>
+        <v>352</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>402</v>
+        <v>353</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>403</v>
+        <v>354</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>404</v>
+        <v>369</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>405</v>
+        <v>370</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="3"/>
-      <c r="B177" s="3" t="s">
+      <c r="B177" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="D177" s="7" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="3"/>
+      <c r="B179" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C179" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="D179" s="7" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="3"/>
+      <c r="B181" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="C177" s="3" t="s">
+      <c r="C181" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="D177" s="3" t="s">
+      <c r="D181" s="3" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="3" t="s">
-        <v>732</v>
-      </c>
-      <c r="B178" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="C178" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="D178" s="3" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" ht="122.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="3"/>
-      <c r="B179" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="C179" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="D179" s="7" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="3" t="s">
-        <v>733</v>
-      </c>
-      <c r="B180" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="C180" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="D180" s="3" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="3"/>
-      <c r="B181" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="C181" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="D181" s="7" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>417</v>
+        <v>387</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>418</v>
+        <v>388</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="3"/>
       <c r="B183" s="3" t="s">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>421</v>
+        <v>391</v>
       </c>
       <c r="D183" s="7" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>424</v>
+        <v>394</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="3"/>
       <c r="B185" s="7" t="s">
-        <v>426</v>
+        <v>396</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>427</v>
+        <v>397</v>
       </c>
       <c r="D185" s="7" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
-        <v>736</v>
-      </c>
-      <c r="B186" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="C186" s="3" t="s">
-        <v>429</v>
+        <v>729</v>
+      </c>
+      <c r="B186" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="C186" s="7" t="s">
+        <v>399</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="3"/>
-      <c r="B187" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="C187" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="D187" s="7" t="s">
-        <v>638</v>
+      <c r="B187" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>433</v>
+        <v>404</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>434</v>
+        <v>405</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="3"/>
-      <c r="B189" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="C189" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="D189" s="7" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="3"/>
-      <c r="B190" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="C190" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="D190" s="7" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B189" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="122.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="3"/>
       <c r="B191" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="D191" s="7" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="3"/>
+      <c r="B193" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="D193" s="7" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="3"/>
+      <c r="B195" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="C195" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="D195" s="7" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="3"/>
+      <c r="B197" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="C197" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="D197" s="7" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="3"/>
+      <c r="B199" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="C199" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="D199" s="7" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="3"/>
+      <c r="B201" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="C201" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="D201" s="7" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="3"/>
+      <c r="B202" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="D202" s="7" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A203" s="3"/>
+      <c r="B203" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="C191" s="7" t="s">
+      <c r="C203" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="D191" s="7" t="s">
+      <c r="D203" s="7" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="3" t="s">
+    <row r="204" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="B192" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="C192" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="D192" s="3" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="3" t="s">
+      <c r="B205" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="B193" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="C193" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="D193" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="3" t="s">
+      <c r="B206" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="B194" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="C194" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="D194" s="3" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="3" t="s">
+      <c r="B207" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A208" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="B195" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="C195" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="D195" s="3" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="3" t="s">
+      <c r="B208" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A209" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="B196" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="C196" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="D196" s="3" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="3" t="s">
+      <c r="B209" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="B197" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="C197" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="D197" s="3" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="3" t="s">
+      <c r="B210" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="B198" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="C198" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="D198" s="3" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="3" t="s">
+      <c r="B211" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="B199" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="C199" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="D199" s="3" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="3" t="s">
+      <c r="B212" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="D213" s="3"/>
+    </row>
+    <row r="214" spans="1:4" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="B214" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="C214" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="D214" s="7" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A215" s="3" t="s">
         <v>720</v>
       </c>
-      <c r="B200" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="C200" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="D200" s="3" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="3" t="s">
-        <v>723</v>
-      </c>
-      <c r="B201" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="C201" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="D201" s="3"/>
-    </row>
-    <row r="202" spans="1:4" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="B202" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="C202" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="D202" s="7" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="3" t="s">
+      <c r="B215" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="131.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A216" s="3" t="s">
         <v>721</v>
       </c>
-      <c r="B203" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="C203" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="D203" s="3" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" ht="131.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="3" t="s">
-        <v>722</v>
-      </c>
-      <c r="B204" s="7" t="s">
+      <c r="B216" s="7" t="s">
+        <v>737</v>
+      </c>
+      <c r="C216" s="7" t="s">
+        <v>739</v>
+      </c>
+      <c r="D216" s="7" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" s="8" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B217" s="9" t="s">
         <v>738</v>
       </c>
-      <c r="C204" s="7" t="s">
+      <c r="C217" s="10" t="s">
         <v>740</v>
       </c>
-      <c r="D204" s="7" t="s">
+      <c r="D217" s="9" t="s">
         <v>742</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" s="8" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B205" s="9" t="s">
-        <v>739</v>
-      </c>
-      <c r="C205" s="10" t="s">
-        <v>741</v>
-      </c>
-      <c r="D205" s="9" t="s">
-        <v>743</v>
       </c>
     </row>
   </sheetData>

--- a/IdensolApp/Assets/Resources/ExcelFiles/MultiLanguage.xlsx
+++ b/IdensolApp/Assets/Resources/ExcelFiles/MultiLanguage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Elliot\Idensol\IdensolApp\IdensolApp\Assets\Resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A789621E-C174-4801-BD55-A202DC18A829}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0EAABC6-1AEA-465F-9F55-A7FB8FC30CC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4344,8 +4344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C126" sqref="C126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/IdensolApp/Assets/Resources/ExcelFiles/MultiLanguage.xlsx
+++ b/IdensolApp/Assets/Resources/ExcelFiles/MultiLanguage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Elliot\Idensol\IdensolApp\IdensolApp\Assets\Resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0EAABC6-1AEA-465F-9F55-A7FB8FC30CC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7C8226-E5D6-4F7C-B910-26B79D27449B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="799">
   <si>
     <t>id</t>
   </si>
@@ -2946,10 +2946,6 @@
   </si>
   <si>
     <t>我要使用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>I want to use</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -4344,8 +4340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C126" sqref="C126"/>
+    <sheetView tabSelected="1" topLeftCell="C115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4493,30 +4489,30 @@
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>747</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="C11" s="11" t="s">
         <v>748</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="D11" s="3" t="s">
         <v>749</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>745</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4731,114 +4727,114 @@
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>752</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>776</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>777</v>
-      </c>
       <c r="D34" s="3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>778</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>779</v>
-      </c>
       <c r="D35" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4871,7 +4867,7 @@
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>116</v>
@@ -5417,58 +5413,58 @@
     </row>
     <row r="77" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B80" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>784</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="D80" s="3" t="s">
         <v>785</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6041,7 +6037,7 @@
         <v>254</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>93</v>
@@ -6049,7 +6045,7 @@
     </row>
     <row r="123" spans="1:4" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>674</v>
@@ -6057,64 +6053,62 @@
       <c r="C123" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="D123" s="3" t="s">
-        <v>675</v>
-      </c>
+      <c r="D123" s="3"/>
     </row>
     <row r="124" spans="1:4" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="125" spans="1:4" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="B125" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="B125" s="3" t="s">
-        <v>691</v>
-      </c>
       <c r="C125" s="3" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="126" spans="1:4" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="127" spans="1:4" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6157,7 +6151,7 @@
     </row>
     <row r="131" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>286</v>
@@ -6171,7 +6165,7 @@
     </row>
     <row r="132" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>287</v>
@@ -6227,7 +6221,7 @@
     </row>
     <row r="136" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>298</v>
@@ -6241,7 +6235,7 @@
     </row>
     <row r="137" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>301</v>
@@ -6255,7 +6249,7 @@
     </row>
     <row r="138" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>304</v>
@@ -6269,7 +6263,7 @@
     </row>
     <row r="139" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>307</v>
@@ -6283,7 +6277,7 @@
     </row>
     <row r="140" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>310</v>
@@ -6292,12 +6286,12 @@
         <v>311</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>312</v>
@@ -6311,7 +6305,7 @@
     </row>
     <row r="142" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>315</v>
@@ -6325,7 +6319,7 @@
     </row>
     <row r="143" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>318</v>
@@ -6339,7 +6333,7 @@
     </row>
     <row r="144" spans="1:4" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B144" s="5" t="s">
         <v>478</v>
@@ -6353,7 +6347,7 @@
     </row>
     <row r="145" spans="1:4" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>481</v>
@@ -6367,7 +6361,7 @@
     </row>
     <row r="146" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>322</v>
@@ -6381,7 +6375,7 @@
     </row>
     <row r="147" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>325</v>
@@ -6395,7 +6389,7 @@
     </row>
     <row r="148" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>328</v>
@@ -6446,7 +6440,7 @@
         <v>332</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -6783,7 +6777,7 @@
     </row>
     <row r="176" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>369</v>
@@ -6809,7 +6803,7 @@
     </row>
     <row r="178" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>375</v>
@@ -6835,7 +6829,7 @@
     </row>
     <row r="180" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>381</v>
@@ -6861,7 +6855,7 @@
     </row>
     <row r="182" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>387</v>
@@ -6887,7 +6881,7 @@
     </row>
     <row r="184" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>393</v>
@@ -6913,7 +6907,7 @@
     </row>
     <row r="186" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B186" s="7" t="s">
         <v>398</v>
@@ -6939,7 +6933,7 @@
     </row>
     <row r="188" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>404</v>
@@ -6965,7 +6959,7 @@
     </row>
     <row r="190" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>407</v>
@@ -6991,7 +6985,7 @@
     </row>
     <row r="192" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>412</v>
@@ -7017,7 +7011,7 @@
     </row>
     <row r="194" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>417</v>
@@ -7043,7 +7037,7 @@
     </row>
     <row r="196" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>423</v>
@@ -7069,7 +7063,7 @@
     </row>
     <row r="198" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>428</v>
@@ -7095,7 +7089,7 @@
     </row>
     <row r="200" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>433</v>
@@ -7145,7 +7139,7 @@
     </row>
     <row r="204" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>445</v>
@@ -7154,12 +7148,12 @@
         <v>446</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>447</v>
@@ -7173,7 +7167,7 @@
     </row>
     <row r="206" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>450</v>
@@ -7187,7 +7181,7 @@
     </row>
     <row r="207" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>453</v>
@@ -7201,7 +7195,7 @@
     </row>
     <row r="208" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>455</v>
@@ -7215,7 +7209,7 @@
     </row>
     <row r="209" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>458</v>
@@ -7229,7 +7223,7 @@
     </row>
     <row r="210" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>461</v>
@@ -7243,7 +7237,7 @@
     </row>
     <row r="211" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>464</v>
@@ -7257,7 +7251,7 @@
     </row>
     <row r="212" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>467</v>
@@ -7271,7 +7265,7 @@
     </row>
     <row r="213" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>470</v>
@@ -7283,7 +7277,7 @@
     </row>
     <row r="214" spans="1:4" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B214" s="7" t="s">
         <v>472</v>
@@ -7297,7 +7291,7 @@
     </row>
     <row r="215" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>475</v>
@@ -7311,27 +7305,27 @@
     </row>
     <row r="216" spans="1:4" ht="131.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C216" s="7" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D216" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="217" spans="1:4" s="8" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B217" s="9" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C217" s="10" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D217" s="9" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
   </sheetData>

--- a/IdensolApp/Assets/Resources/ExcelFiles/MultiLanguage.xlsx
+++ b/IdensolApp/Assets/Resources/ExcelFiles/MultiLanguage.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Elliot\Idensol\IdensolApp\IdensolApp\Assets\Resources\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\IdensolApp\IdensolApp\Assets\Resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7C8226-E5D6-4F7C-B910-26B79D27449B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811AE47D-95EC-40A9-A676-EB7695BD9062}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3045" yWindow="1440" windowWidth="34365" windowHeight="18150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="muitiLang" sheetId="1" r:id="rId1"/>
@@ -2001,14 +2001,6 @@
     <t>Hose isn't connected properly.
 1.Make sure hose is connected.
 2.Press the RESET and HOME button to continue the action.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>總公司</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总公司</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3602,6 +3594,14 @@
   </si>
   <si>
     <t>CAM-Prosthetic Planning-Zirconia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>總    公    司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总    公    司</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4340,8 +4340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C115" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D123" sqref="D123"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4377,44 +4377,44 @@
     </row>
     <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>484</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>488</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4433,7 +4433,7 @@
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>65</v>
@@ -4447,7 +4447,7 @@
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>68</v>
@@ -4475,7 +4475,7 @@
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>73</v>
@@ -4489,30 +4489,30 @@
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>745</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>746</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="D11" s="3" t="s">
         <v>747</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>748</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>743</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>744</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4601,7 +4601,7 @@
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>94</v>
@@ -4615,7 +4615,7 @@
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>97</v>
@@ -4629,7 +4629,7 @@
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>100</v>
@@ -4643,7 +4643,7 @@
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>102</v>
@@ -4657,7 +4657,7 @@
     </row>
     <row r="23" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>105</v>
@@ -4666,12 +4666,12 @@
         <v>106</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>107</v>
@@ -4685,7 +4685,7 @@
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>110</v>
@@ -4699,7 +4699,7 @@
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>112</v>
@@ -4713,147 +4713,147 @@
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C35" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>778</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>506</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>113</v>
@@ -4867,7 +4867,7 @@
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>116</v>
@@ -4881,7 +4881,7 @@
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>119</v>
@@ -4895,7 +4895,7 @@
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>122</v>
@@ -4909,7 +4909,7 @@
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>125</v>
@@ -4923,7 +4923,7 @@
     </row>
     <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>126</v>
@@ -4937,7 +4937,7 @@
     </row>
     <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>129</v>
@@ -4951,7 +4951,7 @@
     </row>
     <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>132</v>
@@ -4965,7 +4965,7 @@
     </row>
     <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>135</v>
@@ -4979,7 +4979,7 @@
     </row>
     <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>138</v>
@@ -4993,7 +4993,7 @@
     </row>
     <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>141</v>
@@ -5007,7 +5007,7 @@
     </row>
     <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>144</v>
@@ -5021,7 +5021,7 @@
     </row>
     <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>129</v>
@@ -5035,7 +5035,7 @@
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>132</v>
@@ -5049,7 +5049,7 @@
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>135</v>
@@ -5063,7 +5063,7 @@
     </row>
     <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>138</v>
@@ -5077,7 +5077,7 @@
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>147</v>
@@ -5091,7 +5091,7 @@
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>150</v>
@@ -5105,7 +5105,7 @@
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>129</v>
@@ -5119,7 +5119,7 @@
     </row>
     <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>132</v>
@@ -5133,7 +5133,7 @@
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>135</v>
@@ -5147,7 +5147,7 @@
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>138</v>
@@ -5161,7 +5161,7 @@
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>153</v>
@@ -5175,7 +5175,7 @@
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>156</v>
@@ -5189,7 +5189,7 @@
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>129</v>
@@ -5203,7 +5203,7 @@
     </row>
     <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>132</v>
@@ -5217,7 +5217,7 @@
     </row>
     <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>135</v>
@@ -5231,7 +5231,7 @@
     </row>
     <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>138</v>
@@ -5245,7 +5245,7 @@
     </row>
     <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>159</v>
@@ -5259,7 +5259,7 @@
     </row>
     <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>162</v>
@@ -5273,7 +5273,7 @@
     </row>
     <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>165</v>
@@ -5287,7 +5287,7 @@
     </row>
     <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>168</v>
@@ -5301,7 +5301,7 @@
     </row>
     <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>171</v>
@@ -5315,7 +5315,7 @@
     </row>
     <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>174</v>
@@ -5329,7 +5329,7 @@
     </row>
     <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>176</v>
@@ -5343,7 +5343,7 @@
     </row>
     <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>179</v>
@@ -5357,7 +5357,7 @@
     </row>
     <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>182</v>
@@ -5371,7 +5371,7 @@
     </row>
     <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>184</v>
@@ -5385,7 +5385,7 @@
     </row>
     <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>187</v>
@@ -5399,7 +5399,7 @@
     </row>
     <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>125</v>
@@ -5413,63 +5413,63 @@
     </row>
     <row r="77" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="D79" s="3" t="s">
         <v>794</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>791</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>790</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B80" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="D80" s="3" t="s">
         <v>783</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>784</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>189</v>
@@ -5483,7 +5483,7 @@
     </row>
     <row r="82" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>191</v>
@@ -5497,7 +5497,7 @@
     </row>
     <row r="83" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>194</v>
@@ -5511,7 +5511,7 @@
     </row>
     <row r="84" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>197</v>
@@ -5525,7 +5525,7 @@
     </row>
     <row r="85" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>200</v>
@@ -5539,7 +5539,7 @@
     </row>
     <row r="86" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>203</v>
@@ -5553,7 +5553,7 @@
     </row>
     <row r="87" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>206</v>
@@ -5567,7 +5567,7 @@
     </row>
     <row r="88" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>191</v>
@@ -5581,7 +5581,7 @@
     </row>
     <row r="89" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>194</v>
@@ -5595,7 +5595,7 @@
     </row>
     <row r="90" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>197</v>
@@ -5609,7 +5609,7 @@
     </row>
     <row r="91" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>200</v>
@@ -5623,7 +5623,7 @@
     </row>
     <row r="92" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>203</v>
@@ -5637,7 +5637,7 @@
     </row>
     <row r="93" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>208</v>
@@ -5651,7 +5651,7 @@
     </row>
     <row r="94" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>191</v>
@@ -5665,7 +5665,7 @@
     </row>
     <row r="95" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>210</v>
@@ -5679,7 +5679,7 @@
     </row>
     <row r="96" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>213</v>
@@ -5693,7 +5693,7 @@
     </row>
     <row r="97" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>230</v>
@@ -5707,7 +5707,7 @@
     </row>
     <row r="98" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>233</v>
@@ -5721,7 +5721,7 @@
     </row>
     <row r="99" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>236</v>
@@ -5735,7 +5735,7 @@
     </row>
     <row r="100" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>239</v>
@@ -5749,7 +5749,7 @@
     </row>
     <row r="101" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>242</v>
@@ -5763,7 +5763,7 @@
     </row>
     <row r="102" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>245</v>
@@ -5777,7 +5777,7 @@
     </row>
     <row r="103" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>248</v>
@@ -5791,7 +5791,7 @@
     </row>
     <row r="104" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>224</v>
@@ -5805,7 +5805,7 @@
     </row>
     <row r="105" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>225</v>
@@ -5867,7 +5867,7 @@
     </row>
     <row r="110" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>254</v>
@@ -5881,63 +5881,63 @@
     </row>
     <row r="111" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B111" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="D111" s="3" t="s">
         <v>643</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B112" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="D112" s="3" t="s">
         <v>646</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B113" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="D113" s="3" t="s">
         <v>649</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B114" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="D114" s="3" t="s">
         <v>652</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>264</v>
@@ -5951,21 +5951,21 @@
     </row>
     <row r="116" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B116" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="D116" s="3" t="s">
         <v>663</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>664</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>267</v>
@@ -5979,7 +5979,7 @@
     </row>
     <row r="118" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>269</v>
@@ -5993,7 +5993,7 @@
     </row>
     <row r="119" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>271</v>
@@ -6007,16 +6007,16 @@
     </row>
     <row r="120" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6037,7 +6037,7 @@
         <v>254</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>93</v>
@@ -6045,75 +6045,75 @@
     </row>
     <row r="123" spans="1:4" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D123" s="3"/>
     </row>
     <row r="124" spans="1:4" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="125" spans="1:4" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="126" spans="1:4" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="127" spans="1:4" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>277</v>
@@ -6151,7 +6151,7 @@
     </row>
     <row r="131" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>286</v>
@@ -6165,7 +6165,7 @@
     </row>
     <row r="132" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>287</v>
@@ -6179,7 +6179,7 @@
     </row>
     <row r="133" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>290</v>
@@ -6193,7 +6193,7 @@
     </row>
     <row r="134" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>293</v>
@@ -6207,7 +6207,7 @@
     </row>
     <row r="135" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>295</v>
@@ -6221,7 +6221,7 @@
     </row>
     <row r="136" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>298</v>
@@ -6235,7 +6235,7 @@
     </row>
     <row r="137" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>301</v>
@@ -6249,7 +6249,7 @@
     </row>
     <row r="138" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>304</v>
@@ -6263,7 +6263,7 @@
     </row>
     <row r="139" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>307</v>
@@ -6277,7 +6277,7 @@
     </row>
     <row r="140" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>310</v>
@@ -6286,12 +6286,12 @@
         <v>311</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>312</v>
@@ -6305,7 +6305,7 @@
     </row>
     <row r="142" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>315</v>
@@ -6319,7 +6319,7 @@
     </row>
     <row r="143" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>318</v>
@@ -6333,27 +6333,27 @@
     </row>
     <row r="144" spans="1:4" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="145" spans="1:4" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D145" s="4" t="s">
         <v>321</v>
@@ -6361,7 +6361,7 @@
     </row>
     <row r="146" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>322</v>
@@ -6375,7 +6375,7 @@
     </row>
     <row r="147" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>325</v>
@@ -6389,7 +6389,7 @@
     </row>
     <row r="148" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>328</v>
@@ -6403,35 +6403,35 @@
     </row>
     <row r="149" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B149" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="C149" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="C149" s="3" t="s">
+      <c r="D149" s="7" t="s">
         <v>576</v>
-      </c>
-      <c r="D149" s="7" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B150" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="C150" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="C150" s="3" t="s">
+      <c r="D150" s="7" t="s">
         <v>577</v>
-      </c>
-      <c r="D150" s="7" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>331</v>
@@ -6440,12 +6440,12 @@
         <v>332</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>333</v>
@@ -6459,7 +6459,7 @@
     </row>
     <row r="153" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>336</v>
@@ -6473,7 +6473,7 @@
     </row>
     <row r="154" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>339</v>
@@ -6487,7 +6487,7 @@
     </row>
     <row r="155" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>342</v>
@@ -6501,119 +6501,119 @@
     </row>
     <row r="156" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C157" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="D157" s="7" t="s">
         <v>585</v>
-      </c>
-      <c r="D157" s="7" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B159" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="C159" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="C159" s="7" t="s">
-        <v>586</v>
-      </c>
       <c r="D159" s="7" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B160" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="D160" s="7" t="s">
         <v>606</v>
-      </c>
-      <c r="C160" s="7" t="s">
-        <v>607</v>
-      </c>
-      <c r="D160" s="7" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B161" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="D161" s="3" t="s">
         <v>620</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="D161" s="3" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B162" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="D162" s="3" t="s">
         <v>623</v>
-      </c>
-      <c r="C162" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="D162" s="3" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>345</v>
@@ -6627,7 +6627,7 @@
     </row>
     <row r="165" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>348</v>
@@ -6641,13 +6641,13 @@
     </row>
     <row r="166" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="C166" s="3" t="s">
         <v>612</v>
-      </c>
-      <c r="B166" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="C166" s="3" t="s">
-        <v>614</v>
       </c>
       <c r="D166" s="3" t="s">
         <v>351</v>
@@ -6655,7 +6655,7 @@
     </row>
     <row r="167" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>352</v>
@@ -6669,7 +6669,7 @@
     </row>
     <row r="168" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>355</v>
@@ -6683,7 +6683,7 @@
     </row>
     <row r="169" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>358</v>
@@ -6697,7 +6697,7 @@
     </row>
     <row r="170" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>361</v>
@@ -6723,13 +6723,13 @@
     </row>
     <row r="172" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D172" s="3" t="s">
         <v>364</v>
@@ -6737,13 +6737,13 @@
     </row>
     <row r="173" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D173" s="3" t="s">
         <v>365</v>
@@ -6751,7 +6751,7 @@
     </row>
     <row r="174" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>366</v>
@@ -6777,7 +6777,7 @@
     </row>
     <row r="176" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>369</v>
@@ -6803,7 +6803,7 @@
     </row>
     <row r="178" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>375</v>
@@ -6829,7 +6829,7 @@
     </row>
     <row r="180" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>381</v>
@@ -6855,7 +6855,7 @@
     </row>
     <row r="182" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>387</v>
@@ -6881,7 +6881,7 @@
     </row>
     <row r="184" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>393</v>
@@ -6902,12 +6902,12 @@
         <v>397</v>
       </c>
       <c r="D185" s="7" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B186" s="7" t="s">
         <v>398</v>
@@ -6933,7 +6933,7 @@
     </row>
     <row r="188" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>404</v>
@@ -6959,7 +6959,7 @@
     </row>
     <row r="190" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>407</v>
@@ -6980,12 +6980,12 @@
         <v>411</v>
       </c>
       <c r="D191" s="7" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>412</v>
@@ -7006,12 +7006,12 @@
         <v>416</v>
       </c>
       <c r="D193" s="7" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>417</v>
@@ -7037,7 +7037,7 @@
     </row>
     <row r="196" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>423</v>
@@ -7058,12 +7058,12 @@
         <v>427</v>
       </c>
       <c r="D197" s="7" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>428</v>
@@ -7084,12 +7084,12 @@
         <v>432</v>
       </c>
       <c r="D199" s="7" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>433</v>
@@ -7139,193 +7139,193 @@
     </row>
     <row r="204" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>445</v>
+        <v>797</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>446</v>
+        <v>798</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B205" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="D205" s="3" t="s">
         <v>447</v>
-      </c>
-      <c r="C205" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="D205" s="3" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B206" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="D206" s="3" t="s">
         <v>450</v>
-      </c>
-      <c r="C206" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="D206" s="3" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B208" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="D208" s="3" t="s">
         <v>455</v>
-      </c>
-      <c r="C208" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="D208" s="3" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B209" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="D209" s="3" t="s">
         <v>458</v>
-      </c>
-      <c r="C209" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="D209" s="3" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B210" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="D210" s="3" t="s">
         <v>461</v>
-      </c>
-      <c r="C210" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="D210" s="3" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B211" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="D211" s="3" t="s">
         <v>464</v>
-      </c>
-      <c r="C211" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="D211" s="3" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B212" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="D212" s="3" t="s">
         <v>467</v>
-      </c>
-      <c r="C212" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="D212" s="3" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D213" s="3"/>
     </row>
     <row r="214" spans="1:4" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B214" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="C214" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="D214" s="7" t="s">
         <v>472</v>
-      </c>
-      <c r="C214" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="D214" s="7" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B215" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="D215" s="3" t="s">
         <v>475</v>
-      </c>
-      <c r="C215" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="D215" s="3" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="131.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B216" s="7" t="s">
+        <v>734</v>
+      </c>
+      <c r="C216" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="C216" s="7" t="s">
+      <c r="D216" s="7" t="s">
         <v>738</v>
-      </c>
-      <c r="D216" s="7" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="217" spans="1:4" s="8" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B217" s="9" t="s">
+        <v>735</v>
+      </c>
+      <c r="C217" s="10" t="s">
         <v>737</v>
       </c>
-      <c r="C217" s="10" t="s">
+      <c r="D217" s="9" t="s">
         <v>739</v>
-      </c>
-      <c r="D217" s="9" t="s">
-        <v>741</v>
       </c>
     </row>
   </sheetData>

--- a/IdensolApp/Assets/Resources/ExcelFiles/MultiLanguage.xlsx
+++ b/IdensolApp/Assets/Resources/ExcelFiles/MultiLanguage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\IdensolApp\IdensolApp\Assets\Resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811AE47D-95EC-40A9-A676-EB7695BD9062}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B54A76-F429-41FE-AA79-D8E341E6CBED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3045" yWindow="1440" windowWidth="34365" windowHeight="18150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3735" yWindow="2130" windowWidth="34365" windowHeight="18150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="muitiLang" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="809">
   <si>
     <t>id</t>
   </si>
@@ -458,58 +458,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Step1 數位取模</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step1 数位取模</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step1 Digital Scanning</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step2 CAD假牙設計</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step2 CAD假牙设计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step2 CAD-Prosthetic Design</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step3 CAM假牙排版</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step3 CAM-Prosthetic Planning</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step4 齒雕機加工</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step4 齿雕机加工</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step4  Milling</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step5 燒結烤瓷</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step5 烧结烤瓷</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>看設計步驟</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -586,238 +534,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>創建基底冠訂單</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建基底冠订单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Create a order for copping</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>定義咬合平面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>定义咬合平面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Define occlusal plane</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>放置注釋與插入方向</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>放置注释与插入方向</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Optimize directions</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>抓取邊緣線</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>抓取边缘线</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edit margin line</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>調整代型接口</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>调整代型接口</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Set interfaces</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>設計基底冠</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计基底冠</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Copping design</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>創建解剖冠訂單</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建解剖冠订单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Create a order for crown</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>設計解剖冠</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计解剖冠</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Anatomy design</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>創建嵌體訂單</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建嵌体订单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Create a order for Inlay</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>設計嵌體</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计嵌体</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inlay/Onlay design</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>創建貼面訂單</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建贴面订单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Create a order for veneer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>設計貼面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计贴面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Veneer design</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>創建基台訂單</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建基台订单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Defining job details</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>選擇個性化基台</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择个性化基台</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Set implant type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>掃描桿定位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>扫描杆定位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Detect implant position</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>設計下半部</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计下半部</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Generate abutment bottoms</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>放置插入方向</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Define insertion direction</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>core型態塑形</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>core型态塑形</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Abutment design</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>設計上半部</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计上半部</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Free-forming</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成基台</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Complete abutment design</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>氧化鋯</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -835,114 +551,6 @@
   </si>
   <si>
     <t>Glass Cermaic</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>創建氧化鋯項目</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建氧化锆项目</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>載入檔案</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>载入档案</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Import object</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>選擇料盤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择料盘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Choose materials</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>調整加工位置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>调整加工位置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Adjust milling position within material</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>調整支撐棒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>调整支撑棒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Move support pin</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>點選欲加工策略</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点选欲加工策略</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Choose milling strategy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>創建玻璃陶瓷項目</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建玻璃陶瓷项目</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>創建Premill項目</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建Premill项目</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>建立植體系統資料庫</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>建立植体系统数据库</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Building implant library</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>點選加工</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点选加工</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Click to mill</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2456,11 +2064,6 @@
   </si>
   <si>
     <t>Premill_Build</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step5 Sintering and
-Crystallization</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3604,12 +3207,448 @@
     <t>总    公    司</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>Digital CAD/CAM systems are no longer the most expensive equipment.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=30&gt;Step1&lt;/size&gt; &lt;b&gt;Digital Scanning&lt;/b&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=30&gt;Step2&lt;/size&gt; &lt;b&gt;CAD-Prosthetic Design&lt;/b&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=30&gt;Step4&lt;/size&gt;  &lt;b&gt;Milling&lt;/b&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=36&gt;Step1&lt;/size&gt; 數位取模</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=36&gt;Step2&lt;/size&gt; CAD假牙設計</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=36&gt;Step3&lt;/size&gt; CAM假牙排版</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=36&gt;Step4&lt;/size&gt; 齒雕機加工</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=36&gt;Step5&lt;/size&gt; 燒結烤瓷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=36&gt;Step1&lt;/size&gt; 数位取模</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=36&gt;Step2&lt;/size&gt; CAD假牙设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=36&gt;Step4&lt;/size&gt; 齿雕机加工</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=36&gt;Step5&lt;/size&gt; 烧结烤瓷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=38&gt;Step1&lt;/size&gt; 創建基底冠訂單</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=38&gt;Step2&lt;/size&gt; 定義咬合平面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=38&gt;Step4&lt;/size&gt; 抓取邊緣線</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=38&gt;Step3&lt;/size&gt; 放置注釋與插入方向</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=38&gt;Step6&lt;/size&gt; 設計基底冠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=38&gt;Step5&lt;/size&gt; 調整代型接口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=38&gt;Step1&lt;/size&gt; 创建基底冠订单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=38&gt;Step3&lt;/size&gt; 放置注释与插入方向</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=38&gt;Step2&lt;/size&gt; 定义咬合平面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=38&gt;Step4&lt;/size&gt; 抓取边缘线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=38&gt;Step5&lt;/size&gt; 调整代型接口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=38&gt;Step6&lt;/size&gt; 设计基底冠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=30&gt;Step1&lt;/size&gt; Create a order for copping</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=30&gt;Step2&lt;/size&gt; Define occlusal plane</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=30&gt;Step3&lt;/size&gt; Optimize directions</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=30&gt;Step4&lt;/size&gt; Edit margin line</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=30&gt;Step5&lt;/size&gt; Set interfaces</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=30&gt;Step6&lt;/size&gt; Copping design</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=38&gt;Step1&lt;/size&gt; 創建解剖冠訂單</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=38&gt;Step1&lt;/size&gt; 創建嵌體訂單</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=38&gt;Step1&lt;/size&gt; 創建貼面訂單</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=38&gt;Step1&lt;/size&gt; 創建基台訂單</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=38&gt;Step6&lt;/size&gt; 設計解剖冠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=38&gt;Step6&lt;/size&gt; 設計嵌體</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=38&gt;Step6&lt;/size&gt; 設計貼面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=38&gt;Step2&lt;/size&gt; 選擇個性化基台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=38&gt;Step3&lt;/size&gt; 掃描桿定位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=38&gt;Step4&lt;/size&gt; 設計下半部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=38&gt;Step5&lt;/size&gt; 放置插入方向</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=38&gt;Step6&lt;/size&gt; core型態塑形</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=38&gt;Step7&lt;/size&gt; 設計上半部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=38&gt;Step8&lt;/size&gt; 完成基台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=38&gt;Step1&lt;/size&gt; 创建解剖冠订单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=38&gt;Step1&lt;/size&gt; 创建嵌体订单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=38&gt;Step1&lt;/size&gt; 创建贴面订单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=38&gt;Step1&lt;/size&gt; 创建基台订单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=38&gt;Step6&lt;/size&gt; 设计解剖冠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=38&gt;Step6&lt;/size&gt; 设计嵌体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=38&gt;Step6&lt;/size&gt; 设计贴面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=38&gt;Step2&lt;/size&gt; 选择个性化基台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=38&gt;Step3&lt;/size&gt; 扫描杆定位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=38&gt;Step4&lt;/size&gt; 设计下半部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=38&gt;Step6&lt;/size&gt; core型态塑形</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=38&gt;Step7&lt;/size&gt; 设计上半部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=30&gt;Step1&lt;/size&gt; Create a order for crown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=30&gt;Step1&lt;/size&gt; Create a order for Inlay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=30&gt;Step1&lt;/size&gt; Create a order for veneer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=30&gt;Step1&lt;/size&gt; Defining job details</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=30&gt;Step6&lt;/size&gt; Anatomy design</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=30&gt;Step6&lt;/size&gt; Inlay/Onlay design</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=30&gt;Step6&lt;/size&gt; Veneer design</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=30&gt;Step2&lt;/size&gt; Set implant type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=30&gt;Step3&lt;/size&gt; Detect implant position</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=30&gt;Step4&lt;/size&gt; Generate abutment bottoms</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=30&gt;Step5&lt;/size&gt; Define insertion direction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=30&gt;Step6&lt;/size&gt; Abutment design</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=30&gt;Step7&lt;/size&gt; Free-forming</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=30&gt;Step8&lt;/size&gt; Complete abutment design</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Premill_Create</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Premill_DefineInsertion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=30&gt;Step3&lt;/size&gt; &lt;b&gt;CAM-Prosthetic Planning&lt;/b&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=30&gt;Step5&lt;/size&gt; &lt;b&gt;Sintering and Crystallization&lt;/b&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=38&gt;Step1&lt;/size&gt; 創建氧化鋯項目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=38&gt;Step1&lt;/size&gt; 創建玻璃陶瓷項目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=38&gt;Step1&lt;/size&gt; 創建Premill項目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=38&gt;Step2&lt;/size&gt; 載入檔案</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=38&gt;Step3&lt;/size&gt; 選擇料盤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=38&gt;Step4&lt;/size&gt; 調整加工位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=38&gt;Step5&lt;/size&gt; 調整支撐棒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=38&gt;Step6&lt;/size&gt; 點選欲加工策略</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=38&gt;Step3&lt;/size&gt; 建立植體系統資料庫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=38&gt;Step4&lt;/size&gt; 點選加工</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=38&gt;Step1&lt;/size&gt; 创建氧化锆项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=38&gt;Step1&lt;/size&gt; 创建玻璃陶瓷项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=38&gt;Step1&lt;/size&gt; 创建Premill项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=38&gt;Step2&lt;/size&gt; 载入档案</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=38&gt;Step3&lt;/size&gt; 选择料盘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=38&gt;Step4&lt;/size&gt; 调整加工位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=38&gt;Step5&lt;/size&gt; 调整支撑棒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=38&gt;Step6&lt;/size&gt; 点选欲加工策略</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=38&gt;Step3&lt;/size&gt; 建立植体系统数据库</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=38&gt;Step4&lt;/size&gt; 点选加工</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=30&gt;Step2&lt;/size&gt; Import object</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=30&gt;Step3&lt;/size&gt; Choose materials</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=30&gt;Step4&lt;/size&gt; Adjust milling position within material</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=30&gt;Step5&lt;/size&gt; Move support pin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=30&gt;Step6&lt;/size&gt; Choose milling strategy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=30&gt;Step3&lt;/size&gt; Building implant library</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=30&gt;Step4&lt;/size&gt; Click to mill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lobby_Animation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>動態</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Animate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lobby_Model</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3674,6 +3713,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3696,7 +3749,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -3725,6 +3778,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -4338,10 +4394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D217"/>
+  <dimension ref="A1:D219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A209" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B222" sqref="B222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4377,49 +4433,49 @@
     </row>
     <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>485</v>
+        <v>387</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>482</v>
+        <v>384</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>483</v>
+        <v>385</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>484</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>486</v>
+        <v>388</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>487</v>
+        <v>389</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>487</v>
+        <v>389</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>488</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>491</v>
+        <v>393</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>489</v>
+        <v>391</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>503</v>
+        <v>405</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>490</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>220</v>
+        <v>122</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>62</v>
@@ -4433,7 +4489,7 @@
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>492</v>
+        <v>394</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>65</v>
@@ -4447,7 +4503,7 @@
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>493</v>
+        <v>395</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>68</v>
@@ -4461,7 +4517,7 @@
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>221</v>
+        <v>123</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>70</v>
@@ -4475,7 +4531,7 @@
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>494</v>
+        <v>396</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>73</v>
@@ -4489,35 +4545,35 @@
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>744</v>
+        <v>645</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>745</v>
+        <v>646</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>746</v>
+        <v>647</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>747</v>
+        <v>648</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>740</v>
+        <v>641</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>741</v>
+        <v>642</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>742</v>
+        <v>643</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>743</v>
+        <v>644</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>216</v>
+        <v>118</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>76</v>
@@ -4531,7 +4587,7 @@
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>217</v>
+        <v>119</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>79</v>
@@ -4545,7 +4601,7 @@
     </row>
     <row r="15" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>218</v>
+        <v>120</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>82</v>
@@ -4559,7 +4615,7 @@
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>219</v>
+        <v>121</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>85</v>
@@ -4573,7 +4629,7 @@
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>223</v>
+        <v>125</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>88</v>
@@ -4587,7 +4643,7 @@
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>222</v>
+        <v>124</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>91</v>
@@ -4601,1279 +4657,1279 @@
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>495</v>
+        <v>397</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>94</v>
+        <v>704</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>95</v>
+        <v>709</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>96</v>
+        <v>701</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>496</v>
+        <v>398</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>97</v>
+        <v>705</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>98</v>
+        <v>710</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>99</v>
+        <v>702</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>497</v>
+        <v>399</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>100</v>
+        <v>706</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>101</v>
+        <v>706</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>498</v>
+        <v>400</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>102</v>
+        <v>707</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>103</v>
+        <v>711</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>104</v>
+        <v>703</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>499</v>
+        <v>401</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>105</v>
+        <v>708</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>106</v>
+        <v>712</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>558</v>
+        <v>774</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>500</v>
+        <v>402</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>501</v>
+        <v>403</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>502</v>
+        <v>404</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>511</v>
+        <v>413</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>509</v>
+        <v>411</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>510</v>
+        <v>412</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>508</v>
+        <v>410</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>751</v>
+        <v>652</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>749</v>
+        <v>650</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>749</v>
+        <v>650</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>750</v>
+        <v>651</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>767</v>
+        <v>668</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>752</v>
+        <v>653</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>757</v>
+        <v>658</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>762</v>
+        <v>663</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>768</v>
+        <v>669</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>753</v>
+        <v>654</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>758</v>
+        <v>659</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>763</v>
+        <v>664</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>770</v>
+        <v>671</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>754</v>
+        <v>655</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>759</v>
+        <v>660</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>764</v>
+        <v>665</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>771</v>
+        <v>672</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>755</v>
+        <v>656</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>760</v>
+        <v>661</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>765</v>
+        <v>666</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>772</v>
+        <v>673</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>756</v>
+        <v>657</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>761</v>
+        <v>662</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>766</v>
+        <v>667</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>779</v>
+        <v>680</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>773</v>
+        <v>674</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>774</v>
+        <v>675</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>777</v>
+        <v>678</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>780</v>
+        <v>681</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>775</v>
+        <v>676</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>776</v>
+        <v>677</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>778</v>
+        <v>679</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>507</v>
+        <v>409</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>504</v>
+        <v>406</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>505</v>
+        <v>407</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>506</v>
+        <v>408</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>512</v>
+        <v>414</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>769</v>
+        <v>670</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>513</v>
+        <v>415</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>514</v>
+        <v>416</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>515</v>
+        <v>417</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>516</v>
+        <v>418</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>126</v>
+        <v>713</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>127</v>
+        <v>719</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>128</v>
+        <v>725</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>517</v>
+        <v>419</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>129</v>
+        <v>714</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>130</v>
+        <v>721</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>131</v>
+        <v>726</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>518</v>
+        <v>420</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>132</v>
+        <v>716</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>133</v>
+        <v>720</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>134</v>
+        <v>727</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>519</v>
+        <v>421</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>135</v>
+        <v>715</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>136</v>
+        <v>722</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>137</v>
+        <v>728</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>520</v>
+        <v>422</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>138</v>
+        <v>718</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>139</v>
+        <v>723</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>140</v>
+        <v>729</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>521</v>
+        <v>423</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>141</v>
+        <v>717</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>142</v>
+        <v>724</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>143</v>
+        <v>730</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>522</v>
+        <v>424</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>144</v>
+        <v>731</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>145</v>
+        <v>745</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>146</v>
+        <v>757</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>523</v>
+        <v>425</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>129</v>
+        <v>714</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>130</v>
+        <v>721</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>131</v>
+        <v>726</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>524</v>
+        <v>426</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>132</v>
+        <v>716</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>133</v>
+        <v>720</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>134</v>
+        <v>727</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>525</v>
+        <v>427</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>135</v>
+        <v>715</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>136</v>
+        <v>722</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>137</v>
+        <v>728</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>526</v>
+        <v>428</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>138</v>
+        <v>718</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>139</v>
+        <v>723</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>140</v>
+        <v>729</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>527</v>
+        <v>429</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>147</v>
+        <v>735</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>148</v>
+        <v>749</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>149</v>
+        <v>761</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>528</v>
+        <v>430</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>150</v>
+        <v>732</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>151</v>
+        <v>746</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>152</v>
+        <v>758</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>529</v>
+        <v>431</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>129</v>
+        <v>714</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>130</v>
+        <v>721</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>131</v>
+        <v>726</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>530</v>
+        <v>432</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>132</v>
+        <v>716</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>133</v>
+        <v>720</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>134</v>
+        <v>727</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>531</v>
+        <v>433</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>135</v>
+        <v>715</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>136</v>
+        <v>722</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>137</v>
+        <v>728</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>532</v>
+        <v>434</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>138</v>
+        <v>718</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>139</v>
+        <v>723</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>140</v>
+        <v>729</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>533</v>
+        <v>435</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>153</v>
+        <v>736</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>154</v>
+        <v>750</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>155</v>
+        <v>762</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>535</v>
+        <v>437</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>156</v>
+        <v>733</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>157</v>
+        <v>747</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>158</v>
+        <v>759</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>129</v>
+        <v>714</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>130</v>
+        <v>721</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>131</v>
+        <v>726</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>132</v>
+        <v>716</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>133</v>
+        <v>720</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>134</v>
+        <v>727</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>538</v>
+        <v>440</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>135</v>
+        <v>715</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>136</v>
+        <v>722</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>137</v>
+        <v>728</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>539</v>
+        <v>441</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>138</v>
+        <v>718</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>139</v>
+        <v>723</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>140</v>
+        <v>729</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>534</v>
+        <v>436</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>159</v>
+        <v>737</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>160</v>
+        <v>751</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>161</v>
+        <v>763</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>540</v>
+        <v>771</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>162</v>
+        <v>734</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>163</v>
+        <v>748</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>164</v>
+        <v>760</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>541</v>
+        <v>443</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>165</v>
+        <v>738</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>166</v>
+        <v>752</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>167</v>
+        <v>764</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>542</v>
+        <v>444</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>168</v>
+        <v>739</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>169</v>
+        <v>753</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>170</v>
+        <v>765</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>543</v>
+        <v>445</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>171</v>
+        <v>740</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>172</v>
+        <v>754</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>173</v>
+        <v>766</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>540</v>
+        <v>772</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>174</v>
+        <v>741</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>174</v>
+        <v>741</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>175</v>
+        <v>767</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>544</v>
+        <v>446</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>176</v>
+        <v>742</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>177</v>
+        <v>755</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>178</v>
+        <v>768</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>545</v>
+        <v>447</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>179</v>
+        <v>743</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>180</v>
+        <v>756</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>181</v>
+        <v>769</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>546</v>
+        <v>448</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>182</v>
+        <v>744</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>182</v>
+        <v>744</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>183</v>
+        <v>770</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>547</v>
+        <v>449</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>184</v>
+        <v>113</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>185</v>
+        <v>114</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>186</v>
+        <v>115</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>559</v>
+        <v>460</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>187</v>
+        <v>116</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>187</v>
+        <v>116</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>188</v>
+        <v>117</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>548</v>
+        <v>450</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>790</v>
+        <v>691</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>785</v>
+        <v>686</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>793</v>
+        <v>694</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>796</v>
+        <v>697</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>791</v>
+        <v>692</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>787</v>
+        <v>688</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>786</v>
+        <v>687</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>795</v>
+        <v>696</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>792</v>
+        <v>693</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>789</v>
+        <v>690</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>788</v>
+        <v>689</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>794</v>
+        <v>695</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>784</v>
+        <v>685</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>781</v>
+        <v>682</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>782</v>
+        <v>683</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>783</v>
+        <v>684</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>549</v>
+        <v>451</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>189</v>
+        <v>775</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>190</v>
+        <v>785</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>164</v>
+        <v>760</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>550</v>
+        <v>452</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>191</v>
+        <v>778</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>192</v>
+        <v>788</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>193</v>
+        <v>795</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>554</v>
+        <v>456</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>194</v>
+        <v>779</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>195</v>
+        <v>789</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>196</v>
+        <v>796</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>552</v>
+        <v>454</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>197</v>
+        <v>780</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>198</v>
+        <v>790</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>199</v>
+        <v>797</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>553</v>
+        <v>455</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>200</v>
+        <v>781</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>201</v>
+        <v>791</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>202</v>
+        <v>798</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>551</v>
+        <v>453</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>203</v>
+        <v>782</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>204</v>
+        <v>792</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>205</v>
+        <v>799</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>560</v>
+        <v>461</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>206</v>
+        <v>776</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>207</v>
+        <v>786</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>164</v>
+        <v>760</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>561</v>
+        <v>462</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>191</v>
+        <v>778</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>192</v>
+        <v>788</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>193</v>
+        <v>795</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>562</v>
+        <v>463</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>194</v>
+        <v>779</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>195</v>
+        <v>789</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>196</v>
+        <v>796</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>563</v>
+        <v>464</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>197</v>
+        <v>780</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>198</v>
+        <v>790</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>199</v>
+        <v>797</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>564</v>
+        <v>465</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>200</v>
+        <v>781</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>201</v>
+        <v>791</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>202</v>
+        <v>798</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>565</v>
+        <v>466</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>203</v>
+        <v>782</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>204</v>
+        <v>792</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>205</v>
+        <v>799</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>540</v>
+        <v>442</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>208</v>
+        <v>777</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>209</v>
+        <v>787</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>164</v>
+        <v>760</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>555</v>
+        <v>457</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>191</v>
+        <v>778</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>192</v>
+        <v>788</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>193</v>
+        <v>795</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>557</v>
+        <v>459</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>210</v>
+        <v>783</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>211</v>
+        <v>793</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>212</v>
+        <v>800</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>556</v>
+        <v>458</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>213</v>
+        <v>784</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>214</v>
+        <v>794</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>215</v>
+        <v>801</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>566</v>
+        <v>467</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>230</v>
+        <v>132</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>231</v>
+        <v>133</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>232</v>
+        <v>134</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>567</v>
+        <v>468</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>233</v>
+        <v>135</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>234</v>
+        <v>136</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>235</v>
+        <v>137</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>568</v>
+        <v>469</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>236</v>
+        <v>138</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>237</v>
+        <v>139</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>238</v>
+        <v>140</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>569</v>
+        <v>470</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>239</v>
+        <v>141</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>240</v>
+        <v>142</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>241</v>
+        <v>143</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>570</v>
+        <v>471</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>242</v>
+        <v>144</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>243</v>
+        <v>145</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>244</v>
+        <v>146</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>571</v>
+        <v>472</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>245</v>
+        <v>147</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>246</v>
+        <v>148</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>247</v>
+        <v>149</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>638</v>
+        <v>539</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>248</v>
+        <v>150</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>249</v>
+        <v>151</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>250</v>
+        <v>152</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>639</v>
+        <v>540</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>224</v>
+        <v>126</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>226</v>
+        <v>128</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>228</v>
+        <v>130</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>640</v>
+        <v>541</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>225</v>
+        <v>127</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>227</v>
+        <v>129</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>229</v>
+        <v>131</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
       <c r="B106" s="3" t="s">
-        <v>261</v>
+        <v>163</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>262</v>
+        <v>164</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>263</v>
+        <v>165</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="3"/>
       <c r="B107" s="3" t="s">
-        <v>251</v>
+        <v>153</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>255</v>
+        <v>157</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>258</v>
+        <v>160</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
       <c r="B108" s="3" t="s">
-        <v>252</v>
+        <v>154</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>256</v>
+        <v>158</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>259</v>
+        <v>161</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="3"/>
       <c r="B109" s="3" t="s">
-        <v>253</v>
+        <v>155</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>257</v>
+        <v>159</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>260</v>
+        <v>162</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>671</v>
+        <v>572</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>254</v>
+        <v>156</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>254</v>
+        <v>156</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>93</v>
@@ -5881,111 +5937,111 @@
     </row>
     <row r="111" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>653</v>
+        <v>554</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>641</v>
+        <v>542</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>642</v>
+        <v>543</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>643</v>
+        <v>544</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>654</v>
+        <v>555</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>644</v>
+        <v>545</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>645</v>
+        <v>546</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>646</v>
+        <v>547</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>655</v>
+        <v>556</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>647</v>
+        <v>548</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>648</v>
+        <v>549</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>649</v>
+        <v>550</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>656</v>
+        <v>557</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>650</v>
+        <v>551</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>651</v>
+        <v>552</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>652</v>
+        <v>553</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>657</v>
+        <v>558</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>264</v>
+        <v>166</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>265</v>
+        <v>167</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>266</v>
+        <v>168</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>664</v>
+        <v>565</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>661</v>
+        <v>562</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>662</v>
+        <v>563</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>663</v>
+        <v>564</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>665</v>
+        <v>566</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>267</v>
+        <v>169</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>267</v>
+        <v>169</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>268</v>
+        <v>170</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>666</v>
+        <v>567</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>269</v>
+        <v>171</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>270</v>
+        <v>172</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>64</v>
@@ -5993,51 +6049,51 @@
     </row>
     <row r="119" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>667</v>
+        <v>568</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>271</v>
+        <v>173</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>272</v>
+        <v>174</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>273</v>
+        <v>175</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>670</v>
+        <v>571</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>668</v>
+        <v>569</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>668</v>
+        <v>569</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>669</v>
+        <v>570</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
       <c r="B121" s="3" t="s">
-        <v>274</v>
+        <v>176</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>275</v>
+        <v>177</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>276</v>
+        <v>178</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="2" t="s">
-        <v>254</v>
+        <v>156</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>680</v>
+        <v>581</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>93</v>
@@ -6045,116 +6101,116 @@
     </row>
     <row r="123" spans="1:4" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>673</v>
+        <v>574</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>672</v>
+        <v>573</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>672</v>
+        <v>573</v>
       </c>
       <c r="D123" s="3"/>
     </row>
     <row r="124" spans="1:4" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>686</v>
+        <v>587</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>674</v>
+        <v>575</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>677</v>
+        <v>578</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>682</v>
+        <v>583</v>
       </c>
     </row>
     <row r="125" spans="1:4" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>687</v>
+        <v>588</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>688</v>
+        <v>589</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>678</v>
+        <v>579</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>683</v>
+        <v>584</v>
       </c>
     </row>
     <row r="126" spans="1:4" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>689</v>
+        <v>590</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>675</v>
+        <v>576</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>679</v>
+        <v>580</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>684</v>
+        <v>585</v>
       </c>
     </row>
     <row r="127" spans="1:4" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>690</v>
+        <v>591</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>676</v>
+        <v>577</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>681</v>
+        <v>582</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>685</v>
+        <v>586</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>658</v>
+        <v>559</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>277</v>
+        <v>179</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>278</v>
+        <v>180</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>279</v>
+        <v>181</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="3"/>
       <c r="B129" s="3" t="s">
-        <v>280</v>
+        <v>182</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>281</v>
+        <v>183</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>282</v>
+        <v>184</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="3"/>
       <c r="B130" s="3" t="s">
-        <v>283</v>
+        <v>185</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>284</v>
+        <v>186</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>285</v>
+        <v>187</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>691</v>
+        <v>592</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>286</v>
+        <v>188</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>89</v>
@@ -6165,1167 +6221,1197 @@
     </row>
     <row r="132" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>706</v>
+        <v>607</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>287</v>
+        <v>189</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>288</v>
+        <v>190</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>289</v>
+        <v>191</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>659</v>
+        <v>560</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>290</v>
+        <v>192</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>291</v>
+        <v>193</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>292</v>
+        <v>194</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>601</v>
+        <v>502</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>293</v>
+        <v>195</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>293</v>
+        <v>195</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>294</v>
+        <v>196</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>660</v>
+        <v>561</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>295</v>
+        <v>197</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>296</v>
+        <v>198</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>297</v>
+        <v>199</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>692</v>
+        <v>593</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>298</v>
+        <v>200</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>299</v>
+        <v>201</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>300</v>
+        <v>202</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
-        <v>693</v>
+        <v>594</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>301</v>
+        <v>203</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>302</v>
+        <v>204</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>303</v>
+        <v>205</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>694</v>
+        <v>595</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>305</v>
+        <v>207</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>306</v>
+        <v>208</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>695</v>
+        <v>596</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>307</v>
+        <v>209</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>308</v>
+        <v>210</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
-        <v>697</v>
+        <v>598</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>310</v>
+        <v>212</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>311</v>
+        <v>213</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>696</v>
+        <v>597</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>698</v>
+        <v>599</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>313</v>
+        <v>215</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>314</v>
+        <v>216</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
-        <v>699</v>
+        <v>600</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>315</v>
+        <v>217</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>316</v>
+        <v>218</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>317</v>
+        <v>219</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
-        <v>700</v>
+        <v>601</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>318</v>
+        <v>220</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>319</v>
+        <v>221</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>320</v>
+        <v>222</v>
       </c>
     </row>
     <row r="144" spans="1:4" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
-        <v>701</v>
+        <v>602</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>476</v>
+        <v>378</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>477</v>
+        <v>379</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>480</v>
+        <v>382</v>
       </c>
     </row>
     <row r="145" spans="1:4" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
-        <v>702</v>
+        <v>603</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>479</v>
+        <v>381</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>478</v>
+        <v>380</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>321</v>
+        <v>223</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
-        <v>703</v>
+        <v>604</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>322</v>
+        <v>224</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>323</v>
+        <v>225</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>324</v>
+        <v>226</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
-        <v>704</v>
+        <v>605</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>325</v>
+        <v>227</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>326</v>
+        <v>228</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>327</v>
+        <v>229</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
-        <v>705</v>
+        <v>606</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>328</v>
+        <v>230</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>329</v>
+        <v>231</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>330</v>
+        <v>232</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
-        <v>578</v>
+        <v>479</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>572</v>
+        <v>473</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>574</v>
+        <v>475</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>576</v>
+        <v>477</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
-        <v>579</v>
+        <v>480</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>573</v>
+        <v>474</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>575</v>
+        <v>476</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>577</v>
+        <v>478</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
-        <v>597</v>
+        <v>498</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>331</v>
+        <v>233</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>332</v>
+        <v>234</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>748</v>
+        <v>649</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
-        <v>598</v>
+        <v>499</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>333</v>
+        <v>235</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>334</v>
+        <v>236</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>335</v>
+        <v>237</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
-        <v>596</v>
+        <v>497</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>336</v>
+        <v>238</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>337</v>
+        <v>239</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>338</v>
+        <v>240</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
-        <v>599</v>
+        <v>500</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>339</v>
+        <v>241</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>340</v>
+        <v>242</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>341</v>
+        <v>243</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
-        <v>600</v>
+        <v>501</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>342</v>
+        <v>244</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>343</v>
+        <v>245</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>344</v>
+        <v>246</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
-        <v>595</v>
+        <v>496</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>589</v>
+        <v>490</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>588</v>
+        <v>489</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>587</v>
+        <v>488</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
-        <v>594</v>
+        <v>495</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>580</v>
+        <v>481</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>583</v>
+        <v>484</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>585</v>
+        <v>486</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
-        <v>593</v>
+        <v>494</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>581</v>
+        <v>482</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>590</v>
+        <v>491</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>586</v>
+        <v>487</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
-        <v>592</v>
+        <v>493</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>582</v>
+        <v>483</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>584</v>
+        <v>485</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>591</v>
+        <v>492</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
-        <v>607</v>
+        <v>508</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>604</v>
+        <v>505</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>605</v>
+        <v>506</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>606</v>
+        <v>507</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
-        <v>631</v>
+        <v>532</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>618</v>
+        <v>519</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>619</v>
+        <v>520</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>620</v>
+        <v>521</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
-        <v>632</v>
+        <v>533</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>621</v>
+        <v>522</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>622</v>
+        <v>523</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>623</v>
+        <v>524</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
-        <v>633</v>
+        <v>534</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>624</v>
+        <v>525</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>629</v>
+        <v>530</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>630</v>
+        <v>531</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
-        <v>602</v>
+        <v>503</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>345</v>
+        <v>247</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>346</v>
+        <v>248</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>347</v>
+        <v>249</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
-        <v>608</v>
+        <v>509</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>348</v>
+        <v>250</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>349</v>
+        <v>251</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
-        <v>610</v>
+        <v>511</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>611</v>
+        <v>512</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>612</v>
+        <v>513</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>351</v>
+        <v>253</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
-        <v>609</v>
+        <v>510</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>352</v>
+        <v>254</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>353</v>
+        <v>255</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>354</v>
+        <v>256</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
-        <v>603</v>
+        <v>504</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>355</v>
+        <v>257</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>356</v>
+        <v>258</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>357</v>
+        <v>259</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
-        <v>613</v>
+        <v>514</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>358</v>
+        <v>260</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>359</v>
+        <v>261</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>360</v>
+        <v>262</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
-        <v>614</v>
+        <v>515</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>361</v>
+        <v>263</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>362</v>
+        <v>264</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>363</v>
+        <v>265</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="3"/>
       <c r="B171" s="3" t="s">
-        <v>352</v>
+        <v>254</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>353</v>
+        <v>255</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>354</v>
+        <v>256</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
-        <v>615</v>
+        <v>516</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>625</v>
+        <v>526</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>626</v>
+        <v>527</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>364</v>
+        <v>266</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
-        <v>616</v>
+        <v>517</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>628</v>
+        <v>529</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>627</v>
+        <v>528</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>365</v>
+        <v>267</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
-        <v>617</v>
+        <v>518</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>366</v>
+        <v>268</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>367</v>
+        <v>269</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>368</v>
+        <v>270</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="3"/>
       <c r="B175" s="3" t="s">
-        <v>352</v>
+        <v>254</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>353</v>
+        <v>255</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>354</v>
+        <v>256</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
-        <v>721</v>
+        <v>622</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>369</v>
+        <v>271</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>370</v>
+        <v>272</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>371</v>
+        <v>273</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="3"/>
       <c r="B177" s="7" t="s">
-        <v>372</v>
+        <v>274</v>
       </c>
       <c r="C177" s="7" t="s">
-        <v>373</v>
+        <v>275</v>
       </c>
       <c r="D177" s="7" t="s">
-        <v>374</v>
+        <v>276</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
-        <v>722</v>
+        <v>623</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>375</v>
+        <v>277</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>376</v>
+        <v>278</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>377</v>
+        <v>279</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="3"/>
       <c r="B179" s="3" t="s">
-        <v>378</v>
+        <v>280</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>379</v>
+        <v>281</v>
       </c>
       <c r="D179" s="7" t="s">
-        <v>380</v>
+        <v>282</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
-        <v>723</v>
+        <v>624</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>381</v>
+        <v>283</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>382</v>
+        <v>284</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>383</v>
+        <v>285</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="3"/>
       <c r="B181" s="3" t="s">
-        <v>384</v>
+        <v>286</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>385</v>
+        <v>287</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>386</v>
+        <v>288</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
-        <v>724</v>
+        <v>625</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>387</v>
+        <v>289</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>388</v>
+        <v>290</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>389</v>
+        <v>291</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="3"/>
       <c r="B183" s="3" t="s">
-        <v>390</v>
+        <v>292</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>391</v>
+        <v>293</v>
       </c>
       <c r="D183" s="7" t="s">
-        <v>392</v>
+        <v>294</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
-        <v>725</v>
+        <v>626</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>393</v>
+        <v>295</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>394</v>
+        <v>296</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>395</v>
+        <v>297</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="3"/>
       <c r="B185" s="7" t="s">
-        <v>396</v>
+        <v>298</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>397</v>
+        <v>299</v>
       </c>
       <c r="D185" s="7" t="s">
-        <v>481</v>
+        <v>383</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
-        <v>726</v>
+        <v>627</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>398</v>
+        <v>300</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>399</v>
+        <v>301</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>400</v>
+        <v>302</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="3"/>
       <c r="B187" s="3" t="s">
-        <v>401</v>
+        <v>303</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>402</v>
+        <v>304</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>403</v>
+        <v>305</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
-        <v>727</v>
+        <v>628</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>404</v>
+        <v>306</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>405</v>
+        <v>307</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>406</v>
+        <v>308</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="3"/>
       <c r="B189" s="3" t="s">
-        <v>384</v>
+        <v>286</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>385</v>
+        <v>287</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>386</v>
+        <v>288</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
-        <v>728</v>
+        <v>629</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>407</v>
+        <v>309</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>408</v>
+        <v>310</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>409</v>
+        <v>311</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="122.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="3"/>
       <c r="B191" s="7" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>411</v>
+        <v>313</v>
       </c>
       <c r="D191" s="7" t="s">
-        <v>637</v>
+        <v>538</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
-        <v>729</v>
+        <v>630</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>412</v>
+        <v>314</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>413</v>
+        <v>315</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>414</v>
+        <v>316</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="3"/>
       <c r="B193" s="7" t="s">
-        <v>415</v>
+        <v>317</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>416</v>
+        <v>318</v>
       </c>
       <c r="D193" s="7" t="s">
-        <v>636</v>
+        <v>537</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
-        <v>730</v>
+        <v>631</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>417</v>
+        <v>319</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>418</v>
+        <v>320</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>419</v>
+        <v>321</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="3"/>
       <c r="B195" s="3" t="s">
-        <v>420</v>
+        <v>322</v>
       </c>
       <c r="C195" s="7" t="s">
-        <v>421</v>
+        <v>323</v>
       </c>
       <c r="D195" s="7" t="s">
-        <v>422</v>
+        <v>324</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
-        <v>731</v>
+        <v>632</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>423</v>
+        <v>325</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>424</v>
+        <v>326</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>425</v>
+        <v>327</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="3"/>
       <c r="B197" s="7" t="s">
-        <v>426</v>
+        <v>328</v>
       </c>
       <c r="C197" s="7" t="s">
-        <v>427</v>
+        <v>329</v>
       </c>
       <c r="D197" s="7" t="s">
-        <v>634</v>
+        <v>535</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
-        <v>732</v>
+        <v>633</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>428</v>
+        <v>330</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>429</v>
+        <v>331</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>430</v>
+        <v>332</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="3"/>
       <c r="B199" s="7" t="s">
-        <v>431</v>
+        <v>333</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>432</v>
+        <v>334</v>
       </c>
       <c r="D199" s="7" t="s">
-        <v>635</v>
+        <v>536</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
-        <v>733</v>
+        <v>634</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>433</v>
+        <v>335</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>434</v>
+        <v>336</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>435</v>
+        <v>337</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="3"/>
       <c r="B201" s="7" t="s">
-        <v>436</v>
+        <v>338</v>
       </c>
       <c r="C201" s="7" t="s">
-        <v>437</v>
+        <v>339</v>
       </c>
       <c r="D201" s="7" t="s">
-        <v>438</v>
+        <v>340</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="3"/>
       <c r="B202" s="7" t="s">
-        <v>439</v>
+        <v>341</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>440</v>
+        <v>342</v>
       </c>
       <c r="D202" s="7" t="s">
-        <v>441</v>
+        <v>343</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="3"/>
       <c r="B203" s="7" t="s">
-        <v>442</v>
+        <v>344</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>443</v>
+        <v>345</v>
       </c>
       <c r="D203" s="7" t="s">
-        <v>444</v>
+        <v>346</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
-        <v>708</v>
+        <v>609</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>797</v>
+        <v>698</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>798</v>
+        <v>699</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>707</v>
+        <v>608</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
-        <v>709</v>
+        <v>610</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>445</v>
+        <v>347</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>446</v>
+        <v>348</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>447</v>
+        <v>349</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
-        <v>710</v>
+        <v>611</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>448</v>
+        <v>350</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>449</v>
+        <v>351</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>450</v>
+        <v>352</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
-        <v>711</v>
+        <v>612</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>451</v>
+        <v>353</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>451</v>
+        <v>353</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>452</v>
+        <v>354</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
-        <v>712</v>
+        <v>613</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>453</v>
+        <v>355</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>454</v>
+        <v>356</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>455</v>
+        <v>357</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
-        <v>713</v>
+        <v>614</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>456</v>
+        <v>358</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>457</v>
+        <v>359</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>458</v>
+        <v>360</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
-        <v>714</v>
+        <v>615</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>459</v>
+        <v>361</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>460</v>
+        <v>362</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>461</v>
+        <v>363</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
-        <v>715</v>
+        <v>616</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>462</v>
+        <v>364</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>463</v>
+        <v>365</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>464</v>
+        <v>366</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
-        <v>716</v>
+        <v>617</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>465</v>
+        <v>367</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>466</v>
+        <v>368</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>467</v>
+        <v>369</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
-        <v>719</v>
+        <v>620</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>468</v>
+        <v>370</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="D213" s="3"/>
+        <v>371</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>700</v>
+      </c>
     </row>
     <row r="214" spans="1:4" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
-        <v>720</v>
+        <v>621</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>470</v>
+        <v>372</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>471</v>
+        <v>373</v>
       </c>
       <c r="D214" s="7" t="s">
-        <v>472</v>
+        <v>374</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
-        <v>717</v>
+        <v>618</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>473</v>
+        <v>375</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>474</v>
+        <v>376</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>475</v>
+        <v>377</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="131.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
-        <v>718</v>
+        <v>619</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>734</v>
+        <v>635</v>
       </c>
       <c r="C216" s="7" t="s">
-        <v>736</v>
+        <v>637</v>
       </c>
       <c r="D216" s="7" t="s">
-        <v>738</v>
+        <v>639</v>
       </c>
     </row>
     <row r="217" spans="1:4" s="8" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B217" s="9" t="s">
-        <v>735</v>
+        <v>636</v>
       </c>
       <c r="C217" s="10" t="s">
-        <v>737</v>
+        <v>638</v>
       </c>
       <c r="D217" s="9" t="s">
-        <v>739</v>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="B218" s="13" t="s">
+        <v>803</v>
+      </c>
+      <c r="C218" s="14" t="s">
+        <v>804</v>
+      </c>
+      <c r="D218" s="12" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="B219" s="13" t="s">
+        <v>807</v>
+      </c>
+      <c r="C219" s="13" t="s">
+        <v>807</v>
+      </c>
+      <c r="D219" s="12" t="s">
+        <v>808</v>
       </c>
     </row>
   </sheetData>

--- a/IdensolApp/Assets/Resources/ExcelFiles/MultiLanguage.xlsx
+++ b/IdensolApp/Assets/Resources/ExcelFiles/MultiLanguage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\IdensolApp\IdensolApp\Assets\Resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B54A76-F429-41FE-AA79-D8E341E6CBED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D77BCF2-6B34-4D1E-8438-8ED03DF42E81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3735" yWindow="2130" windowWidth="34365" windowHeight="18150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4425" yWindow="3195" windowWidth="29130" windowHeight="16530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="muitiLang" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="807">
   <si>
     <t>id</t>
   </si>
@@ -866,10 +866,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Finish</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>換刀具</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1202,21 +1198,6 @@
 2. File names should be in English or numeric characters.
 3. Transfer NC files to the machine.
 4. Press the RESET and HOME button to continue the action.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Error201:第1路徑系統無此G指令
-[程式名稱]:行號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Error201:第1路径系统无此G指令
-[程序名称]:行号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Error201:No such G command in the 1st path system [Program Name]: Line No.
-</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1299,6 +1280,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t/>
     </r>
@@ -1466,6 +1448,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t/>
     </r>
@@ -1508,6 +1491,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t/>
     </r>
@@ -1736,26 +1720,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">     按鬆夾刀鍵，將主軸刀具卸下</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">     按松夹刀键，将主轴刀具卸下</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>放入校正刀，    按夹刀键夹刀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>放入校正刀，    按夾刀鍵夾刀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">     Press this button to remove the spindle tool.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">CAM software calculation error, resulting in NC file exceeding the limit of each axis.
 1. Please record the number of GCode error lines displayed on the screen.
 2. Send the processing file with the GCode error line to us.
@@ -2135,11 +2099,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">First, remove the bur from the spindle.
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>※Note: Don't click this button while the bur is unloaded, as it may damage the spindle.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2176,10 +2135,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>※Too tight → Loosen screw, back off the chuck a half turn, then lock back screw.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Press the bur changer button to see if the bur is working properly.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2193,10 +2148,6 @@
   </si>
   <si>
     <t>※太紧→松开内螺丝，将筒夹退半圈，再锁回内螺丝</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(Just the right amount of  force.)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2488,10 +2439,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>OperateZero_Zero</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>OperateChange_Change</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2501,10 +2448,6 @@
   </si>
   <si>
     <t>选项</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Options</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2646,6 +2589,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Please be sure to have the original engineer calibrate the machine before drilling the rubber.</t>
     </r>
@@ -2899,6 +2843,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -2917,6 +2862,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">             -</t>
     </r>
@@ -2935,6 +2881,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 -AR</t>
@@ -2954,6 +2901,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">               -Idensol</t>
     </r>
@@ -3641,6 +3589,55 @@
   </si>
   <si>
     <t>Model</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>First, remove the bur from the spindle.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>※Too tight → Loosen screw, back off the chuck a half turn, then lock back screw.
+(Just the right amount of  force.)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Press this button to remove the spindle tool.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按鬆夾刀鍵，將主軸刀具卸下</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>放入校正刀，按夾刀鍵夾刀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按松夹刀键，将主轴刀具卸下</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>放入校正刀，按夹刀键夹刀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OperateZero_Zero</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPTION</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error201:第1路徑系統無此G指令 [程式名稱]:行號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error201:第1路径系统无此G指令 [程序名称]:行号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error201:No such G command in the 1st path system [Program Name]: Line No.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3893,306 +3890,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>66676</xdr:colOff>
-      <xdr:row>143</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>377191</xdr:colOff>
-      <xdr:row>143</xdr:row>
-      <xdr:rowOff>342901</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="圖片 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A2E9C04-460B-47E9-B220-288509B33BAC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2143126" y="24669751"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>143</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>377190</xdr:colOff>
-      <xdr:row>143</xdr:row>
-      <xdr:rowOff>342900</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="圖片 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA0E32C4-366C-4711-A0AE-A8ADBA835F9D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14287500" y="24669750"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>923925</xdr:colOff>
-      <xdr:row>144</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1223010</xdr:colOff>
-      <xdr:row>144</xdr:row>
-      <xdr:rowOff>339090</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="圖片 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41306110-ED54-4D5E-9C9D-3CAF05FDB0CE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2790825" y="1771650"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3667125</xdr:colOff>
-      <xdr:row>144</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3966210</xdr:colOff>
-      <xdr:row>144</xdr:row>
-      <xdr:rowOff>339090</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="圖片 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4113B7E3-ACF8-4BD6-A1E6-ED0D573006F5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17897475" y="25031700"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>143</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>381001</xdr:colOff>
-      <xdr:row>143</xdr:row>
-      <xdr:rowOff>346711</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="圖片 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D7D6C87-F106-42BF-A89B-8F4410A54E25}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8677276" y="24679276"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>923925</xdr:colOff>
-      <xdr:row>144</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1223010</xdr:colOff>
-      <xdr:row>144</xdr:row>
-      <xdr:rowOff>339090</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="圖片 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73365F42-E85F-4BAC-8AFE-7A9B9EB7B29E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5486400" y="1771650"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4396,8 +4093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A209" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B222" sqref="B222"/>
+    <sheetView tabSelected="1" topLeftCell="C174" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D178" sqref="D178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4433,44 +4130,44 @@
     </row>
     <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4489,7 +4186,7 @@
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>65</v>
@@ -4503,7 +4200,7 @@
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>68</v>
@@ -4531,7 +4228,7 @@
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>73</v>
@@ -4545,30 +4242,30 @@
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>645</v>
+        <v>631</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>647</v>
+        <v>633</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>648</v>
+        <v>634</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>641</v>
+        <v>627</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>642</v>
+        <v>628</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>643</v>
+        <v>629</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4657,77 +4354,77 @@
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>704</v>
+        <v>690</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>709</v>
+        <v>695</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>701</v>
+        <v>687</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>705</v>
+        <v>691</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>710</v>
+        <v>696</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>702</v>
+        <v>688</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>773</v>
+        <v>759</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>707</v>
+        <v>693</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>711</v>
+        <v>697</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>703</v>
+        <v>689</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>708</v>
+        <v>694</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>712</v>
+        <v>698</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>774</v>
+        <v>760</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>94</v>
@@ -4741,7 +4438,7 @@
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>97</v>
@@ -4755,7 +4452,7 @@
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>99</v>
@@ -4769,147 +4466,147 @@
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>652</v>
+        <v>638</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>650</v>
+        <v>636</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>650</v>
+        <v>636</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>651</v>
+        <v>637</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>653</v>
+        <v>639</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>658</v>
+        <v>644</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>663</v>
+        <v>649</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>669</v>
+        <v>655</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>654</v>
+        <v>640</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>659</v>
+        <v>645</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>664</v>
+        <v>650</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>671</v>
+        <v>657</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>655</v>
+        <v>641</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>660</v>
+        <v>646</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>665</v>
+        <v>651</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>672</v>
+        <v>658</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>656</v>
+        <v>642</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>661</v>
+        <v>647</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>666</v>
+        <v>652</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>673</v>
+        <v>659</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>657</v>
+        <v>643</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>662</v>
+        <v>648</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>680</v>
+        <v>666</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>674</v>
+        <v>660</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>675</v>
+        <v>661</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>678</v>
+        <v>664</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>681</v>
+        <v>667</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>676</v>
+        <v>662</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>677</v>
+        <v>663</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>679</v>
+        <v>665</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>100</v>
@@ -4923,7 +4620,7 @@
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>670</v>
+        <v>656</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>103</v>
@@ -4937,7 +4634,7 @@
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>106</v>
@@ -4951,7 +4648,7 @@
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>109</v>
@@ -4965,7 +4662,7 @@
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>112</v>
@@ -4979,455 +4676,455 @@
     </row>
     <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>713</v>
+        <v>699</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>719</v>
+        <v>705</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>725</v>
+        <v>711</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>714</v>
+        <v>700</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>721</v>
+        <v>707</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>726</v>
+        <v>712</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>716</v>
+        <v>702</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>720</v>
+        <v>706</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>727</v>
+        <v>713</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>715</v>
+        <v>701</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>728</v>
+        <v>714</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>718</v>
+        <v>704</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>729</v>
+        <v>715</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>717</v>
+        <v>703</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>724</v>
+        <v>710</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>730</v>
+        <v>716</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>745</v>
-      </c>
       <c r="D48" s="3" t="s">
-        <v>757</v>
+        <v>743</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>714</v>
+        <v>700</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>721</v>
+        <v>707</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>726</v>
+        <v>712</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>716</v>
+        <v>702</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>720</v>
+        <v>706</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>727</v>
+        <v>713</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>715</v>
+        <v>701</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>728</v>
+        <v>714</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>718</v>
+        <v>704</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>729</v>
+        <v>715</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>749</v>
-      </c>
       <c r="D53" s="3" t="s">
-        <v>761</v>
+        <v>747</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>746</v>
-      </c>
       <c r="D54" s="3" t="s">
-        <v>758</v>
+        <v>744</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>714</v>
+        <v>700</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>721</v>
+        <v>707</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>726</v>
+        <v>712</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>716</v>
+        <v>702</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>720</v>
+        <v>706</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>727</v>
+        <v>713</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>715</v>
+        <v>701</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>728</v>
+        <v>714</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>718</v>
+        <v>704</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>729</v>
+        <v>715</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="B59" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>750</v>
-      </c>
       <c r="D59" s="3" t="s">
-        <v>762</v>
+        <v>748</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="B60" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>747</v>
-      </c>
       <c r="D60" s="3" t="s">
-        <v>759</v>
+        <v>745</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>714</v>
+        <v>700</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>721</v>
+        <v>707</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>726</v>
+        <v>712</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>716</v>
+        <v>702</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>720</v>
+        <v>706</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>727</v>
+        <v>713</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>715</v>
+        <v>701</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>728</v>
+        <v>714</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>718</v>
+        <v>704</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>729</v>
+        <v>715</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="B65" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>751</v>
-      </c>
       <c r="D65" s="3" t="s">
-        <v>763</v>
+        <v>749</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="B66" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>734</v>
       </c>
-      <c r="C66" s="3" t="s">
-        <v>748</v>
-      </c>
       <c r="D66" s="3" t="s">
-        <v>760</v>
+        <v>746</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="B67" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>738</v>
       </c>
-      <c r="C67" s="3" t="s">
-        <v>752</v>
-      </c>
       <c r="D67" s="3" t="s">
-        <v>764</v>
+        <v>750</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="B68" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="C68" s="3" t="s">
-        <v>753</v>
-      </c>
       <c r="D68" s="3" t="s">
-        <v>765</v>
+        <v>751</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="B69" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="C69" s="3" t="s">
-        <v>754</v>
-      </c>
       <c r="D69" s="3" t="s">
-        <v>766</v>
+        <v>752</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>772</v>
+        <v>758</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>741</v>
+        <v>727</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>741</v>
+        <v>727</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>767</v>
+        <v>753</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>742</v>
+        <v>728</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>755</v>
+        <v>741</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>768</v>
+        <v>754</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>743</v>
+        <v>729</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>756</v>
+        <v>742</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>769</v>
+        <v>755</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>744</v>
+        <v>730</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>744</v>
+        <v>730</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>113</v>
@@ -5441,7 +5138,7 @@
     </row>
     <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>116</v>
@@ -5455,7 +5152,7 @@
     </row>
     <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>112</v>
@@ -5469,287 +5166,287 @@
     </row>
     <row r="77" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>691</v>
+        <v>677</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>686</v>
+        <v>672</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>694</v>
+        <v>680</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>697</v>
+        <v>683</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>692</v>
+        <v>678</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>688</v>
+        <v>674</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>687</v>
+        <v>673</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>696</v>
+        <v>682</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>693</v>
+        <v>679</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>690</v>
+        <v>676</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>689</v>
+        <v>675</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>695</v>
+        <v>681</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>682</v>
+        <v>668</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>683</v>
+        <v>669</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>684</v>
+        <v>670</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>775</v>
+        <v>761</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>785</v>
+        <v>771</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>760</v>
+        <v>746</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>778</v>
+        <v>764</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>788</v>
+        <v>774</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>795</v>
+        <v>781</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>779</v>
+        <v>765</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>789</v>
+        <v>775</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>796</v>
+        <v>782</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>780</v>
+        <v>766</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>790</v>
+        <v>776</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>797</v>
+        <v>783</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>781</v>
+        <v>767</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>791</v>
+        <v>777</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>798</v>
+        <v>784</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>782</v>
+        <v>768</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>792</v>
+        <v>778</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>799</v>
+        <v>785</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>776</v>
+        <v>762</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>786</v>
+        <v>772</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>760</v>
+        <v>746</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>778</v>
+        <v>764</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>788</v>
+        <v>774</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>795</v>
+        <v>781</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>779</v>
+        <v>765</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>789</v>
+        <v>775</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>796</v>
+        <v>782</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>780</v>
+        <v>766</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>790</v>
+        <v>776</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>797</v>
+        <v>783</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>781</v>
+        <v>767</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>791</v>
+        <v>777</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>798</v>
+        <v>784</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>782</v>
+        <v>768</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>792</v>
+        <v>778</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>799</v>
+        <v>785</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>777</v>
+        <v>763</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>787</v>
+        <v>773</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>760</v>
+        <v>746</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>778</v>
+        <v>764</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>788</v>
+        <v>774</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>795</v>
+        <v>781</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>783</v>
+        <v>769</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>793</v>
+        <v>779</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>800</v>
+        <v>786</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>784</v>
+        <v>770</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>794</v>
+        <v>780</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>801</v>
+        <v>787</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>132</v>
@@ -5763,7 +5460,7 @@
     </row>
     <row r="98" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>135</v>
@@ -5777,7 +5474,7 @@
     </row>
     <row r="99" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>138</v>
@@ -5791,7 +5488,7 @@
     </row>
     <row r="100" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>141</v>
@@ -5805,7 +5502,7 @@
     </row>
     <row r="101" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>144</v>
@@ -5819,7 +5516,7 @@
     </row>
     <row r="102" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>147</v>
@@ -5833,7 +5530,7 @@
     </row>
     <row r="103" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>150</v>
@@ -5847,7 +5544,7 @@
     </row>
     <row r="104" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>126</v>
@@ -5861,7 +5558,7 @@
     </row>
     <row r="105" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>127</v>
@@ -5923,7 +5620,7 @@
     </row>
     <row r="110" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>156</v>
@@ -5937,63 +5634,63 @@
     </row>
     <row r="111" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>166</v>
@@ -6007,21 +5704,21 @@
     </row>
     <row r="116" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>564</v>
+        <v>803</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>169</v>
@@ -6035,7 +5732,7 @@
     </row>
     <row r="118" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>171</v>
@@ -6049,7 +5746,7 @@
     </row>
     <row r="119" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>173</v>
@@ -6063,16 +5760,16 @@
     </row>
     <row r="120" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6093,7 +5790,7 @@
         <v>156</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>93</v>
@@ -6101,75 +5798,75 @@
     </row>
     <row r="123" spans="1:4" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="D123" s="3"/>
     </row>
     <row r="124" spans="1:4" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
     </row>
     <row r="125" spans="1:4" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
     </row>
     <row r="126" spans="1:4" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
     </row>
     <row r="127" spans="1:4" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>586</v>
+        <v>572</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>179</v>
@@ -6194,7 +5891,9 @@
       </c>
     </row>
     <row r="130" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="3"/>
+      <c r="A130" s="3" t="s">
+        <v>802</v>
+      </c>
       <c r="B130" s="3" t="s">
         <v>185</v>
       </c>
@@ -6207,7 +5906,7 @@
     </row>
     <row r="131" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>188</v>
@@ -6221,7 +5920,7 @@
     </row>
     <row r="132" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>607</v>
+        <v>593</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>189</v>
@@ -6234,9 +5933,7 @@
       </c>
     </row>
     <row r="133" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="3" t="s">
-        <v>560</v>
-      </c>
+      <c r="A133" s="3"/>
       <c r="B133" s="3" t="s">
         <v>192</v>
       </c>
@@ -6249,7 +5946,7 @@
     </row>
     <row r="134" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>195</v>
@@ -6257,1161 +5954,1157 @@
       <c r="C134" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="D134" s="3" t="s">
-        <v>196</v>
-      </c>
+      <c r="D134" s="3"/>
     </row>
     <row r="135" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="B135" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C135" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C135" s="3" t="s">
+      <c r="D135" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="D135" s="3" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="B136" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C136" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="D136" s="3" t="s">
         <v>201</v>
-      </c>
-      <c r="D136" s="3" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="B137" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C137" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C137" s="3" t="s">
+      <c r="D137" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="B138" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C138" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C138" s="3" t="s">
+      <c r="D138" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="B139" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C139" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C139" s="3" t="s">
+      <c r="D139" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="B140" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C140" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C140" s="3" t="s">
-        <v>213</v>
-      </c>
       <c r="D140" s="3" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="B141" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C141" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C141" s="3" t="s">
+      <c r="D141" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="B142" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C142" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C142" s="3" t="s">
+      <c r="D142" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="B143" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C143" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C143" s="3" t="s">
+      <c r="D143" s="3" t="s">
         <v>221</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="144" spans="1:4" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>378</v>
+        <v>798</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>379</v>
+        <v>800</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>382</v>
+        <v>797</v>
       </c>
     </row>
     <row r="145" spans="1:4" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>381</v>
+        <v>799</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>380</v>
+        <v>801</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
-        <v>604</v>
+        <v>590</v>
       </c>
       <c r="B146" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C146" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C146" s="3" t="s">
+      <c r="D146" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="B147" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C147" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="D147" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="D147" s="3" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
-        <v>606</v>
+        <v>592</v>
       </c>
       <c r="B148" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C148" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="D148" s="3" t="s">
         <v>231</v>
-      </c>
-      <c r="D148" s="3" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>477</v>
+        <v>795</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="B151" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C151" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C151" s="3" t="s">
-        <v>234</v>
-      </c>
       <c r="D151" s="3" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="B152" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C152" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C152" s="3" t="s">
+      <c r="D152" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="D152" s="3" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="B153" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C153" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C153" s="3" t="s">
+      <c r="D153" s="3" t="s">
         <v>239</v>
-      </c>
-      <c r="D153" s="3" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="B154" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C154" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="C154" s="3" t="s">
+      <c r="D154" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="D154" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="B155" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C155" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C155" s="3" t="s">
+      <c r="D155" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="D155" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>487</v>
+        <v>796</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="D159" s="7" t="s">
-        <v>492</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="D159" s="7"/>
     </row>
     <row r="160" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="B164" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C164" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C164" s="3" t="s">
+      <c r="D164" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="D164" s="3" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="B165" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C165" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="C165" s="3" t="s">
+      <c r="D165" s="3" t="s">
         <v>251</v>
-      </c>
-      <c r="D165" s="3" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="B167" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C167" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="C167" s="3" t="s">
+      <c r="D167" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="D167" s="3" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="B168" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C168" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="C168" s="3" t="s">
+      <c r="D168" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="D168" s="3" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="B169" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C169" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="C169" s="3" t="s">
+      <c r="D169" s="3" t="s">
         <v>261</v>
-      </c>
-      <c r="D169" s="3" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="B170" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C170" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="C170" s="3" t="s">
+      <c r="D170" s="3" t="s">
         <v>264</v>
-      </c>
-      <c r="D170" s="3" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="3"/>
       <c r="B171" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C171" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="C171" s="3" t="s">
+      <c r="D171" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="D171" s="3" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="B173" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="B173" s="3" t="s">
-        <v>529</v>
-      </c>
       <c r="C173" s="3" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="B174" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C174" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C174" s="3" t="s">
+      <c r="D174" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="D174" s="3" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="3"/>
       <c r="B175" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C175" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="C175" s="3" t="s">
+      <c r="D175" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="D175" s="3" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
       <c r="B176" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C176" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C176" s="3" t="s">
+      <c r="D176" s="3" t="s">
         <v>272</v>
-      </c>
-      <c r="D176" s="3" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="3"/>
       <c r="B177" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C177" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="C177" s="7" t="s">
+      <c r="D177" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="D177" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
-        <v>623</v>
+        <v>609</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>277</v>
+        <v>804</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>278</v>
+        <v>805</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>279</v>
+        <v>806</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="3"/>
       <c r="B179" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D179" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="3"/>
       <c r="B181" s="3" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="3"/>
       <c r="B183" s="3" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D183" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="3"/>
       <c r="B185" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D185" s="7" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
-        <v>627</v>
+        <v>613</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="3"/>
       <c r="B187" s="3" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
-        <v>628</v>
+        <v>614</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="3"/>
       <c r="B189" s="3" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
-        <v>629</v>
+        <v>615</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="122.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="3"/>
       <c r="B191" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D191" s="7" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="3"/>
       <c r="B193" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D193" s="7" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
-        <v>631</v>
+        <v>617</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="3"/>
       <c r="B195" s="3" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C195" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D195" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
-        <v>632</v>
+        <v>618</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="3"/>
       <c r="B197" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C197" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D197" s="7" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
-        <v>633</v>
+        <v>619</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="3"/>
       <c r="B199" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D199" s="7" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
-        <v>634</v>
+        <v>620</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="3"/>
       <c r="B201" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C201" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D201" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="3"/>
       <c r="B202" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D202" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="3"/>
       <c r="B203" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D203" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>698</v>
+        <v>684</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>699</v>
+        <v>685</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>608</v>
+        <v>594</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
-        <v>616</v>
+        <v>602</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>700</v>
+        <v>686</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
-        <v>621</v>
+        <v>607</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D214" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="131.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
-        <v>619</v>
+        <v>605</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>635</v>
+        <v>621</v>
       </c>
       <c r="C216" s="7" t="s">
-        <v>637</v>
+        <v>623</v>
       </c>
       <c r="D216" s="7" t="s">
-        <v>639</v>
+        <v>625</v>
       </c>
     </row>
     <row r="217" spans="1:4" s="8" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B217" s="9" t="s">
-        <v>636</v>
+        <v>622</v>
       </c>
       <c r="C217" s="10" t="s">
-        <v>638</v>
+        <v>624</v>
       </c>
       <c r="D217" s="9" t="s">
-        <v>640</v>
+        <v>626</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
-        <v>802</v>
+        <v>788</v>
       </c>
       <c r="B218" s="13" t="s">
-        <v>803</v>
+        <v>789</v>
       </c>
       <c r="C218" s="14" t="s">
-        <v>804</v>
+        <v>790</v>
       </c>
       <c r="D218" s="12" t="s">
-        <v>805</v>
+        <v>791</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
-        <v>806</v>
+        <v>792</v>
       </c>
       <c r="B219" s="13" t="s">
-        <v>807</v>
+        <v>793</v>
       </c>
       <c r="C219" s="13" t="s">
-        <v>807</v>
+        <v>793</v>
       </c>
       <c r="D219" s="12" t="s">
-        <v>808</v>
+        <v>794</v>
       </c>
     </row>
   </sheetData>

--- a/IdensolApp/Assets/Resources/ExcelFiles/MultiLanguage.xlsx
+++ b/IdensolApp/Assets/Resources/ExcelFiles/MultiLanguage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\IdensolApp\IdensolApp\Assets\Resources\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jcit/Unity Projects/IdensolApp/Assets/Resources/ExcelFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D77BCF2-6B34-4D1E-8438-8ED03DF42E81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7EF1FD-9E38-C14B-BE34-26BF98686AA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4425" yWindow="3195" windowWidth="29130" windowHeight="16530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="960" windowWidth="29140" windowHeight="16540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="muitiLang" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="805">
   <si>
     <t>id</t>
   </si>
@@ -1727,14 +1727,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>五軸數位牙科齒雕機</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>五轴数位牙科齿雕机</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Idensol Dental milling machine 5XP</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1828,10 +1820,6 @@
   </si>
   <si>
     <t>Video_Tutorial</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAD-Prosthetic Design</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2968,69 +2956,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CAM-Prosthetic Planning</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Step3_Tutorial</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CAD假牙設計-內冠設計</t>
-  </si>
-  <si>
-    <t>CAD假牙設計-單冠設計</t>
-  </si>
-  <si>
-    <t>CAD假牙設計-嵌體設計</t>
-  </si>
-  <si>
-    <t>CAD假牙設計-貼片設計</t>
-  </si>
-  <si>
-    <t>CAD假牙設計-Premill設計</t>
-  </si>
-  <si>
-    <t>CAD假牙设计-基底冠</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAD假牙设计-解剖冠</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAD假牙设计-嵌体</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAD假牙设计-贴面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAD假牙设计-Premill</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAD-Prosthetic Design-Copping</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAD-Prosthetic Design-Single Crown</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAD-Prosthetic Design-Inlay/Onlay</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAD-Prosthetic Design-Venner</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAD-Prosthetic Design-Premill</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>CAD_Copping</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3103,24 +3032,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CAM假牙排版-氧化鋯</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAM假牙排版-玻璃陶瓷</t>
-  </si>
-  <si>
-    <t>CAM假牙排版-玻璃陶瓷</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAM假牙排版-Premill</t>
-  </si>
-  <si>
-    <t>CAM假牙排版-Premill</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>CAM_Zirconia</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3133,21 +3044,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CAM假牙排版-氧化锆</t>
-  </si>
-  <si>
-    <t>CAM-Prosthetic Planning-Premill</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAM-Prosthetic Planning-Glass Cermaic</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAM-Prosthetic Planning-Zirconia</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>總    公    司</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3164,14 +3060,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;size=30&gt;Step2&lt;/size&gt; &lt;b&gt;CAD-Prosthetic Design&lt;/b&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=30&gt;Step4&lt;/size&gt;  &lt;b&gt;Milling&lt;/b&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;size=36&gt;Step1&lt;/size&gt; 數位取模</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3432,10 +3320,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;size=30&gt;Step7&lt;/size&gt; Free-forming</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;size=30&gt;Step8&lt;/size&gt; Complete abutment design</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3445,10 +3329,6 @@
   </si>
   <si>
     <t>Premill_DefineInsertion</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=30&gt;Step3&lt;/size&gt; &lt;b&gt;CAM-Prosthetic Planning&lt;/b&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3638,6 +3518,104 @@
   </si>
   <si>
     <t>Error201:No such G command in the 1st path system [Program Name]: Line No.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=30&gt;Step4&lt;/size&gt; &lt;b&gt;Milling&lt;/b&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAD假牙設計_內冠設計</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAD假牙設計_單冠設計</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAD假牙設計_嵌體設計</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAD假牙設計_貼片設計</t>
+  </si>
+  <si>
+    <t>CAD假牙设计_贴面</t>
+  </si>
+  <si>
+    <t>CAD_Prosthetic Design_Venner</t>
+  </si>
+  <si>
+    <t>CAD假牙設計_Premill設計</t>
+  </si>
+  <si>
+    <t>CAD假牙设计_Premill</t>
+  </si>
+  <si>
+    <t>CAD_Prosthetic Design_Premill</t>
+  </si>
+  <si>
+    <t>&lt;size=30&gt;Step7&lt;/size&gt; Free_forming</t>
+  </si>
+  <si>
+    <t>CAM假牙排版_氧化鋯</t>
+  </si>
+  <si>
+    <t>CAM假牙排版_氧化锆</t>
+  </si>
+  <si>
+    <t>CAM_Prosthetic Planning_Zirconia</t>
+  </si>
+  <si>
+    <t>CAM假牙排版_玻璃陶瓷</t>
+  </si>
+  <si>
+    <t>CAM_Prosthetic Planning_Glass Cermaic</t>
+  </si>
+  <si>
+    <t>CAM假牙排版_Premill</t>
+  </si>
+  <si>
+    <t>&lt;size=30&gt;Step2&lt;/size&gt; &lt;b&gt;CAD_Prosthetic Design&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;size=30&gt;Step3&lt;/size&gt; &lt;b&gt;CAM_Prosthetic Planning&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>CAD_Prosthetic Design</t>
+  </si>
+  <si>
+    <t>CAM_Prosthetic Planning</t>
+  </si>
+  <si>
+    <t>CAD假牙设计_基底冠</t>
+  </si>
+  <si>
+    <t>CAD假牙设计_解剖冠</t>
+  </si>
+  <si>
+    <t>CAD_Prosthetic Design_Single Crown</t>
+  </si>
+  <si>
+    <t>CAD假牙设计_嵌体</t>
+  </si>
+  <si>
+    <t>CAD_Prosthetic Design_Inlay/Onlay</t>
+  </si>
+  <si>
+    <t>CAM_Prosthetic Planning_Premill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAD_Prosthetic Design_Copping</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>五 軸 數 位 牙 科 齒 雕 機</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>五 轴 数 位 牙 科 齿 雕 机</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3645,7 +3623,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4093,20 +4071,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C174" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D178" sqref="D178"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="38.5" customWidth="1"/>
-    <col min="2" max="2" width="85.625" customWidth="1"/>
-    <col min="3" max="3" width="73.875" customWidth="1"/>
+    <col min="2" max="2" width="85.6640625" customWidth="1"/>
+    <col min="3" max="3" width="73.83203125" customWidth="1"/>
     <col min="4" max="4" width="109.5" customWidth="1"/>
-    <col min="5" max="27" width="7.625" customWidth="1"/>
+    <col min="5" max="27" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4120,7 +4098,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>60</v>
       </c>
@@ -4128,49 +4106,49 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="16.5" customHeight="1">
       <c r="A3" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="C4" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="B4" s="3" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C5" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>122</v>
       </c>
@@ -4184,9 +4162,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>65</v>
@@ -4198,9 +4176,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>68</v>
@@ -4212,7 +4190,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>123</v>
       </c>
@@ -4226,9 +4204,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>73</v>
@@ -4240,35 +4218,35 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15" customHeight="1">
       <c r="A11" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>629</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>630</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>632</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>633</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1">
       <c r="A12" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>629</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>118</v>
       </c>
@@ -4282,7 +4260,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>119</v>
       </c>
@@ -4296,7 +4274,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="51" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>120</v>
       </c>
@@ -4310,7 +4288,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>121</v>
       </c>
@@ -4324,7 +4302,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>125</v>
       </c>
@@ -4338,7 +4316,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>124</v>
       </c>
@@ -4352,79 +4330,79 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1">
       <c r="A19" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A20" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A21" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>695</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+      <c r="B21" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A22" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+      <c r="B22" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="35.25" customHeight="1">
+      <c r="A23" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+      <c r="B23" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A24" s="3" t="s">
         <v>391</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>698</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>393</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>94</v>
@@ -4436,9 +4414,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="15.75" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>97</v>
@@ -4450,9 +4428,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="15.75" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>99</v>
@@ -4464,149 +4442,149 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="15.75" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A28" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A29" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A30" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A31" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A32" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A33" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A34" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A35" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A36" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A37" s="3" t="s">
         <v>402</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>645</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>641</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>642</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>659</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>662</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>405</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>100</v>
@@ -4618,9 +4596,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="15.75" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>656</v>
+        <v>637</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>103</v>
@@ -4632,9 +4610,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="15.75" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>106</v>
@@ -4646,9 +4624,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="15.75" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>109</v>
@@ -4660,9 +4638,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="15.75" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>112</v>
@@ -4674,457 +4652,457 @@
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="15.75" customHeight="1">
       <c r="A42" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A43" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A44" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A45" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B45" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A46" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A47" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A48" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A49" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A50" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A51" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A52" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A53" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A54" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A55" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A56" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A57" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A58" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A59" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A60" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A61" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A62" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A63" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A64" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A65" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A66" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A67" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A68" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A69" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A70" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A71" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A72" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>705</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="B43" s="3" t="s">
+      <c r="C72" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A73" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>702</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>706</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>701</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>704</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>709</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>703</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>710</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>717</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>731</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="B49" s="3" t="s">
+      <c r="C73" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>702</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>706</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>701</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>704</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>709</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>721</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>735</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>718</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>732</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>700</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>702</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>706</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>701</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>704</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>709</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>722</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>736</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>719</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>733</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>700</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>702</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>706</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>701</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>704</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>709</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>723</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>737</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="3" t="s">
-        <v>757</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>720</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>734</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>738</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="B68" s="3" t="s">
+      <c r="D73" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="C68" s="3" t="s">
-        <v>739</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>726</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>740</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="3" t="s">
-        <v>758</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>727</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>727</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="3" t="s">
+    </row>
+    <row r="74" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A74" s="3" t="s">
         <v>437</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>728</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>741</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>729</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>742</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>730</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>730</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="3" t="s">
-        <v>440</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>113</v>
@@ -5136,9 +5114,9 @@
         <v>115</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" ht="15.75" customHeight="1">
       <c r="A75" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>116</v>
@@ -5150,9 +5128,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" ht="15.75" customHeight="1">
       <c r="A76" s="3" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>112</v>
@@ -5164,289 +5142,289 @@
         <v>112</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" ht="15.75" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>677</v>
+        <v>653</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>672</v>
+        <v>786</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>680</v>
+        <v>787</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15.75" customHeight="1">
       <c r="A78" s="3" t="s">
-        <v>678</v>
+        <v>654</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>674</v>
+        <v>789</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>673</v>
+        <v>789</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15.75" customHeight="1">
       <c r="A79" s="3" t="s">
-        <v>679</v>
+        <v>655</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>676</v>
+        <v>791</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>675</v>
+        <v>791</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15.75" customHeight="1">
       <c r="A80" s="3" t="s">
-        <v>671</v>
+        <v>652</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>668</v>
+        <v>649</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>669</v>
+        <v>650</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15.75" customHeight="1">
       <c r="A81" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A82" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A83" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A84" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="B81" s="3" t="s">
-        <v>761</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>771</v>
-      </c>
-      <c r="D81" s="3" t="s">
+      <c r="B84" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A85" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A86" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="C86" s="3" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>764</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>774</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="3" t="s">
+      <c r="D86" s="3" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A87" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A88" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A89" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A90" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A91" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A92" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A93" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A94" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A95" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="B83" s="3" t="s">
-        <v>765</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>775</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>766</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>776</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="3" t="s">
+      <c r="B95" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A96" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="B85" s="3" t="s">
-        <v>767</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>777</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>768</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>778</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>762</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>772</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>764</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>774</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>765</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>775</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="3" t="s">
+      <c r="B96" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A97" s="3" t="s">
         <v>455</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>766</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>776</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>767</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>777</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>768</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>778</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>763</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>773</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>764</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>774</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>769</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>779</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>770</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>780</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="3" t="s">
-        <v>458</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>132</v>
@@ -5458,9 +5436,9 @@
         <v>134</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" ht="15.75" customHeight="1">
       <c r="A98" s="3" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>135</v>
@@ -5472,9 +5450,9 @@
         <v>137</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" ht="15.75" customHeight="1">
       <c r="A99" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>138</v>
@@ -5486,9 +5464,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" ht="15.75" customHeight="1">
       <c r="A100" s="3" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>141</v>
@@ -5500,9 +5478,9 @@
         <v>143</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" ht="15.75" customHeight="1">
       <c r="A101" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>144</v>
@@ -5514,9 +5492,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" ht="15.75" customHeight="1">
       <c r="A102" s="3" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>147</v>
@@ -5528,9 +5506,9 @@
         <v>149</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" ht="18.75" customHeight="1">
       <c r="A103" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>150</v>
@@ -5542,9 +5520,9 @@
         <v>152</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" ht="19.5" customHeight="1">
       <c r="A104" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>126</v>
@@ -5556,9 +5534,9 @@
         <v>130</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" ht="19.5" customHeight="1">
       <c r="A105" s="3" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>127</v>
@@ -5570,7 +5548,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" ht="16.5" customHeight="1">
       <c r="A106" s="3"/>
       <c r="B106" s="3" t="s">
         <v>163</v>
@@ -5582,7 +5560,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" ht="15.75" customHeight="1">
       <c r="A107" s="3"/>
       <c r="B107" s="3" t="s">
         <v>153</v>
@@ -5594,7 +5572,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" ht="15.75" customHeight="1">
       <c r="A108" s="3"/>
       <c r="B108" s="3" t="s">
         <v>154</v>
@@ -5606,7 +5584,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" ht="15.75" customHeight="1">
       <c r="A109" s="3"/>
       <c r="B109" s="3" t="s">
         <v>155</v>
@@ -5618,9 +5596,9 @@
         <v>162</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" ht="16.5" customHeight="1">
       <c r="A110" s="3" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>156</v>
@@ -5632,65 +5610,65 @@
         <v>93</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" ht="15.75" customHeight="1">
       <c r="A111" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A112" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A113" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A114" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="B111" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="3" t="s">
+      <c r="B114" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A115" s="3" t="s">
         <v>543</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="3" t="s">
-        <v>546</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>166</v>
@@ -5702,23 +5680,23 @@
         <v>168</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" ht="15.75" customHeight="1">
       <c r="A116" s="3" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B116" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A117" s="3" t="s">
         <v>549</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="3" t="s">
-        <v>552</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>169</v>
@@ -5730,9 +5708,9 @@
         <v>170</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" ht="15.75" customHeight="1">
       <c r="A118" s="3" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>171</v>
@@ -5744,9 +5722,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" ht="15.75" customHeight="1">
       <c r="A119" s="3" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>173</v>
@@ -5758,21 +5736,21 @@
         <v>175</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" ht="15.75" customHeight="1">
       <c r="A120" s="3" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="15.75" customHeight="1">
       <c r="A121" s="3"/>
       <c r="B121" s="3" t="s">
         <v>176</v>
@@ -5784,89 +5762,89 @@
         <v>178</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" ht="166.5" customHeight="1">
       <c r="A122" s="3"/>
       <c r="B122" s="2" t="s">
         <v>156</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="123" spans="1:4" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" s="8" customFormat="1" ht="17.25" customHeight="1">
       <c r="A123" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="D123" s="3"/>
+    </row>
+    <row r="124" spans="1:4" s="8" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A124" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" s="8" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A125" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" s="8" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A126" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" s="8" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A127" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="B127" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="B123" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="D123" s="3"/>
-    </row>
-    <row r="124" spans="1:4" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="D124" s="3" t="s">
+      <c r="C127" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="D127" s="3" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="125" spans="1:4" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" ht="18.75" customHeight="1">
       <c r="A128" s="3" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>179</v>
@@ -5878,7 +5856,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" ht="19.5" customHeight="1">
       <c r="A129" s="3"/>
       <c r="B129" s="3" t="s">
         <v>182</v>
@@ -5890,9 +5868,9 @@
         <v>184</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" ht="20.25" customHeight="1">
       <c r="A130" s="3" t="s">
-        <v>802</v>
+        <v>770</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>185</v>
@@ -5904,9 +5882,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" ht="19.5" customHeight="1">
       <c r="A131" s="3" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>188</v>
@@ -5918,9 +5896,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" ht="20.25" customHeight="1">
       <c r="A132" s="3" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>189</v>
@@ -5932,7 +5910,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" ht="18.75" customHeight="1">
       <c r="A133" s="3"/>
       <c r="B133" s="3" t="s">
         <v>192</v>
@@ -5944,9 +5922,9 @@
         <v>194</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" ht="21" customHeight="1">
       <c r="A134" s="3" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>195</v>
@@ -5956,9 +5934,9 @@
       </c>
       <c r="D134" s="3"/>
     </row>
-    <row r="135" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" ht="18.75" customHeight="1">
       <c r="A135" s="3" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>196</v>
@@ -5970,9 +5948,9 @@
         <v>198</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" ht="19.5" customHeight="1">
       <c r="A136" s="3" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>199</v>
@@ -5984,9 +5962,9 @@
         <v>201</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" ht="20.25" customHeight="1">
       <c r="A137" s="3" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>202</v>
@@ -5998,9 +5976,9 @@
         <v>204</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" ht="21" customHeight="1">
       <c r="A138" s="3" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>205</v>
@@ -6012,9 +5990,9 @@
         <v>207</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" ht="20.25" customHeight="1">
       <c r="A139" s="3" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>208</v>
@@ -6026,9 +6004,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" ht="19.5" customHeight="1">
       <c r="A140" s="3" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>211</v>
@@ -6037,12 +6015,12 @@
         <v>212</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="18.75" customHeight="1">
       <c r="A141" s="3" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>213</v>
@@ -6054,9 +6032,9 @@
         <v>215</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" ht="19.5" customHeight="1">
       <c r="A142" s="3" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>216</v>
@@ -6068,9 +6046,9 @@
         <v>218</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" ht="21" customHeight="1">
       <c r="A143" s="3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>219</v>
@@ -6082,37 +6060,37 @@
         <v>221</v>
       </c>
     </row>
-    <row r="144" spans="1:4" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" s="6" customFormat="1" ht="30" customHeight="1">
       <c r="A144" s="4" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>798</v>
+        <v>766</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>800</v>
+        <v>768</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" s="6" customFormat="1" ht="27" customHeight="1">
       <c r="A145" s="4" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>799</v>
+        <v>767</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>801</v>
+        <v>769</v>
       </c>
       <c r="D145" s="4" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" ht="22.5" customHeight="1">
       <c r="A146" s="3" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>223</v>
@@ -6124,9 +6102,9 @@
         <v>225</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" ht="18.75" customHeight="1">
       <c r="A147" s="3" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>226</v>
@@ -6138,9 +6116,9 @@
         <v>228</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" ht="19.5" customHeight="1">
       <c r="A148" s="3" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>229</v>
@@ -6152,37 +6130,37 @@
         <v>231</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" ht="19.5" customHeight="1">
       <c r="A149" s="3" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B149" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="D149" s="7" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A150" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="C150" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="C149" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="D149" s="7" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="B150" s="3" t="s">
+      <c r="D150" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="C150" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="D150" s="7" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="151" spans="1:4" ht="19.5" customHeight="1">
       <c r="A151" s="3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>232</v>
@@ -6191,12 +6169,12 @@
         <v>233</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="21" customHeight="1">
       <c r="A152" s="3" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>234</v>
@@ -6208,9 +6186,9 @@
         <v>236</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" ht="19.5" customHeight="1">
       <c r="A153" s="3" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>237</v>
@@ -6222,9 +6200,9 @@
         <v>239</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" ht="42.75" customHeight="1">
       <c r="A154" s="3" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>240</v>
@@ -6236,9 +6214,9 @@
         <v>242</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" ht="23.25" customHeight="1">
       <c r="A155" s="3" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>243</v>
@@ -6250,119 +6228,119 @@
         <v>245</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" ht="20.25" customHeight="1">
       <c r="A156" s="3" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B156" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="D156" s="7" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A157" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="D157" s="7" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A158" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="C156" s="7" t="s">
+      <c r="B158" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="D158" s="7" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A159" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D156" s="7" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="B157" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="C157" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="D157" s="7" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="B158" s="7" t="s">
+      <c r="B159" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="C159" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="C158" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="D158" s="7" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="B159" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="C159" s="7" t="s">
-        <v>475</v>
-      </c>
       <c r="D159" s="7"/>
     </row>
-    <row r="160" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" ht="18.75" customHeight="1">
       <c r="A160" s="3" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="18.75" customHeight="1">
       <c r="A161" s="3" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B161" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A162" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="B162" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="C161" s="3" t="s">
+      <c r="C162" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="D161" s="3" t="s">
+      <c r="D162" s="3" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="B162" s="3" t="s">
+    <row r="163" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A163" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="B163" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="C162" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="D162" s="3" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="B163" s="3" t="s">
-        <v>513</v>
-      </c>
       <c r="C163" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="23.25" customHeight="1">
       <c r="A164" s="3" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>246</v>
@@ -6374,9 +6352,9 @@
         <v>248</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" ht="19.5" customHeight="1">
       <c r="A165" s="3" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>249</v>
@@ -6388,23 +6366,23 @@
         <v>251</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" ht="18.75" customHeight="1">
       <c r="A166" s="3" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D166" s="3" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" ht="21.75" customHeight="1">
       <c r="A167" s="3" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>253</v>
@@ -6416,9 +6394,9 @@
         <v>255</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" ht="19.5" customHeight="1">
       <c r="A168" s="3" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>256</v>
@@ -6430,9 +6408,9 @@
         <v>258</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" ht="21" customHeight="1">
       <c r="A169" s="3" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>259</v>
@@ -6444,9 +6422,9 @@
         <v>261</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" ht="20.25" customHeight="1">
       <c r="A170" s="3" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>262</v>
@@ -6458,7 +6436,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" ht="24" customHeight="1">
       <c r="A171" s="3"/>
       <c r="B171" s="3" t="s">
         <v>253</v>
@@ -6470,37 +6448,37 @@
         <v>255</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" ht="19.5" customHeight="1">
       <c r="A172" s="3" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D172" s="3" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" ht="18.75" customHeight="1">
       <c r="A173" s="3" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D173" s="3" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" ht="21" customHeight="1">
       <c r="A174" s="3" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>267</v>
@@ -6512,7 +6490,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" ht="19.5" customHeight="1">
       <c r="A175" s="3"/>
       <c r="B175" s="3" t="s">
         <v>253</v>
@@ -6524,9 +6502,9 @@
         <v>255</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" ht="20.25" customHeight="1">
       <c r="A176" s="3" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>270</v>
@@ -6538,7 +6516,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" ht="89.25" customHeight="1">
       <c r="A177" s="3"/>
       <c r="B177" s="7" t="s">
         <v>273</v>
@@ -6550,21 +6528,21 @@
         <v>275</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" ht="20.25" customHeight="1">
       <c r="A178" s="3" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>804</v>
+        <v>772</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>805</v>
+        <v>773</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="42" customHeight="1">
       <c r="A179" s="3"/>
       <c r="B179" s="3" t="s">
         <v>276</v>
@@ -6576,9 +6554,9 @@
         <v>278</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" ht="21" customHeight="1">
       <c r="A180" s="3" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>279</v>
@@ -6590,7 +6568,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" ht="21" customHeight="1">
       <c r="A181" s="3"/>
       <c r="B181" s="3" t="s">
         <v>282</v>
@@ -6602,9 +6580,9 @@
         <v>284</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" ht="19.5" customHeight="1">
       <c r="A182" s="3" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>285</v>
@@ -6616,7 +6594,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" ht="34.5" customHeight="1">
       <c r="A183" s="3"/>
       <c r="B183" s="3" t="s">
         <v>288</v>
@@ -6628,9 +6606,9 @@
         <v>290</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" ht="18.75" customHeight="1">
       <c r="A184" s="3" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>291</v>
@@ -6642,7 +6620,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" ht="65.25" customHeight="1">
       <c r="A185" s="3"/>
       <c r="B185" s="7" t="s">
         <v>294</v>
@@ -6654,9 +6632,9 @@
         <v>374</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" ht="21" customHeight="1">
       <c r="A186" s="3" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B186" s="7" t="s">
         <v>296</v>
@@ -6668,7 +6646,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" ht="19.5" customHeight="1">
       <c r="A187" s="3"/>
       <c r="B187" s="3" t="s">
         <v>299</v>
@@ -6680,9 +6658,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" ht="20.25" customHeight="1">
       <c r="A188" s="3" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>302</v>
@@ -6694,7 +6672,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" ht="17.25" customHeight="1">
       <c r="A189" s="3"/>
       <c r="B189" s="3" t="s">
         <v>282</v>
@@ -6706,9 +6684,9 @@
         <v>284</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" ht="16.5" customHeight="1">
       <c r="A190" s="3" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>305</v>
@@ -6720,7 +6698,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="122.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" ht="122.25" customHeight="1">
       <c r="A191" s="3"/>
       <c r="B191" s="7" t="s">
         <v>308</v>
@@ -6729,12 +6707,12 @@
         <v>309</v>
       </c>
       <c r="D191" s="7" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="20.25" customHeight="1">
       <c r="A192" s="3" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>310</v>
@@ -6746,7 +6724,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" ht="89.25" customHeight="1">
       <c r="A193" s="3"/>
       <c r="B193" s="7" t="s">
         <v>313</v>
@@ -6755,12 +6733,12 @@
         <v>314</v>
       </c>
       <c r="D193" s="7" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="16.5" customHeight="1">
       <c r="A194" s="3" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>315</v>
@@ -6772,7 +6750,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" ht="46.5" customHeight="1">
       <c r="A195" s="3"/>
       <c r="B195" s="3" t="s">
         <v>318</v>
@@ -6784,9 +6762,9 @@
         <v>320</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" ht="18" customHeight="1">
       <c r="A196" s="3" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>321</v>
@@ -6798,7 +6776,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" ht="106.5" customHeight="1">
       <c r="A197" s="3"/>
       <c r="B197" s="7" t="s">
         <v>324</v>
@@ -6807,12 +6785,12 @@
         <v>325</v>
       </c>
       <c r="D197" s="7" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="19.5" customHeight="1">
       <c r="A198" s="3" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>326</v>
@@ -6824,7 +6802,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" ht="107.25" customHeight="1">
       <c r="A199" s="3"/>
       <c r="B199" s="7" t="s">
         <v>329</v>
@@ -6833,12 +6811,12 @@
         <v>330</v>
       </c>
       <c r="D199" s="7" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="20.25" customHeight="1">
       <c r="A200" s="3" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>331</v>
@@ -6850,7 +6828,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" ht="74.25" customHeight="1">
       <c r="A201" s="3"/>
       <c r="B201" s="7" t="s">
         <v>334</v>
@@ -6862,7 +6840,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" ht="55.5" customHeight="1">
       <c r="A202" s="3"/>
       <c r="B202" s="7" t="s">
         <v>337</v>
@@ -6874,7 +6852,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" ht="60" customHeight="1">
       <c r="A203" s="3"/>
       <c r="B203" s="7" t="s">
         <v>340</v>
@@ -6886,23 +6864,23 @@
         <v>342</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" ht="19.5" customHeight="1">
       <c r="A204" s="3" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>684</v>
+        <v>656</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>685</v>
+        <v>657</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="19.5" customHeight="1">
       <c r="A205" s="3" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>343</v>
@@ -6914,9 +6892,9 @@
         <v>345</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" ht="19.5" customHeight="1">
       <c r="A206" s="3" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>346</v>
@@ -6928,9 +6906,9 @@
         <v>348</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" ht="18.75" customHeight="1">
       <c r="A207" s="3" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>349</v>
@@ -6942,9 +6920,9 @@
         <v>350</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" ht="20.25" customHeight="1">
       <c r="A208" s="3" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>351</v>
@@ -6956,9 +6934,9 @@
         <v>353</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" ht="20.25" customHeight="1">
       <c r="A209" s="3" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>354</v>
@@ -6970,9 +6948,9 @@
         <v>356</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" ht="21.75" customHeight="1">
       <c r="A210" s="3" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>357</v>
@@ -6984,9 +6962,9 @@
         <v>359</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" ht="19.5" customHeight="1">
       <c r="A211" s="3" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>360</v>
@@ -6998,9 +6976,9 @@
         <v>362</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" ht="23.25" customHeight="1">
       <c r="A212" s="3" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>363</v>
@@ -7012,9 +6990,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" ht="22.5" customHeight="1">
       <c r="A213" s="3" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>366</v>
@@ -7023,12 +7001,12 @@
         <v>367</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="120.75" customHeight="1">
       <c r="A214" s="3" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B214" s="7" t="s">
         <v>368</v>
@@ -7040,9 +7018,9 @@
         <v>370</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" ht="20.25" customHeight="1">
       <c r="A215" s="3" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>371</v>
@@ -7054,57 +7032,57 @@
         <v>373</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="131.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" ht="131.25" customHeight="1">
       <c r="A216" s="3" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B216" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="C216" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="D216" s="7" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" s="8" customFormat="1" ht="38.25" customHeight="1">
+      <c r="B217" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="C217" s="10" t="s">
         <v>621</v>
       </c>
-      <c r="C216" s="7" t="s">
+      <c r="D217" s="9" t="s">
         <v>623</v>
       </c>
-      <c r="D216" s="7" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" s="8" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B217" s="9" t="s">
-        <v>622</v>
-      </c>
-      <c r="C217" s="10" t="s">
-        <v>624</v>
-      </c>
-      <c r="D217" s="9" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="1:4" ht="15" customHeight="1">
       <c r="A218" s="3" t="s">
-        <v>788</v>
+        <v>756</v>
       </c>
       <c r="B218" s="13" t="s">
-        <v>789</v>
+        <v>757</v>
       </c>
       <c r="C218" s="14" t="s">
-        <v>790</v>
+        <v>758</v>
       </c>
       <c r="D218" s="12" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="15" customHeight="1">
       <c r="A219" s="3" t="s">
-        <v>792</v>
+        <v>760</v>
       </c>
       <c r="B219" s="13" t="s">
-        <v>793</v>
+        <v>761</v>
       </c>
       <c r="C219" s="13" t="s">
-        <v>793</v>
+        <v>761</v>
       </c>
       <c r="D219" s="12" t="s">
-        <v>794</v>
+        <v>762</v>
       </c>
     </row>
   </sheetData>
@@ -7123,15 +7101,15 @@
       <selection sqref="A1:A55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="24.625" customWidth="1"/>
-    <col min="4" max="26" width="7.625" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="26" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -7142,7 +7120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -7153,7 +7131,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -7164,7 +7142,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -7175,7 +7153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -7186,7 +7164,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -7197,7 +7175,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -7208,7 +7186,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -7219,7 +7197,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -7230,7 +7208,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -7241,7 +7219,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -7252,7 +7230,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -7263,7 +7241,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15.75" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -7274,7 +7252,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -7285,7 +7263,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -7296,7 +7274,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15.75" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -7307,7 +7285,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -7318,7 +7296,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -7329,7 +7307,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -7340,7 +7318,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15.75" customHeight="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -7351,7 +7329,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -7362,7 +7340,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -7373,7 +7351,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -7384,7 +7362,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15.75" customHeight="1">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -7395,7 +7373,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15.75" customHeight="1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -7406,7 +7384,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -7417,7 +7395,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15.75" customHeight="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -7428,7 +7406,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15.75" customHeight="1">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -7439,7 +7417,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="15.75" customHeight="1">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -7450,7 +7428,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="15.75" customHeight="1">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -7461,7 +7439,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="15.75" customHeight="1">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -7472,7 +7450,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="15.75" customHeight="1">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -7483,7 +7461,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -7494,7 +7472,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -7505,7 +7483,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -7516,7 +7494,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -7527,7 +7505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -7538,7 +7516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -7549,7 +7527,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="15.75" customHeight="1">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -7560,7 +7538,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -7571,7 +7549,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -7582,7 +7560,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -7593,7 +7571,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="15.75" customHeight="1">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -7604,7 +7582,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="15.75" customHeight="1">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -7615,7 +7593,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="15.75" customHeight="1">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -7626,7 +7604,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="15.75" customHeight="1">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -7637,7 +7615,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="15.75" customHeight="1">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -7648,7 +7626,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="15.75" customHeight="1">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -7659,7 +7637,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="15.75" customHeight="1">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -7670,7 +7648,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="15.75" customHeight="1">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -7681,7 +7659,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="15.75" customHeight="1">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -7692,7 +7670,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="15.75" customHeight="1">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -7703,7 +7681,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="15.75" customHeight="1">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -7714,7 +7692,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="15.75" customHeight="1">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -7725,7 +7703,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="15.75" customHeight="1">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -7736,7 +7714,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="15.75" customHeight="1">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -7747,7 +7725,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="15.75" customHeight="1">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -7758,7 +7736,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="15.75" customHeight="1">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -7769,7 +7747,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="15.75" customHeight="1">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -7780,7 +7758,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="15.75" customHeight="1">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -7791,7 +7769,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="15.75" customHeight="1">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -7802,7 +7780,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="15.75" customHeight="1">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -7813,7 +7791,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="15.75" customHeight="1">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -7824,7 +7802,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="15.75" customHeight="1">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -7835,7 +7813,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="15.75" customHeight="1">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -7846,7 +7824,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="15.75" customHeight="1">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -7857,7 +7835,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="15.75" customHeight="1">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -7868,7 +7846,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="15.75" customHeight="1">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -7879,7 +7857,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="15.75" customHeight="1">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -7890,7 +7868,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" ht="15.75" customHeight="1">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -7898,7 +7876,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="15.75" customHeight="1">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -7906,935 +7884,935 @@
         <v>39</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="73" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="74" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="75" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="76" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="77" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="78" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="79" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="80" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
